--- a/Meteora Ecommerce.xlsx
+++ b/Meteora Ecommerce.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gribeirodeal\cursos-alura\curso-excel-domine-editor-planilhas-alura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B235186-4EDA-48A3-B7C5-333FFC8289BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6E9226-DDAB-45B9-90E2-80E2B9593CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6AB271C9-5D0E-4B15-8F38-762E3FE2F848}"/>
   </bookViews>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="16">
   <si>
     <t>Produtos</t>
   </si>
   <si>
-    <t>Camiseta</t>
-  </si>
-  <si>
     <t>Calça</t>
   </si>
   <si>
@@ -72,15 +69,38 @@
   </si>
   <si>
     <t>Cinto</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Único</t>
+  </si>
+  <si>
+    <t>Camiseta Lisa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -107,8 +127,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,73 +449,188 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE12F67-A69D-4557-9949-60645819EA62}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" s="2" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>5</v>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Meteora Ecommerce.xlsx
+++ b/Meteora Ecommerce.xlsx
@@ -1,17 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gribeirodeal\cursos-alura\curso-excel-domine-editor-planilhas-alura\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8277D02F-A680-49BF-B85C-CDE2617594FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Planilha1" sheetId="1" r:id="rId4"/>
+    <sheet name="Produtos" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabela de Produtos" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="22">
   <si>
     <t>Produtos</t>
   </si>
@@ -75,74 +85,227 @@
   <si>
     <t>Cinto</t>
   </si>
+  <si>
+    <t>Meteora</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ACDD8594-C6FB-45AB-BA9E-8F1EB3E3DA5F}" name="Table3" displayName="Table3" ref="A3:D23" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A3:D23" xr:uid="{ACDD8594-C6FB-45AB-BA9E-8F1EB3E3DA5F}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{D28492A9-579C-4F05-A742-7ACB40A3E915}" name="Produtos" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{1E4438B0-5873-45D7-94C1-2DE7F3D6B1D9}" name="Tamanho" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{10732D68-E106-4E50-A393-271DBF29B5C3}" name="Categoria" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{91F7D37B-465A-4B08-8894-63AF3264D30E}" name="Preço Unitário" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -332,331 +495,319 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.86"/>
-    <col customWidth="1" min="2" max="2" width="11.57"/>
-    <col customWidth="1" min="3" max="3" width="12.14"/>
-    <col customWidth="1" min="4" max="4" width="17.86"/>
-    <col customWidth="1" min="5" max="26" width="8.0"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" customWidth="1"/>
+    <col min="3" max="3" width="12.08984375" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" customWidth="1"/>
+    <col min="5" max="26" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.0" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:26" ht="5.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-    </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2">
-        <v>25.9</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2">
-        <v>29.9</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+    </row>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="2">
-        <v>32.9</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2">
-        <v>399.9</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
+        <v>29.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="2">
-        <v>249.9</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
+        <v>32.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2">
-        <v>259.9</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
+        <v>399.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="2">
-        <v>299.9</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
+        <v>249.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="2">
-        <v>85.9</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
+        <v>259.89999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="2">
-        <v>89.9</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
+        <v>299.89999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="2">
-        <v>92.9</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
+        <v>85.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="2">
-        <v>149.9</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
+        <v>89.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="2">
-        <v>65.9</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
+        <v>92.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="2">
-        <v>69.9</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
+        <v>149.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="2">
-        <v>70.9</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
+        <v>65.900000000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="3">
-        <v>36.0</v>
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D16" s="2">
-        <v>199.9</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3">
-        <v>37.0</v>
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D17" s="2">
-        <v>249.9</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
+        <v>70.900000000000006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>38.0</v>
+        <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="2">
-        <v>259.9</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3">
+        <v>37</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2">
+        <v>249.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="3">
+        <v>38</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="2">
+        <v>259.89999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="2">
-        <v>259.9</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="2">
-        <v>39.9</v>
-      </c>
-    </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>10</v>
@@ -665,2950 +816,6275 @@
         <v>11</v>
       </c>
       <c r="D21" s="2">
+        <v>259.89999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="2">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="2">
         <v>49.9</v>
       </c>
     </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" ht="14.25" customHeight="1">
-      <c r="B23" s="3"/>
-    </row>
-    <row r="24" ht="14.25" customHeight="1">
+    <row r="24" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="3"/>
     </row>
-    <row r="25" ht="14.25" customHeight="1">
+    <row r="25" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="3"/>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
+    <row r="26" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="3"/>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
+    <row r="27" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="3"/>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
+    <row r="28" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="3"/>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
+    <row r="29" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3"/>
     </row>
-    <row r="30" ht="14.25" customHeight="1">
+    <row r="30" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="3"/>
     </row>
-    <row r="31" ht="14.25" customHeight="1">
+    <row r="31" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" ht="14.25" customHeight="1">
+    <row r="32" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="3"/>
     </row>
-    <row r="33" ht="14.25" customHeight="1">
+    <row r="33" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="3"/>
     </row>
-    <row r="34" ht="14.25" customHeight="1">
+    <row r="34" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="3"/>
     </row>
-    <row r="35" ht="14.25" customHeight="1">
+    <row r="35" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="3"/>
     </row>
-    <row r="36" ht="14.25" customHeight="1">
+    <row r="36" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="3"/>
     </row>
-    <row r="37" ht="14.25" customHeight="1">
+    <row r="37" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="3"/>
     </row>
-    <row r="38" ht="14.25" customHeight="1">
+    <row r="38" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="3"/>
     </row>
-    <row r="39" ht="14.25" customHeight="1">
+    <row r="39" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="3"/>
     </row>
-    <row r="40" ht="14.25" customHeight="1">
+    <row r="40" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="3"/>
     </row>
-    <row r="41" ht="14.25" customHeight="1">
+    <row r="41" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="3"/>
     </row>
-    <row r="42" ht="14.25" customHeight="1">
+    <row r="42" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="3"/>
     </row>
-    <row r="43" ht="14.25" customHeight="1">
+    <row r="43" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="3"/>
     </row>
-    <row r="44" ht="14.25" customHeight="1">
+    <row r="44" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="3"/>
     </row>
-    <row r="45" ht="14.25" customHeight="1">
+    <row r="45" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="3"/>
     </row>
-    <row r="46" ht="14.25" customHeight="1">
+    <row r="46" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="3"/>
     </row>
-    <row r="47" ht="14.25" customHeight="1">
+    <row r="47" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="3"/>
     </row>
-    <row r="48" ht="14.25" customHeight="1">
+    <row r="48" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="3"/>
     </row>
-    <row r="49" ht="14.25" customHeight="1">
+    <row r="49" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="3"/>
     </row>
-    <row r="50" ht="14.25" customHeight="1">
+    <row r="50" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="3"/>
     </row>
-    <row r="51" ht="14.25" customHeight="1">
+    <row r="51" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="3"/>
     </row>
-    <row r="52" ht="14.25" customHeight="1">
+    <row r="52" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="3"/>
     </row>
-    <row r="53" ht="14.25" customHeight="1">
+    <row r="53" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="3"/>
     </row>
-    <row r="54" ht="14.25" customHeight="1">
+    <row r="54" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="3"/>
     </row>
-    <row r="55" ht="14.25" customHeight="1">
+    <row r="55" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="3"/>
     </row>
-    <row r="56" ht="14.25" customHeight="1">
+    <row r="56" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="3"/>
     </row>
-    <row r="57" ht="14.25" customHeight="1">
+    <row r="57" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="3"/>
     </row>
-    <row r="58" ht="14.25" customHeight="1">
+    <row r="58" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58" s="3"/>
     </row>
-    <row r="59" ht="14.25" customHeight="1">
+    <row r="59" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="3"/>
     </row>
-    <row r="60" ht="14.25" customHeight="1">
+    <row r="60" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B60" s="3"/>
     </row>
-    <row r="61" ht="14.25" customHeight="1">
+    <row r="61" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" s="3"/>
     </row>
-    <row r="62" ht="14.25" customHeight="1">
+    <row r="62" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B62" s="3"/>
     </row>
-    <row r="63" ht="14.25" customHeight="1">
+    <row r="63" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="3"/>
     </row>
-    <row r="64" ht="14.25" customHeight="1">
+    <row r="64" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B64" s="3"/>
     </row>
-    <row r="65" ht="14.25" customHeight="1">
+    <row r="65" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B65" s="3"/>
     </row>
-    <row r="66" ht="14.25" customHeight="1">
+    <row r="66" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66" s="3"/>
     </row>
-    <row r="67" ht="14.25" customHeight="1">
+    <row r="67" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B67" s="3"/>
     </row>
-    <row r="68" ht="14.25" customHeight="1">
+    <row r="68" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B68" s="3"/>
     </row>
-    <row r="69" ht="14.25" customHeight="1">
+    <row r="69" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B69" s="3"/>
     </row>
-    <row r="70" ht="14.25" customHeight="1">
+    <row r="70" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B70" s="3"/>
     </row>
-    <row r="71" ht="14.25" customHeight="1">
+    <row r="71" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B71" s="3"/>
     </row>
-    <row r="72" ht="14.25" customHeight="1">
+    <row r="72" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B72" s="3"/>
     </row>
-    <row r="73" ht="14.25" customHeight="1">
+    <row r="73" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="3"/>
     </row>
-    <row r="74" ht="14.25" customHeight="1">
+    <row r="74" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B74" s="3"/>
     </row>
-    <row r="75" ht="14.25" customHeight="1">
+    <row r="75" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" s="3"/>
     </row>
-    <row r="76" ht="14.25" customHeight="1">
+    <row r="76" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B76" s="3"/>
     </row>
-    <row r="77" ht="14.25" customHeight="1">
+    <row r="77" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B77" s="3"/>
     </row>
-    <row r="78" ht="14.25" customHeight="1">
+    <row r="78" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B78" s="3"/>
     </row>
-    <row r="79" ht="14.25" customHeight="1">
+    <row r="79" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" s="3"/>
     </row>
-    <row r="80" ht="14.25" customHeight="1">
+    <row r="80" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B80" s="3"/>
     </row>
-    <row r="81" ht="14.25" customHeight="1">
+    <row r="81" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B81" s="3"/>
     </row>
-    <row r="82" ht="14.25" customHeight="1">
+    <row r="82" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B82" s="3"/>
     </row>
-    <row r="83" ht="14.25" customHeight="1">
+    <row r="83" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B83" s="3"/>
     </row>
-    <row r="84" ht="14.25" customHeight="1">
+    <row r="84" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B84" s="3"/>
     </row>
-    <row r="85" ht="14.25" customHeight="1">
+    <row r="85" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="3"/>
     </row>
-    <row r="86" ht="14.25" customHeight="1">
+    <row r="86" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B86" s="3"/>
     </row>
-    <row r="87" ht="14.25" customHeight="1">
+    <row r="87" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B87" s="3"/>
     </row>
-    <row r="88" ht="14.25" customHeight="1">
+    <row r="88" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B88" s="3"/>
     </row>
-    <row r="89" ht="14.25" customHeight="1">
+    <row r="89" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B89" s="3"/>
     </row>
-    <row r="90" ht="14.25" customHeight="1">
+    <row r="90" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B90" s="3"/>
     </row>
-    <row r="91" ht="14.25" customHeight="1">
+    <row r="91" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B91" s="3"/>
     </row>
-    <row r="92" ht="14.25" customHeight="1">
+    <row r="92" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B92" s="3"/>
     </row>
-    <row r="93" ht="14.25" customHeight="1">
+    <row r="93" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B93" s="3"/>
     </row>
-    <row r="94" ht="14.25" customHeight="1">
+    <row r="94" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B94" s="3"/>
     </row>
-    <row r="95" ht="14.25" customHeight="1">
+    <row r="95" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B95" s="3"/>
     </row>
-    <row r="96" ht="14.25" customHeight="1">
+    <row r="96" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B96" s="3"/>
     </row>
-    <row r="97" ht="14.25" customHeight="1">
+    <row r="97" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B97" s="3"/>
     </row>
-    <row r="98" ht="14.25" customHeight="1">
+    <row r="98" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B98" s="3"/>
     </row>
-    <row r="99" ht="14.25" customHeight="1">
+    <row r="99" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B99" s="3"/>
     </row>
-    <row r="100" ht="14.25" customHeight="1">
+    <row r="100" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B100" s="3"/>
     </row>
-    <row r="101" ht="14.25" customHeight="1">
+    <row r="101" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B101" s="3"/>
     </row>
-    <row r="102" ht="14.25" customHeight="1">
+    <row r="102" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B102" s="3"/>
     </row>
-    <row r="103" ht="14.25" customHeight="1">
+    <row r="103" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B103" s="3"/>
     </row>
-    <row r="104" ht="14.25" customHeight="1">
+    <row r="104" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B104" s="3"/>
     </row>
-    <row r="105" ht="14.25" customHeight="1">
+    <row r="105" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B105" s="3"/>
     </row>
-    <row r="106" ht="14.25" customHeight="1">
+    <row r="106" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B106" s="3"/>
     </row>
-    <row r="107" ht="14.25" customHeight="1">
+    <row r="107" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B107" s="3"/>
     </row>
-    <row r="108" ht="14.25" customHeight="1">
+    <row r="108" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B108" s="3"/>
     </row>
-    <row r="109" ht="14.25" customHeight="1">
+    <row r="109" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B109" s="3"/>
     </row>
-    <row r="110" ht="14.25" customHeight="1">
+    <row r="110" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B110" s="3"/>
     </row>
-    <row r="111" ht="14.25" customHeight="1">
+    <row r="111" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B111" s="3"/>
     </row>
-    <row r="112" ht="14.25" customHeight="1">
+    <row r="112" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B112" s="3"/>
     </row>
-    <row r="113" ht="14.25" customHeight="1">
+    <row r="113" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B113" s="3"/>
     </row>
-    <row r="114" ht="14.25" customHeight="1">
+    <row r="114" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B114" s="3"/>
     </row>
-    <row r="115" ht="14.25" customHeight="1">
+    <row r="115" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B115" s="3"/>
     </row>
-    <row r="116" ht="14.25" customHeight="1">
+    <row r="116" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B116" s="3"/>
     </row>
-    <row r="117" ht="14.25" customHeight="1">
+    <row r="117" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B117" s="3"/>
     </row>
-    <row r="118" ht="14.25" customHeight="1">
+    <row r="118" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B118" s="3"/>
     </row>
-    <row r="119" ht="14.25" customHeight="1">
+    <row r="119" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B119" s="3"/>
     </row>
-    <row r="120" ht="14.25" customHeight="1">
+    <row r="120" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B120" s="3"/>
     </row>
-    <row r="121" ht="14.25" customHeight="1">
+    <row r="121" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B121" s="3"/>
     </row>
-    <row r="122" ht="14.25" customHeight="1">
+    <row r="122" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B122" s="3"/>
     </row>
-    <row r="123" ht="14.25" customHeight="1">
+    <row r="123" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B123" s="3"/>
     </row>
-    <row r="124" ht="14.25" customHeight="1">
+    <row r="124" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B124" s="3"/>
     </row>
-    <row r="125" ht="14.25" customHeight="1">
+    <row r="125" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B125" s="3"/>
     </row>
-    <row r="126" ht="14.25" customHeight="1">
+    <row r="126" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B126" s="3"/>
     </row>
-    <row r="127" ht="14.25" customHeight="1">
+    <row r="127" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B127" s="3"/>
     </row>
-    <row r="128" ht="14.25" customHeight="1">
+    <row r="128" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B128" s="3"/>
     </row>
-    <row r="129" ht="14.25" customHeight="1">
+    <row r="129" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B129" s="3"/>
     </row>
-    <row r="130" ht="14.25" customHeight="1">
+    <row r="130" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B130" s="3"/>
     </row>
-    <row r="131" ht="14.25" customHeight="1">
+    <row r="131" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B131" s="3"/>
     </row>
-    <row r="132" ht="14.25" customHeight="1">
+    <row r="132" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B132" s="3"/>
     </row>
-    <row r="133" ht="14.25" customHeight="1">
+    <row r="133" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B133" s="3"/>
     </row>
-    <row r="134" ht="14.25" customHeight="1">
+    <row r="134" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B134" s="3"/>
     </row>
-    <row r="135" ht="14.25" customHeight="1">
+    <row r="135" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B135" s="3"/>
     </row>
-    <row r="136" ht="14.25" customHeight="1">
+    <row r="136" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B136" s="3"/>
     </row>
-    <row r="137" ht="14.25" customHeight="1">
+    <row r="137" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B137" s="3"/>
     </row>
-    <row r="138" ht="14.25" customHeight="1">
+    <row r="138" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B138" s="3"/>
     </row>
-    <row r="139" ht="14.25" customHeight="1">
+    <row r="139" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B139" s="3"/>
     </row>
-    <row r="140" ht="14.25" customHeight="1">
+    <row r="140" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B140" s="3"/>
     </row>
-    <row r="141" ht="14.25" customHeight="1">
+    <row r="141" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B141" s="3"/>
     </row>
-    <row r="142" ht="14.25" customHeight="1">
+    <row r="142" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B142" s="3"/>
     </row>
-    <row r="143" ht="14.25" customHeight="1">
+    <row r="143" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B143" s="3"/>
     </row>
-    <row r="144" ht="14.25" customHeight="1">
+    <row r="144" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B144" s="3"/>
     </row>
-    <row r="145" ht="14.25" customHeight="1">
+    <row r="145" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B145" s="3"/>
     </row>
-    <row r="146" ht="14.25" customHeight="1">
+    <row r="146" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B146" s="3"/>
     </row>
-    <row r="147" ht="14.25" customHeight="1">
+    <row r="147" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B147" s="3"/>
     </row>
-    <row r="148" ht="14.25" customHeight="1">
+    <row r="148" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B148" s="3"/>
     </row>
-    <row r="149" ht="14.25" customHeight="1">
+    <row r="149" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B149" s="3"/>
     </row>
-    <row r="150" ht="14.25" customHeight="1">
+    <row r="150" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B150" s="3"/>
     </row>
-    <row r="151" ht="14.25" customHeight="1">
+    <row r="151" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B151" s="3"/>
     </row>
-    <row r="152" ht="14.25" customHeight="1">
+    <row r="152" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B152" s="3"/>
     </row>
-    <row r="153" ht="14.25" customHeight="1">
+    <row r="153" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B153" s="3"/>
     </row>
-    <row r="154" ht="14.25" customHeight="1">
+    <row r="154" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B154" s="3"/>
     </row>
-    <row r="155" ht="14.25" customHeight="1">
+    <row r="155" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B155" s="3"/>
     </row>
-    <row r="156" ht="14.25" customHeight="1">
+    <row r="156" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B156" s="3"/>
     </row>
-    <row r="157" ht="14.25" customHeight="1">
+    <row r="157" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B157" s="3"/>
     </row>
-    <row r="158" ht="14.25" customHeight="1">
+    <row r="158" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B158" s="3"/>
     </row>
-    <row r="159" ht="14.25" customHeight="1">
+    <row r="159" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B159" s="3"/>
     </row>
-    <row r="160" ht="14.25" customHeight="1">
+    <row r="160" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B160" s="3"/>
     </row>
-    <row r="161" ht="14.25" customHeight="1">
+    <row r="161" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B161" s="3"/>
     </row>
-    <row r="162" ht="14.25" customHeight="1">
+    <row r="162" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B162" s="3"/>
     </row>
-    <row r="163" ht="14.25" customHeight="1">
+    <row r="163" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B163" s="3"/>
     </row>
-    <row r="164" ht="14.25" customHeight="1">
+    <row r="164" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B164" s="3"/>
     </row>
-    <row r="165" ht="14.25" customHeight="1">
+    <row r="165" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B165" s="3"/>
     </row>
-    <row r="166" ht="14.25" customHeight="1">
+    <row r="166" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B166" s="3"/>
     </row>
-    <row r="167" ht="14.25" customHeight="1">
+    <row r="167" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B167" s="3"/>
     </row>
-    <row r="168" ht="14.25" customHeight="1">
+    <row r="168" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B168" s="3"/>
     </row>
-    <row r="169" ht="14.25" customHeight="1">
+    <row r="169" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B169" s="3"/>
     </row>
-    <row r="170" ht="14.25" customHeight="1">
+    <row r="170" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B170" s="3"/>
     </row>
-    <row r="171" ht="14.25" customHeight="1">
+    <row r="171" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B171" s="3"/>
     </row>
-    <row r="172" ht="14.25" customHeight="1">
+    <row r="172" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B172" s="3"/>
     </row>
-    <row r="173" ht="14.25" customHeight="1">
+    <row r="173" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B173" s="3"/>
     </row>
-    <row r="174" ht="14.25" customHeight="1">
+    <row r="174" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B174" s="3"/>
     </row>
-    <row r="175" ht="14.25" customHeight="1">
+    <row r="175" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B175" s="3"/>
     </row>
-    <row r="176" ht="14.25" customHeight="1">
+    <row r="176" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B176" s="3"/>
     </row>
-    <row r="177" ht="14.25" customHeight="1">
+    <row r="177" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B177" s="3"/>
     </row>
-    <row r="178" ht="14.25" customHeight="1">
+    <row r="178" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B178" s="3"/>
     </row>
-    <row r="179" ht="14.25" customHeight="1">
+    <row r="179" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B179" s="3"/>
     </row>
-    <row r="180" ht="14.25" customHeight="1">
+    <row r="180" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B180" s="3"/>
     </row>
-    <row r="181" ht="14.25" customHeight="1">
+    <row r="181" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B181" s="3"/>
     </row>
-    <row r="182" ht="14.25" customHeight="1">
+    <row r="182" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B182" s="3"/>
     </row>
-    <row r="183" ht="14.25" customHeight="1">
+    <row r="183" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B183" s="3"/>
     </row>
-    <row r="184" ht="14.25" customHeight="1">
+    <row r="184" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B184" s="3"/>
     </row>
-    <row r="185" ht="14.25" customHeight="1">
+    <row r="185" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B185" s="3"/>
     </row>
-    <row r="186" ht="14.25" customHeight="1">
+    <row r="186" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B186" s="3"/>
     </row>
-    <row r="187" ht="14.25" customHeight="1">
+    <row r="187" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B187" s="3"/>
     </row>
-    <row r="188" ht="14.25" customHeight="1">
+    <row r="188" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B188" s="3"/>
     </row>
-    <row r="189" ht="14.25" customHeight="1">
+    <row r="189" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B189" s="3"/>
     </row>
-    <row r="190" ht="14.25" customHeight="1">
+    <row r="190" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B190" s="3"/>
     </row>
-    <row r="191" ht="14.25" customHeight="1">
+    <row r="191" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B191" s="3"/>
     </row>
-    <row r="192" ht="14.25" customHeight="1">
+    <row r="192" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B192" s="3"/>
     </row>
-    <row r="193" ht="14.25" customHeight="1">
+    <row r="193" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B193" s="3"/>
     </row>
-    <row r="194" ht="14.25" customHeight="1">
+    <row r="194" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B194" s="3"/>
     </row>
-    <row r="195" ht="14.25" customHeight="1">
+    <row r="195" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B195" s="3"/>
     </row>
-    <row r="196" ht="14.25" customHeight="1">
+    <row r="196" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B196" s="3"/>
     </row>
-    <row r="197" ht="14.25" customHeight="1">
+    <row r="197" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B197" s="3"/>
     </row>
-    <row r="198" ht="14.25" customHeight="1">
+    <row r="198" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B198" s="3"/>
     </row>
-    <row r="199" ht="14.25" customHeight="1">
+    <row r="199" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B199" s="3"/>
     </row>
-    <row r="200" ht="14.25" customHeight="1">
+    <row r="200" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B200" s="3"/>
     </row>
-    <row r="201" ht="14.25" customHeight="1">
+    <row r="201" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B201" s="3"/>
     </row>
-    <row r="202" ht="14.25" customHeight="1">
+    <row r="202" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B202" s="3"/>
     </row>
-    <row r="203" ht="14.25" customHeight="1">
+    <row r="203" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B203" s="3"/>
     </row>
-    <row r="204" ht="14.25" customHeight="1">
+    <row r="204" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B204" s="3"/>
     </row>
-    <row r="205" ht="14.25" customHeight="1">
+    <row r="205" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B205" s="3"/>
     </row>
-    <row r="206" ht="14.25" customHeight="1">
+    <row r="206" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B206" s="3"/>
     </row>
-    <row r="207" ht="14.25" customHeight="1">
+    <row r="207" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B207" s="3"/>
     </row>
-    <row r="208" ht="14.25" customHeight="1">
+    <row r="208" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B208" s="3"/>
     </row>
-    <row r="209" ht="14.25" customHeight="1">
+    <row r="209" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B209" s="3"/>
     </row>
-    <row r="210" ht="14.25" customHeight="1">
+    <row r="210" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B210" s="3"/>
     </row>
-    <row r="211" ht="14.25" customHeight="1">
+    <row r="211" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B211" s="3"/>
     </row>
-    <row r="212" ht="14.25" customHeight="1">
+    <row r="212" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B212" s="3"/>
     </row>
-    <row r="213" ht="14.25" customHeight="1">
+    <row r="213" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B213" s="3"/>
     </row>
-    <row r="214" ht="14.25" customHeight="1">
+    <row r="214" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B214" s="3"/>
     </row>
-    <row r="215" ht="14.25" customHeight="1">
+    <row r="215" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B215" s="3"/>
     </row>
-    <row r="216" ht="14.25" customHeight="1">
+    <row r="216" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B216" s="3"/>
     </row>
-    <row r="217" ht="14.25" customHeight="1">
+    <row r="217" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B217" s="3"/>
     </row>
-    <row r="218" ht="14.25" customHeight="1">
+    <row r="218" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B218" s="3"/>
     </row>
-    <row r="219" ht="14.25" customHeight="1">
+    <row r="219" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B219" s="3"/>
     </row>
-    <row r="220" ht="14.25" customHeight="1">
+    <row r="220" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B220" s="3"/>
     </row>
-    <row r="221" ht="14.25" customHeight="1">
+    <row r="221" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B221" s="3"/>
     </row>
-    <row r="222" ht="14.25" customHeight="1">
+    <row r="222" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B222" s="3"/>
     </row>
-    <row r="223" ht="14.25" customHeight="1">
+    <row r="223" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B223" s="3"/>
     </row>
-    <row r="224" ht="14.25" customHeight="1">
+    <row r="224" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B224" s="3"/>
     </row>
-    <row r="225" ht="14.25" customHeight="1">
+    <row r="225" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B225" s="3"/>
     </row>
-    <row r="226" ht="14.25" customHeight="1">
+    <row r="226" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B226" s="3"/>
     </row>
-    <row r="227" ht="14.25" customHeight="1">
+    <row r="227" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B227" s="3"/>
     </row>
-    <row r="228" ht="14.25" customHeight="1">
+    <row r="228" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B228" s="3"/>
     </row>
-    <row r="229" ht="14.25" customHeight="1">
+    <row r="229" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B229" s="3"/>
     </row>
-    <row r="230" ht="14.25" customHeight="1">
+    <row r="230" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B230" s="3"/>
     </row>
-    <row r="231" ht="14.25" customHeight="1">
+    <row r="231" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B231" s="3"/>
     </row>
-    <row r="232" ht="14.25" customHeight="1">
+    <row r="232" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B232" s="3"/>
     </row>
-    <row r="233" ht="14.25" customHeight="1">
+    <row r="233" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B233" s="3"/>
     </row>
-    <row r="234" ht="14.25" customHeight="1">
+    <row r="234" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B234" s="3"/>
     </row>
-    <row r="235" ht="14.25" customHeight="1">
+    <row r="235" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B235" s="3"/>
     </row>
-    <row r="236" ht="14.25" customHeight="1">
+    <row r="236" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B236" s="3"/>
     </row>
-    <row r="237" ht="14.25" customHeight="1">
+    <row r="237" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B237" s="3"/>
     </row>
-    <row r="238" ht="14.25" customHeight="1">
+    <row r="238" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B238" s="3"/>
     </row>
-    <row r="239" ht="14.25" customHeight="1">
+    <row r="239" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B239" s="3"/>
     </row>
-    <row r="240" ht="14.25" customHeight="1">
+    <row r="240" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B240" s="3"/>
     </row>
-    <row r="241" ht="14.25" customHeight="1">
+    <row r="241" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B241" s="3"/>
     </row>
-    <row r="242" ht="14.25" customHeight="1">
+    <row r="242" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B242" s="3"/>
     </row>
-    <row r="243" ht="14.25" customHeight="1">
+    <row r="243" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B243" s="3"/>
     </row>
-    <row r="244" ht="14.25" customHeight="1">
+    <row r="244" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B244" s="3"/>
     </row>
-    <row r="245" ht="14.25" customHeight="1">
+    <row r="245" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B245" s="3"/>
     </row>
-    <row r="246" ht="14.25" customHeight="1">
+    <row r="246" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B246" s="3"/>
     </row>
-    <row r="247" ht="14.25" customHeight="1">
+    <row r="247" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B247" s="3"/>
     </row>
-    <row r="248" ht="14.25" customHeight="1">
+    <row r="248" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B248" s="3"/>
     </row>
-    <row r="249" ht="14.25" customHeight="1">
+    <row r="249" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B249" s="3"/>
     </row>
-    <row r="250" ht="14.25" customHeight="1">
+    <row r="250" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B250" s="3"/>
     </row>
-    <row r="251" ht="14.25" customHeight="1">
+    <row r="251" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B251" s="3"/>
     </row>
-    <row r="252" ht="14.25" customHeight="1">
+    <row r="252" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B252" s="3"/>
     </row>
-    <row r="253" ht="14.25" customHeight="1">
+    <row r="253" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B253" s="3"/>
     </row>
-    <row r="254" ht="14.25" customHeight="1">
+    <row r="254" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B254" s="3"/>
     </row>
-    <row r="255" ht="14.25" customHeight="1">
+    <row r="255" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B255" s="3"/>
     </row>
-    <row r="256" ht="14.25" customHeight="1">
+    <row r="256" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B256" s="3"/>
     </row>
-    <row r="257" ht="14.25" customHeight="1">
+    <row r="257" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B257" s="3"/>
     </row>
-    <row r="258" ht="14.25" customHeight="1">
+    <row r="258" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B258" s="3"/>
     </row>
-    <row r="259" ht="14.25" customHeight="1">
+    <row r="259" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B259" s="3"/>
     </row>
-    <row r="260" ht="14.25" customHeight="1">
+    <row r="260" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B260" s="3"/>
     </row>
-    <row r="261" ht="14.25" customHeight="1">
+    <row r="261" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B261" s="3"/>
     </row>
-    <row r="262" ht="14.25" customHeight="1">
+    <row r="262" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B262" s="3"/>
     </row>
-    <row r="263" ht="14.25" customHeight="1">
+    <row r="263" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B263" s="3"/>
     </row>
-    <row r="264" ht="14.25" customHeight="1">
+    <row r="264" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B264" s="3"/>
     </row>
-    <row r="265" ht="14.25" customHeight="1">
+    <row r="265" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B265" s="3"/>
     </row>
-    <row r="266" ht="14.25" customHeight="1">
+    <row r="266" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B266" s="3"/>
     </row>
-    <row r="267" ht="14.25" customHeight="1">
+    <row r="267" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B267" s="3"/>
     </row>
-    <row r="268" ht="14.25" customHeight="1">
+    <row r="268" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B268" s="3"/>
     </row>
-    <row r="269" ht="14.25" customHeight="1">
+    <row r="269" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B269" s="3"/>
     </row>
-    <row r="270" ht="14.25" customHeight="1">
+    <row r="270" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B270" s="3"/>
     </row>
-    <row r="271" ht="14.25" customHeight="1">
+    <row r="271" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B271" s="3"/>
     </row>
-    <row r="272" ht="14.25" customHeight="1">
+    <row r="272" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B272" s="3"/>
     </row>
-    <row r="273" ht="14.25" customHeight="1">
+    <row r="273" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B273" s="3"/>
     </row>
-    <row r="274" ht="14.25" customHeight="1">
+    <row r="274" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B274" s="3"/>
     </row>
-    <row r="275" ht="14.25" customHeight="1">
+    <row r="275" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B275" s="3"/>
     </row>
-    <row r="276" ht="14.25" customHeight="1">
+    <row r="276" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B276" s="3"/>
     </row>
-    <row r="277" ht="14.25" customHeight="1">
+    <row r="277" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B277" s="3"/>
     </row>
-    <row r="278" ht="14.25" customHeight="1">
+    <row r="278" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B278" s="3"/>
     </row>
-    <row r="279" ht="14.25" customHeight="1">
+    <row r="279" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B279" s="3"/>
     </row>
-    <row r="280" ht="14.25" customHeight="1">
+    <row r="280" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B280" s="3"/>
     </row>
-    <row r="281" ht="14.25" customHeight="1">
+    <row r="281" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B281" s="3"/>
     </row>
-    <row r="282" ht="14.25" customHeight="1">
+    <row r="282" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B282" s="3"/>
     </row>
-    <row r="283" ht="14.25" customHeight="1">
+    <row r="283" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B283" s="3"/>
     </row>
-    <row r="284" ht="14.25" customHeight="1">
+    <row r="284" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B284" s="3"/>
     </row>
-    <row r="285" ht="14.25" customHeight="1">
+    <row r="285" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B285" s="3"/>
     </row>
-    <row r="286" ht="14.25" customHeight="1">
+    <row r="286" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B286" s="3"/>
     </row>
-    <row r="287" ht="14.25" customHeight="1">
+    <row r="287" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B287" s="3"/>
     </row>
-    <row r="288" ht="14.25" customHeight="1">
+    <row r="288" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B288" s="3"/>
     </row>
-    <row r="289" ht="14.25" customHeight="1">
+    <row r="289" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B289" s="3"/>
     </row>
-    <row r="290" ht="14.25" customHeight="1">
+    <row r="290" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B290" s="3"/>
     </row>
-    <row r="291" ht="14.25" customHeight="1">
+    <row r="291" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B291" s="3"/>
     </row>
-    <row r="292" ht="14.25" customHeight="1">
+    <row r="292" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B292" s="3"/>
     </row>
-    <row r="293" ht="14.25" customHeight="1">
+    <row r="293" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B293" s="3"/>
     </row>
-    <row r="294" ht="14.25" customHeight="1">
+    <row r="294" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B294" s="3"/>
     </row>
-    <row r="295" ht="14.25" customHeight="1">
+    <row r="295" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B295" s="3"/>
     </row>
-    <row r="296" ht="14.25" customHeight="1">
+    <row r="296" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B296" s="3"/>
     </row>
-    <row r="297" ht="14.25" customHeight="1">
+    <row r="297" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B297" s="3"/>
     </row>
-    <row r="298" ht="14.25" customHeight="1">
+    <row r="298" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B298" s="3"/>
     </row>
-    <row r="299" ht="14.25" customHeight="1">
+    <row r="299" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B299" s="3"/>
     </row>
-    <row r="300" ht="14.25" customHeight="1">
+    <row r="300" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B300" s="3"/>
     </row>
-    <row r="301" ht="14.25" customHeight="1">
+    <row r="301" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B301" s="3"/>
     </row>
-    <row r="302" ht="14.25" customHeight="1">
+    <row r="302" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B302" s="3"/>
     </row>
-    <row r="303" ht="14.25" customHeight="1">
+    <row r="303" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B303" s="3"/>
     </row>
-    <row r="304" ht="14.25" customHeight="1">
+    <row r="304" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B304" s="3"/>
     </row>
-    <row r="305" ht="14.25" customHeight="1">
+    <row r="305" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B305" s="3"/>
     </row>
-    <row r="306" ht="14.25" customHeight="1">
+    <row r="306" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B306" s="3"/>
     </row>
-    <row r="307" ht="14.25" customHeight="1">
+    <row r="307" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B307" s="3"/>
     </row>
-    <row r="308" ht="14.25" customHeight="1">
+    <row r="308" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B308" s="3"/>
     </row>
-    <row r="309" ht="14.25" customHeight="1">
+    <row r="309" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B309" s="3"/>
     </row>
-    <row r="310" ht="14.25" customHeight="1">
+    <row r="310" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B310" s="3"/>
     </row>
-    <row r="311" ht="14.25" customHeight="1">
+    <row r="311" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B311" s="3"/>
     </row>
-    <row r="312" ht="14.25" customHeight="1">
+    <row r="312" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B312" s="3"/>
     </row>
-    <row r="313" ht="14.25" customHeight="1">
+    <row r="313" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B313" s="3"/>
     </row>
-    <row r="314" ht="14.25" customHeight="1">
+    <row r="314" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B314" s="3"/>
     </row>
-    <row r="315" ht="14.25" customHeight="1">
+    <row r="315" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B315" s="3"/>
     </row>
-    <row r="316" ht="14.25" customHeight="1">
+    <row r="316" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B316" s="3"/>
     </row>
-    <row r="317" ht="14.25" customHeight="1">
+    <row r="317" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B317" s="3"/>
     </row>
-    <row r="318" ht="14.25" customHeight="1">
+    <row r="318" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B318" s="3"/>
     </row>
-    <row r="319" ht="14.25" customHeight="1">
+    <row r="319" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B319" s="3"/>
     </row>
-    <row r="320" ht="14.25" customHeight="1">
+    <row r="320" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B320" s="3"/>
     </row>
-    <row r="321" ht="14.25" customHeight="1">
+    <row r="321" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B321" s="3"/>
     </row>
-    <row r="322" ht="14.25" customHeight="1">
+    <row r="322" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B322" s="3"/>
     </row>
-    <row r="323" ht="14.25" customHeight="1">
+    <row r="323" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B323" s="3"/>
     </row>
-    <row r="324" ht="14.25" customHeight="1">
+    <row r="324" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B324" s="3"/>
     </row>
-    <row r="325" ht="14.25" customHeight="1">
+    <row r="325" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B325" s="3"/>
     </row>
-    <row r="326" ht="14.25" customHeight="1">
+    <row r="326" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B326" s="3"/>
     </row>
-    <row r="327" ht="14.25" customHeight="1">
+    <row r="327" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B327" s="3"/>
     </row>
-    <row r="328" ht="14.25" customHeight="1">
+    <row r="328" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B328" s="3"/>
     </row>
-    <row r="329" ht="14.25" customHeight="1">
+    <row r="329" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B329" s="3"/>
     </row>
-    <row r="330" ht="14.25" customHeight="1">
+    <row r="330" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B330" s="3"/>
     </row>
-    <row r="331" ht="14.25" customHeight="1">
+    <row r="331" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B331" s="3"/>
     </row>
-    <row r="332" ht="14.25" customHeight="1">
+    <row r="332" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B332" s="3"/>
     </row>
-    <row r="333" ht="14.25" customHeight="1">
+    <row r="333" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B333" s="3"/>
     </row>
-    <row r="334" ht="14.25" customHeight="1">
+    <row r="334" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B334" s="3"/>
     </row>
-    <row r="335" ht="14.25" customHeight="1">
+    <row r="335" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B335" s="3"/>
     </row>
-    <row r="336" ht="14.25" customHeight="1">
+    <row r="336" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B336" s="3"/>
     </row>
-    <row r="337" ht="14.25" customHeight="1">
+    <row r="337" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B337" s="3"/>
     </row>
-    <row r="338" ht="14.25" customHeight="1">
+    <row r="338" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B338" s="3"/>
     </row>
-    <row r="339" ht="14.25" customHeight="1">
+    <row r="339" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B339" s="3"/>
     </row>
-    <row r="340" ht="14.25" customHeight="1">
+    <row r="340" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B340" s="3"/>
     </row>
-    <row r="341" ht="14.25" customHeight="1">
+    <row r="341" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B341" s="3"/>
     </row>
-    <row r="342" ht="14.25" customHeight="1">
+    <row r="342" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B342" s="3"/>
     </row>
-    <row r="343" ht="14.25" customHeight="1">
+    <row r="343" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B343" s="3"/>
     </row>
-    <row r="344" ht="14.25" customHeight="1">
+    <row r="344" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B344" s="3"/>
     </row>
-    <row r="345" ht="14.25" customHeight="1">
+    <row r="345" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B345" s="3"/>
     </row>
-    <row r="346" ht="14.25" customHeight="1">
+    <row r="346" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B346" s="3"/>
     </row>
-    <row r="347" ht="14.25" customHeight="1">
+    <row r="347" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B347" s="3"/>
     </row>
-    <row r="348" ht="14.25" customHeight="1">
+    <row r="348" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B348" s="3"/>
     </row>
-    <row r="349" ht="14.25" customHeight="1">
+    <row r="349" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B349" s="3"/>
     </row>
-    <row r="350" ht="14.25" customHeight="1">
+    <row r="350" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B350" s="3"/>
     </row>
-    <row r="351" ht="14.25" customHeight="1">
+    <row r="351" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B351" s="3"/>
     </row>
-    <row r="352" ht="14.25" customHeight="1">
+    <row r="352" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B352" s="3"/>
     </row>
-    <row r="353" ht="14.25" customHeight="1">
+    <row r="353" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B353" s="3"/>
     </row>
-    <row r="354" ht="14.25" customHeight="1">
+    <row r="354" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B354" s="3"/>
     </row>
-    <row r="355" ht="14.25" customHeight="1">
+    <row r="355" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B355" s="3"/>
     </row>
-    <row r="356" ht="14.25" customHeight="1">
+    <row r="356" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B356" s="3"/>
     </row>
-    <row r="357" ht="14.25" customHeight="1">
+    <row r="357" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B357" s="3"/>
     </row>
-    <row r="358" ht="14.25" customHeight="1">
+    <row r="358" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B358" s="3"/>
     </row>
-    <row r="359" ht="14.25" customHeight="1">
+    <row r="359" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B359" s="3"/>
     </row>
-    <row r="360" ht="14.25" customHeight="1">
+    <row r="360" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B360" s="3"/>
     </row>
-    <row r="361" ht="14.25" customHeight="1">
+    <row r="361" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B361" s="3"/>
     </row>
-    <row r="362" ht="14.25" customHeight="1">
+    <row r="362" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B362" s="3"/>
     </row>
-    <row r="363" ht="14.25" customHeight="1">
+    <row r="363" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B363" s="3"/>
     </row>
-    <row r="364" ht="14.25" customHeight="1">
+    <row r="364" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B364" s="3"/>
     </row>
-    <row r="365" ht="14.25" customHeight="1">
+    <row r="365" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B365" s="3"/>
     </row>
-    <row r="366" ht="14.25" customHeight="1">
+    <row r="366" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B366" s="3"/>
     </row>
-    <row r="367" ht="14.25" customHeight="1">
+    <row r="367" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B367" s="3"/>
     </row>
-    <row r="368" ht="14.25" customHeight="1">
+    <row r="368" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B368" s="3"/>
     </row>
-    <row r="369" ht="14.25" customHeight="1">
+    <row r="369" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B369" s="3"/>
     </row>
-    <row r="370" ht="14.25" customHeight="1">
+    <row r="370" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B370" s="3"/>
     </row>
-    <row r="371" ht="14.25" customHeight="1">
+    <row r="371" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B371" s="3"/>
     </row>
-    <row r="372" ht="14.25" customHeight="1">
+    <row r="372" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B372" s="3"/>
     </row>
-    <row r="373" ht="14.25" customHeight="1">
+    <row r="373" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B373" s="3"/>
     </row>
-    <row r="374" ht="14.25" customHeight="1">
+    <row r="374" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B374" s="3"/>
     </row>
-    <row r="375" ht="14.25" customHeight="1">
+    <row r="375" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B375" s="3"/>
     </row>
-    <row r="376" ht="14.25" customHeight="1">
+    <row r="376" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B376" s="3"/>
     </row>
-    <row r="377" ht="14.25" customHeight="1">
+    <row r="377" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B377" s="3"/>
     </row>
-    <row r="378" ht="14.25" customHeight="1">
+    <row r="378" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B378" s="3"/>
     </row>
-    <row r="379" ht="14.25" customHeight="1">
+    <row r="379" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B379" s="3"/>
     </row>
-    <row r="380" ht="14.25" customHeight="1">
+    <row r="380" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B380" s="3"/>
     </row>
-    <row r="381" ht="14.25" customHeight="1">
+    <row r="381" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B381" s="3"/>
     </row>
-    <row r="382" ht="14.25" customHeight="1">
+    <row r="382" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B382" s="3"/>
     </row>
-    <row r="383" ht="14.25" customHeight="1">
+    <row r="383" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B383" s="3"/>
     </row>
-    <row r="384" ht="14.25" customHeight="1">
+    <row r="384" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B384" s="3"/>
     </row>
-    <row r="385" ht="14.25" customHeight="1">
+    <row r="385" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B385" s="3"/>
     </row>
-    <row r="386" ht="14.25" customHeight="1">
+    <row r="386" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B386" s="3"/>
     </row>
-    <row r="387" ht="14.25" customHeight="1">
+    <row r="387" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B387" s="3"/>
     </row>
-    <row r="388" ht="14.25" customHeight="1">
+    <row r="388" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B388" s="3"/>
     </row>
-    <row r="389" ht="14.25" customHeight="1">
+    <row r="389" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B389" s="3"/>
     </row>
-    <row r="390" ht="14.25" customHeight="1">
+    <row r="390" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B390" s="3"/>
     </row>
-    <row r="391" ht="14.25" customHeight="1">
+    <row r="391" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B391" s="3"/>
     </row>
-    <row r="392" ht="14.25" customHeight="1">
+    <row r="392" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B392" s="3"/>
     </row>
-    <row r="393" ht="14.25" customHeight="1">
+    <row r="393" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B393" s="3"/>
     </row>
-    <row r="394" ht="14.25" customHeight="1">
+    <row r="394" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B394" s="3"/>
     </row>
-    <row r="395" ht="14.25" customHeight="1">
+    <row r="395" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B395" s="3"/>
     </row>
-    <row r="396" ht="14.25" customHeight="1">
+    <row r="396" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B396" s="3"/>
     </row>
-    <row r="397" ht="14.25" customHeight="1">
+    <row r="397" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B397" s="3"/>
     </row>
-    <row r="398" ht="14.25" customHeight="1">
+    <row r="398" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B398" s="3"/>
     </row>
-    <row r="399" ht="14.25" customHeight="1">
+    <row r="399" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B399" s="3"/>
     </row>
-    <row r="400" ht="14.25" customHeight="1">
+    <row r="400" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B400" s="3"/>
     </row>
-    <row r="401" ht="14.25" customHeight="1">
+    <row r="401" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B401" s="3"/>
     </row>
-    <row r="402" ht="14.25" customHeight="1">
+    <row r="402" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B402" s="3"/>
     </row>
-    <row r="403" ht="14.25" customHeight="1">
+    <row r="403" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B403" s="3"/>
     </row>
-    <row r="404" ht="14.25" customHeight="1">
+    <row r="404" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B404" s="3"/>
     </row>
-    <row r="405" ht="14.25" customHeight="1">
+    <row r="405" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B405" s="3"/>
     </row>
-    <row r="406" ht="14.25" customHeight="1">
+    <row r="406" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B406" s="3"/>
     </row>
-    <row r="407" ht="14.25" customHeight="1">
+    <row r="407" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B407" s="3"/>
     </row>
-    <row r="408" ht="14.25" customHeight="1">
+    <row r="408" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B408" s="3"/>
     </row>
-    <row r="409" ht="14.25" customHeight="1">
+    <row r="409" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B409" s="3"/>
     </row>
-    <row r="410" ht="14.25" customHeight="1">
+    <row r="410" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B410" s="3"/>
     </row>
-    <row r="411" ht="14.25" customHeight="1">
+    <row r="411" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B411" s="3"/>
     </row>
-    <row r="412" ht="14.25" customHeight="1">
+    <row r="412" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B412" s="3"/>
     </row>
-    <row r="413" ht="14.25" customHeight="1">
+    <row r="413" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B413" s="3"/>
     </row>
-    <row r="414" ht="14.25" customHeight="1">
+    <row r="414" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B414" s="3"/>
     </row>
-    <row r="415" ht="14.25" customHeight="1">
+    <row r="415" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B415" s="3"/>
     </row>
-    <row r="416" ht="14.25" customHeight="1">
+    <row r="416" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B416" s="3"/>
     </row>
-    <row r="417" ht="14.25" customHeight="1">
+    <row r="417" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B417" s="3"/>
     </row>
-    <row r="418" ht="14.25" customHeight="1">
+    <row r="418" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B418" s="3"/>
     </row>
-    <row r="419" ht="14.25" customHeight="1">
+    <row r="419" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B419" s="3"/>
     </row>
-    <row r="420" ht="14.25" customHeight="1">
+    <row r="420" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B420" s="3"/>
     </row>
-    <row r="421" ht="14.25" customHeight="1">
+    <row r="421" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B421" s="3"/>
     </row>
-    <row r="422" ht="14.25" customHeight="1">
+    <row r="422" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B422" s="3"/>
     </row>
-    <row r="423" ht="14.25" customHeight="1">
+    <row r="423" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B423" s="3"/>
     </row>
-    <row r="424" ht="14.25" customHeight="1">
+    <row r="424" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B424" s="3"/>
     </row>
-    <row r="425" ht="14.25" customHeight="1">
+    <row r="425" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B425" s="3"/>
     </row>
-    <row r="426" ht="14.25" customHeight="1">
+    <row r="426" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B426" s="3"/>
     </row>
-    <row r="427" ht="14.25" customHeight="1">
+    <row r="427" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B427" s="3"/>
     </row>
-    <row r="428" ht="14.25" customHeight="1">
+    <row r="428" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B428" s="3"/>
     </row>
-    <row r="429" ht="14.25" customHeight="1">
+    <row r="429" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B429" s="3"/>
     </row>
-    <row r="430" ht="14.25" customHeight="1">
+    <row r="430" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B430" s="3"/>
     </row>
-    <row r="431" ht="14.25" customHeight="1">
+    <row r="431" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B431" s="3"/>
     </row>
-    <row r="432" ht="14.25" customHeight="1">
+    <row r="432" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B432" s="3"/>
     </row>
-    <row r="433" ht="14.25" customHeight="1">
+    <row r="433" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B433" s="3"/>
     </row>
-    <row r="434" ht="14.25" customHeight="1">
+    <row r="434" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B434" s="3"/>
     </row>
-    <row r="435" ht="14.25" customHeight="1">
+    <row r="435" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B435" s="3"/>
     </row>
-    <row r="436" ht="14.25" customHeight="1">
+    <row r="436" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B436" s="3"/>
     </row>
-    <row r="437" ht="14.25" customHeight="1">
+    <row r="437" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B437" s="3"/>
     </row>
-    <row r="438" ht="14.25" customHeight="1">
+    <row r="438" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B438" s="3"/>
     </row>
-    <row r="439" ht="14.25" customHeight="1">
+    <row r="439" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B439" s="3"/>
     </row>
-    <row r="440" ht="14.25" customHeight="1">
+    <row r="440" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B440" s="3"/>
     </row>
-    <row r="441" ht="14.25" customHeight="1">
+    <row r="441" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B441" s="3"/>
     </row>
-    <row r="442" ht="14.25" customHeight="1">
+    <row r="442" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B442" s="3"/>
     </row>
-    <row r="443" ht="14.25" customHeight="1">
+    <row r="443" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B443" s="3"/>
     </row>
-    <row r="444" ht="14.25" customHeight="1">
+    <row r="444" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B444" s="3"/>
     </row>
-    <row r="445" ht="14.25" customHeight="1">
+    <row r="445" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B445" s="3"/>
     </row>
-    <row r="446" ht="14.25" customHeight="1">
+    <row r="446" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B446" s="3"/>
     </row>
-    <row r="447" ht="14.25" customHeight="1">
+    <row r="447" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B447" s="3"/>
     </row>
-    <row r="448" ht="14.25" customHeight="1">
+    <row r="448" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B448" s="3"/>
     </row>
-    <row r="449" ht="14.25" customHeight="1">
+    <row r="449" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B449" s="3"/>
     </row>
-    <row r="450" ht="14.25" customHeight="1">
+    <row r="450" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B450" s="3"/>
     </row>
-    <row r="451" ht="14.25" customHeight="1">
+    <row r="451" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B451" s="3"/>
     </row>
-    <row r="452" ht="14.25" customHeight="1">
+    <row r="452" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B452" s="3"/>
     </row>
-    <row r="453" ht="14.25" customHeight="1">
+    <row r="453" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B453" s="3"/>
     </row>
-    <row r="454" ht="14.25" customHeight="1">
+    <row r="454" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B454" s="3"/>
     </row>
-    <row r="455" ht="14.25" customHeight="1">
+    <row r="455" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B455" s="3"/>
     </row>
-    <row r="456" ht="14.25" customHeight="1">
+    <row r="456" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B456" s="3"/>
     </row>
-    <row r="457" ht="14.25" customHeight="1">
+    <row r="457" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B457" s="3"/>
     </row>
-    <row r="458" ht="14.25" customHeight="1">
+    <row r="458" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B458" s="3"/>
     </row>
-    <row r="459" ht="14.25" customHeight="1">
+    <row r="459" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B459" s="3"/>
     </row>
-    <row r="460" ht="14.25" customHeight="1">
+    <row r="460" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B460" s="3"/>
     </row>
-    <row r="461" ht="14.25" customHeight="1">
+    <row r="461" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B461" s="3"/>
     </row>
-    <row r="462" ht="14.25" customHeight="1">
+    <row r="462" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B462" s="3"/>
     </row>
-    <row r="463" ht="14.25" customHeight="1">
+    <row r="463" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B463" s="3"/>
     </row>
-    <row r="464" ht="14.25" customHeight="1">
+    <row r="464" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B464" s="3"/>
     </row>
-    <row r="465" ht="14.25" customHeight="1">
+    <row r="465" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B465" s="3"/>
     </row>
-    <row r="466" ht="14.25" customHeight="1">
+    <row r="466" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B466" s="3"/>
     </row>
-    <row r="467" ht="14.25" customHeight="1">
+    <row r="467" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B467" s="3"/>
     </row>
-    <row r="468" ht="14.25" customHeight="1">
+    <row r="468" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B468" s="3"/>
     </row>
-    <row r="469" ht="14.25" customHeight="1">
+    <row r="469" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B469" s="3"/>
     </row>
-    <row r="470" ht="14.25" customHeight="1">
+    <row r="470" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B470" s="3"/>
     </row>
-    <row r="471" ht="14.25" customHeight="1">
+    <row r="471" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B471" s="3"/>
     </row>
-    <row r="472" ht="14.25" customHeight="1">
+    <row r="472" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B472" s="3"/>
     </row>
-    <row r="473" ht="14.25" customHeight="1">
+    <row r="473" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B473" s="3"/>
     </row>
-    <row r="474" ht="14.25" customHeight="1">
+    <row r="474" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B474" s="3"/>
     </row>
-    <row r="475" ht="14.25" customHeight="1">
+    <row r="475" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B475" s="3"/>
     </row>
-    <row r="476" ht="14.25" customHeight="1">
+    <row r="476" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B476" s="3"/>
     </row>
-    <row r="477" ht="14.25" customHeight="1">
+    <row r="477" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B477" s="3"/>
     </row>
-    <row r="478" ht="14.25" customHeight="1">
+    <row r="478" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B478" s="3"/>
     </row>
-    <row r="479" ht="14.25" customHeight="1">
+    <row r="479" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B479" s="3"/>
     </row>
-    <row r="480" ht="14.25" customHeight="1">
+    <row r="480" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B480" s="3"/>
     </row>
-    <row r="481" ht="14.25" customHeight="1">
+    <row r="481" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B481" s="3"/>
     </row>
-    <row r="482" ht="14.25" customHeight="1">
+    <row r="482" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B482" s="3"/>
     </row>
-    <row r="483" ht="14.25" customHeight="1">
+    <row r="483" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B483" s="3"/>
     </row>
-    <row r="484" ht="14.25" customHeight="1">
+    <row r="484" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B484" s="3"/>
     </row>
-    <row r="485" ht="14.25" customHeight="1">
+    <row r="485" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B485" s="3"/>
     </row>
-    <row r="486" ht="14.25" customHeight="1">
+    <row r="486" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B486" s="3"/>
     </row>
-    <row r="487" ht="14.25" customHeight="1">
+    <row r="487" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B487" s="3"/>
     </row>
-    <row r="488" ht="14.25" customHeight="1">
+    <row r="488" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B488" s="3"/>
     </row>
-    <row r="489" ht="14.25" customHeight="1">
+    <row r="489" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B489" s="3"/>
     </row>
-    <row r="490" ht="14.25" customHeight="1">
+    <row r="490" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B490" s="3"/>
     </row>
-    <row r="491" ht="14.25" customHeight="1">
+    <row r="491" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B491" s="3"/>
     </row>
-    <row r="492" ht="14.25" customHeight="1">
+    <row r="492" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B492" s="3"/>
     </row>
-    <row r="493" ht="14.25" customHeight="1">
+    <row r="493" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B493" s="3"/>
     </row>
-    <row r="494" ht="14.25" customHeight="1">
+    <row r="494" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B494" s="3"/>
     </row>
-    <row r="495" ht="14.25" customHeight="1">
+    <row r="495" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B495" s="3"/>
     </row>
-    <row r="496" ht="14.25" customHeight="1">
+    <row r="496" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B496" s="3"/>
     </row>
-    <row r="497" ht="14.25" customHeight="1">
+    <row r="497" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B497" s="3"/>
     </row>
-    <row r="498" ht="14.25" customHeight="1">
+    <row r="498" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B498" s="3"/>
     </row>
-    <row r="499" ht="14.25" customHeight="1">
+    <row r="499" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B499" s="3"/>
     </row>
-    <row r="500" ht="14.25" customHeight="1">
+    <row r="500" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B500" s="3"/>
     </row>
-    <row r="501" ht="14.25" customHeight="1">
+    <row r="501" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B501" s="3"/>
     </row>
-    <row r="502" ht="14.25" customHeight="1">
+    <row r="502" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B502" s="3"/>
     </row>
-    <row r="503" ht="14.25" customHeight="1">
+    <row r="503" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B503" s="3"/>
     </row>
-    <row r="504" ht="14.25" customHeight="1">
+    <row r="504" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B504" s="3"/>
     </row>
-    <row r="505" ht="14.25" customHeight="1">
+    <row r="505" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B505" s="3"/>
     </row>
-    <row r="506" ht="14.25" customHeight="1">
+    <row r="506" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B506" s="3"/>
     </row>
-    <row r="507" ht="14.25" customHeight="1">
+    <row r="507" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B507" s="3"/>
     </row>
-    <row r="508" ht="14.25" customHeight="1">
+    <row r="508" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B508" s="3"/>
     </row>
-    <row r="509" ht="14.25" customHeight="1">
+    <row r="509" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B509" s="3"/>
     </row>
-    <row r="510" ht="14.25" customHeight="1">
+    <row r="510" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B510" s="3"/>
     </row>
-    <row r="511" ht="14.25" customHeight="1">
+    <row r="511" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B511" s="3"/>
     </row>
-    <row r="512" ht="14.25" customHeight="1">
+    <row r="512" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B512" s="3"/>
     </row>
-    <row r="513" ht="14.25" customHeight="1">
+    <row r="513" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B513" s="3"/>
     </row>
-    <row r="514" ht="14.25" customHeight="1">
+    <row r="514" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B514" s="3"/>
     </row>
-    <row r="515" ht="14.25" customHeight="1">
+    <row r="515" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B515" s="3"/>
     </row>
-    <row r="516" ht="14.25" customHeight="1">
+    <row r="516" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B516" s="3"/>
     </row>
-    <row r="517" ht="14.25" customHeight="1">
+    <row r="517" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B517" s="3"/>
     </row>
-    <row r="518" ht="14.25" customHeight="1">
+    <row r="518" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B518" s="3"/>
     </row>
-    <row r="519" ht="14.25" customHeight="1">
+    <row r="519" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B519" s="3"/>
     </row>
-    <row r="520" ht="14.25" customHeight="1">
+    <row r="520" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B520" s="3"/>
     </row>
-    <row r="521" ht="14.25" customHeight="1">
+    <row r="521" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B521" s="3"/>
     </row>
-    <row r="522" ht="14.25" customHeight="1">
+    <row r="522" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B522" s="3"/>
     </row>
-    <row r="523" ht="14.25" customHeight="1">
+    <row r="523" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B523" s="3"/>
     </row>
-    <row r="524" ht="14.25" customHeight="1">
+    <row r="524" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B524" s="3"/>
     </row>
-    <row r="525" ht="14.25" customHeight="1">
+    <row r="525" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B525" s="3"/>
     </row>
-    <row r="526" ht="14.25" customHeight="1">
+    <row r="526" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B526" s="3"/>
     </row>
-    <row r="527" ht="14.25" customHeight="1">
+    <row r="527" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B527" s="3"/>
     </row>
-    <row r="528" ht="14.25" customHeight="1">
+    <row r="528" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B528" s="3"/>
     </row>
-    <row r="529" ht="14.25" customHeight="1">
+    <row r="529" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B529" s="3"/>
     </row>
-    <row r="530" ht="14.25" customHeight="1">
+    <row r="530" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B530" s="3"/>
     </row>
-    <row r="531" ht="14.25" customHeight="1">
+    <row r="531" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B531" s="3"/>
     </row>
-    <row r="532" ht="14.25" customHeight="1">
+    <row r="532" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B532" s="3"/>
     </row>
-    <row r="533" ht="14.25" customHeight="1">
+    <row r="533" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B533" s="3"/>
     </row>
-    <row r="534" ht="14.25" customHeight="1">
+    <row r="534" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B534" s="3"/>
     </row>
-    <row r="535" ht="14.25" customHeight="1">
+    <row r="535" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B535" s="3"/>
     </row>
-    <row r="536" ht="14.25" customHeight="1">
+    <row r="536" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B536" s="3"/>
     </row>
-    <row r="537" ht="14.25" customHeight="1">
+    <row r="537" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B537" s="3"/>
     </row>
-    <row r="538" ht="14.25" customHeight="1">
+    <row r="538" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B538" s="3"/>
     </row>
-    <row r="539" ht="14.25" customHeight="1">
+    <row r="539" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B539" s="3"/>
     </row>
-    <row r="540" ht="14.25" customHeight="1">
+    <row r="540" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B540" s="3"/>
     </row>
-    <row r="541" ht="14.25" customHeight="1">
+    <row r="541" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B541" s="3"/>
     </row>
-    <row r="542" ht="14.25" customHeight="1">
+    <row r="542" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B542" s="3"/>
     </row>
-    <row r="543" ht="14.25" customHeight="1">
+    <row r="543" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B543" s="3"/>
     </row>
-    <row r="544" ht="14.25" customHeight="1">
+    <row r="544" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B544" s="3"/>
     </row>
-    <row r="545" ht="14.25" customHeight="1">
+    <row r="545" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B545" s="3"/>
     </row>
-    <row r="546" ht="14.25" customHeight="1">
+    <row r="546" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B546" s="3"/>
     </row>
-    <row r="547" ht="14.25" customHeight="1">
+    <row r="547" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B547" s="3"/>
     </row>
-    <row r="548" ht="14.25" customHeight="1">
+    <row r="548" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B548" s="3"/>
     </row>
-    <row r="549" ht="14.25" customHeight="1">
+    <row r="549" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B549" s="3"/>
     </row>
-    <row r="550" ht="14.25" customHeight="1">
+    <row r="550" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B550" s="3"/>
     </row>
-    <row r="551" ht="14.25" customHeight="1">
+    <row r="551" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B551" s="3"/>
     </row>
-    <row r="552" ht="14.25" customHeight="1">
+    <row r="552" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B552" s="3"/>
     </row>
-    <row r="553" ht="14.25" customHeight="1">
+    <row r="553" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B553" s="3"/>
     </row>
-    <row r="554" ht="14.25" customHeight="1">
+    <row r="554" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B554" s="3"/>
     </row>
-    <row r="555" ht="14.25" customHeight="1">
+    <row r="555" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B555" s="3"/>
     </row>
-    <row r="556" ht="14.25" customHeight="1">
+    <row r="556" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B556" s="3"/>
     </row>
-    <row r="557" ht="14.25" customHeight="1">
+    <row r="557" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B557" s="3"/>
     </row>
-    <row r="558" ht="14.25" customHeight="1">
+    <row r="558" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B558" s="3"/>
     </row>
-    <row r="559" ht="14.25" customHeight="1">
+    <row r="559" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B559" s="3"/>
     </row>
-    <row r="560" ht="14.25" customHeight="1">
+    <row r="560" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B560" s="3"/>
     </row>
-    <row r="561" ht="14.25" customHeight="1">
+    <row r="561" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B561" s="3"/>
     </row>
-    <row r="562" ht="14.25" customHeight="1">
+    <row r="562" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B562" s="3"/>
     </row>
-    <row r="563" ht="14.25" customHeight="1">
+    <row r="563" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B563" s="3"/>
     </row>
-    <row r="564" ht="14.25" customHeight="1">
+    <row r="564" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B564" s="3"/>
     </row>
-    <row r="565" ht="14.25" customHeight="1">
+    <row r="565" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B565" s="3"/>
     </row>
-    <row r="566" ht="14.25" customHeight="1">
+    <row r="566" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B566" s="3"/>
     </row>
-    <row r="567" ht="14.25" customHeight="1">
+    <row r="567" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B567" s="3"/>
     </row>
-    <row r="568" ht="14.25" customHeight="1">
+    <row r="568" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B568" s="3"/>
     </row>
-    <row r="569" ht="14.25" customHeight="1">
+    <row r="569" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B569" s="3"/>
     </row>
-    <row r="570" ht="14.25" customHeight="1">
+    <row r="570" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B570" s="3"/>
     </row>
-    <row r="571" ht="14.25" customHeight="1">
+    <row r="571" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B571" s="3"/>
     </row>
-    <row r="572" ht="14.25" customHeight="1">
+    <row r="572" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B572" s="3"/>
     </row>
-    <row r="573" ht="14.25" customHeight="1">
+    <row r="573" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B573" s="3"/>
     </row>
-    <row r="574" ht="14.25" customHeight="1">
+    <row r="574" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B574" s="3"/>
     </row>
-    <row r="575" ht="14.25" customHeight="1">
+    <row r="575" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B575" s="3"/>
     </row>
-    <row r="576" ht="14.25" customHeight="1">
+    <row r="576" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B576" s="3"/>
     </row>
-    <row r="577" ht="14.25" customHeight="1">
+    <row r="577" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B577" s="3"/>
     </row>
-    <row r="578" ht="14.25" customHeight="1">
+    <row r="578" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B578" s="3"/>
     </row>
-    <row r="579" ht="14.25" customHeight="1">
+    <row r="579" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B579" s="3"/>
     </row>
-    <row r="580" ht="14.25" customHeight="1">
+    <row r="580" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B580" s="3"/>
     </row>
-    <row r="581" ht="14.25" customHeight="1">
+    <row r="581" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B581" s="3"/>
     </row>
-    <row r="582" ht="14.25" customHeight="1">
+    <row r="582" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B582" s="3"/>
     </row>
-    <row r="583" ht="14.25" customHeight="1">
+    <row r="583" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B583" s="3"/>
     </row>
-    <row r="584" ht="14.25" customHeight="1">
+    <row r="584" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B584" s="3"/>
     </row>
-    <row r="585" ht="14.25" customHeight="1">
+    <row r="585" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B585" s="3"/>
     </row>
-    <row r="586" ht="14.25" customHeight="1">
+    <row r="586" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B586" s="3"/>
     </row>
-    <row r="587" ht="14.25" customHeight="1">
+    <row r="587" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B587" s="3"/>
     </row>
-    <row r="588" ht="14.25" customHeight="1">
+    <row r="588" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B588" s="3"/>
     </row>
-    <row r="589" ht="14.25" customHeight="1">
+    <row r="589" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B589" s="3"/>
     </row>
-    <row r="590" ht="14.25" customHeight="1">
+    <row r="590" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B590" s="3"/>
     </row>
-    <row r="591" ht="14.25" customHeight="1">
+    <row r="591" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B591" s="3"/>
     </row>
-    <row r="592" ht="14.25" customHeight="1">
+    <row r="592" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B592" s="3"/>
     </row>
-    <row r="593" ht="14.25" customHeight="1">
+    <row r="593" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B593" s="3"/>
     </row>
-    <row r="594" ht="14.25" customHeight="1">
+    <row r="594" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B594" s="3"/>
     </row>
-    <row r="595" ht="14.25" customHeight="1">
+    <row r="595" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B595" s="3"/>
     </row>
-    <row r="596" ht="14.25" customHeight="1">
+    <row r="596" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B596" s="3"/>
     </row>
-    <row r="597" ht="14.25" customHeight="1">
+    <row r="597" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B597" s="3"/>
     </row>
-    <row r="598" ht="14.25" customHeight="1">
+    <row r="598" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B598" s="3"/>
     </row>
-    <row r="599" ht="14.25" customHeight="1">
+    <row r="599" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B599" s="3"/>
     </row>
-    <row r="600" ht="14.25" customHeight="1">
+    <row r="600" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B600" s="3"/>
     </row>
-    <row r="601" ht="14.25" customHeight="1">
+    <row r="601" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B601" s="3"/>
     </row>
-    <row r="602" ht="14.25" customHeight="1">
+    <row r="602" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B602" s="3"/>
     </row>
-    <row r="603" ht="14.25" customHeight="1">
+    <row r="603" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B603" s="3"/>
     </row>
-    <row r="604" ht="14.25" customHeight="1">
+    <row r="604" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B604" s="3"/>
     </row>
-    <row r="605" ht="14.25" customHeight="1">
+    <row r="605" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B605" s="3"/>
     </row>
-    <row r="606" ht="14.25" customHeight="1">
+    <row r="606" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B606" s="3"/>
     </row>
-    <row r="607" ht="14.25" customHeight="1">
+    <row r="607" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B607" s="3"/>
     </row>
-    <row r="608" ht="14.25" customHeight="1">
+    <row r="608" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B608" s="3"/>
     </row>
-    <row r="609" ht="14.25" customHeight="1">
+    <row r="609" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B609" s="3"/>
     </row>
-    <row r="610" ht="14.25" customHeight="1">
+    <row r="610" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B610" s="3"/>
     </row>
-    <row r="611" ht="14.25" customHeight="1">
+    <row r="611" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B611" s="3"/>
     </row>
-    <row r="612" ht="14.25" customHeight="1">
+    <row r="612" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B612" s="3"/>
     </row>
-    <row r="613" ht="14.25" customHeight="1">
+    <row r="613" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B613" s="3"/>
     </row>
-    <row r="614" ht="14.25" customHeight="1">
+    <row r="614" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B614" s="3"/>
     </row>
-    <row r="615" ht="14.25" customHeight="1">
+    <row r="615" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B615" s="3"/>
     </row>
-    <row r="616" ht="14.25" customHeight="1">
+    <row r="616" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B616" s="3"/>
     </row>
-    <row r="617" ht="14.25" customHeight="1">
+    <row r="617" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B617" s="3"/>
     </row>
-    <row r="618" ht="14.25" customHeight="1">
+    <row r="618" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B618" s="3"/>
     </row>
-    <row r="619" ht="14.25" customHeight="1">
+    <row r="619" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B619" s="3"/>
     </row>
-    <row r="620" ht="14.25" customHeight="1">
+    <row r="620" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B620" s="3"/>
     </row>
-    <row r="621" ht="14.25" customHeight="1">
+    <row r="621" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B621" s="3"/>
     </row>
-    <row r="622" ht="14.25" customHeight="1">
+    <row r="622" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B622" s="3"/>
     </row>
-    <row r="623" ht="14.25" customHeight="1">
+    <row r="623" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B623" s="3"/>
     </row>
-    <row r="624" ht="14.25" customHeight="1">
+    <row r="624" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B624" s="3"/>
     </row>
-    <row r="625" ht="14.25" customHeight="1">
+    <row r="625" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B625" s="3"/>
     </row>
-    <row r="626" ht="14.25" customHeight="1">
+    <row r="626" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B626" s="3"/>
     </row>
-    <row r="627" ht="14.25" customHeight="1">
+    <row r="627" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B627" s="3"/>
     </row>
-    <row r="628" ht="14.25" customHeight="1">
+    <row r="628" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B628" s="3"/>
     </row>
-    <row r="629" ht="14.25" customHeight="1">
+    <row r="629" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B629" s="3"/>
     </row>
-    <row r="630" ht="14.25" customHeight="1">
+    <row r="630" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B630" s="3"/>
     </row>
-    <row r="631" ht="14.25" customHeight="1">
+    <row r="631" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B631" s="3"/>
     </row>
-    <row r="632" ht="14.25" customHeight="1">
+    <row r="632" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B632" s="3"/>
     </row>
-    <row r="633" ht="14.25" customHeight="1">
+    <row r="633" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B633" s="3"/>
     </row>
-    <row r="634" ht="14.25" customHeight="1">
+    <row r="634" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B634" s="3"/>
     </row>
-    <row r="635" ht="14.25" customHeight="1">
+    <row r="635" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B635" s="3"/>
     </row>
-    <row r="636" ht="14.25" customHeight="1">
+    <row r="636" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B636" s="3"/>
     </row>
-    <row r="637" ht="14.25" customHeight="1">
+    <row r="637" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B637" s="3"/>
     </row>
-    <row r="638" ht="14.25" customHeight="1">
+    <row r="638" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B638" s="3"/>
     </row>
-    <row r="639" ht="14.25" customHeight="1">
+    <row r="639" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B639" s="3"/>
     </row>
-    <row r="640" ht="14.25" customHeight="1">
+    <row r="640" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B640" s="3"/>
     </row>
-    <row r="641" ht="14.25" customHeight="1">
+    <row r="641" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B641" s="3"/>
     </row>
-    <row r="642" ht="14.25" customHeight="1">
+    <row r="642" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B642" s="3"/>
     </row>
-    <row r="643" ht="14.25" customHeight="1">
+    <row r="643" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B643" s="3"/>
     </row>
-    <row r="644" ht="14.25" customHeight="1">
+    <row r="644" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B644" s="3"/>
     </row>
-    <row r="645" ht="14.25" customHeight="1">
+    <row r="645" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B645" s="3"/>
     </row>
-    <row r="646" ht="14.25" customHeight="1">
+    <row r="646" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B646" s="3"/>
     </row>
-    <row r="647" ht="14.25" customHeight="1">
+    <row r="647" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B647" s="3"/>
     </row>
-    <row r="648" ht="14.25" customHeight="1">
+    <row r="648" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B648" s="3"/>
     </row>
-    <row r="649" ht="14.25" customHeight="1">
+    <row r="649" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B649" s="3"/>
     </row>
-    <row r="650" ht="14.25" customHeight="1">
+    <row r="650" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B650" s="3"/>
     </row>
-    <row r="651" ht="14.25" customHeight="1">
+    <row r="651" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B651" s="3"/>
     </row>
-    <row r="652" ht="14.25" customHeight="1">
+    <row r="652" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B652" s="3"/>
     </row>
-    <row r="653" ht="14.25" customHeight="1">
+    <row r="653" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B653" s="3"/>
     </row>
-    <row r="654" ht="14.25" customHeight="1">
+    <row r="654" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B654" s="3"/>
     </row>
-    <row r="655" ht="14.25" customHeight="1">
+    <row r="655" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B655" s="3"/>
     </row>
-    <row r="656" ht="14.25" customHeight="1">
+    <row r="656" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B656" s="3"/>
     </row>
-    <row r="657" ht="14.25" customHeight="1">
+    <row r="657" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B657" s="3"/>
     </row>
-    <row r="658" ht="14.25" customHeight="1">
+    <row r="658" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B658" s="3"/>
     </row>
-    <row r="659" ht="14.25" customHeight="1">
+    <row r="659" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B659" s="3"/>
     </row>
-    <row r="660" ht="14.25" customHeight="1">
+    <row r="660" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B660" s="3"/>
     </row>
-    <row r="661" ht="14.25" customHeight="1">
+    <row r="661" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B661" s="3"/>
     </row>
-    <row r="662" ht="14.25" customHeight="1">
+    <row r="662" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B662" s="3"/>
     </row>
-    <row r="663" ht="14.25" customHeight="1">
+    <row r="663" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B663" s="3"/>
     </row>
-    <row r="664" ht="14.25" customHeight="1">
+    <row r="664" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B664" s="3"/>
     </row>
-    <row r="665" ht="14.25" customHeight="1">
+    <row r="665" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B665" s="3"/>
     </row>
-    <row r="666" ht="14.25" customHeight="1">
+    <row r="666" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B666" s="3"/>
     </row>
-    <row r="667" ht="14.25" customHeight="1">
+    <row r="667" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B667" s="3"/>
     </row>
-    <row r="668" ht="14.25" customHeight="1">
+    <row r="668" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B668" s="3"/>
     </row>
-    <row r="669" ht="14.25" customHeight="1">
+    <row r="669" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B669" s="3"/>
     </row>
-    <row r="670" ht="14.25" customHeight="1">
+    <row r="670" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B670" s="3"/>
     </row>
-    <row r="671" ht="14.25" customHeight="1">
+    <row r="671" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B671" s="3"/>
     </row>
-    <row r="672" ht="14.25" customHeight="1">
+    <row r="672" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B672" s="3"/>
     </row>
-    <row r="673" ht="14.25" customHeight="1">
+    <row r="673" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B673" s="3"/>
     </row>
-    <row r="674" ht="14.25" customHeight="1">
+    <row r="674" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B674" s="3"/>
     </row>
-    <row r="675" ht="14.25" customHeight="1">
+    <row r="675" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B675" s="3"/>
     </row>
-    <row r="676" ht="14.25" customHeight="1">
+    <row r="676" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B676" s="3"/>
     </row>
-    <row r="677" ht="14.25" customHeight="1">
+    <row r="677" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B677" s="3"/>
     </row>
-    <row r="678" ht="14.25" customHeight="1">
+    <row r="678" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B678" s="3"/>
     </row>
-    <row r="679" ht="14.25" customHeight="1">
+    <row r="679" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B679" s="3"/>
     </row>
-    <row r="680" ht="14.25" customHeight="1">
+    <row r="680" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B680" s="3"/>
     </row>
-    <row r="681" ht="14.25" customHeight="1">
+    <row r="681" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B681" s="3"/>
     </row>
-    <row r="682" ht="14.25" customHeight="1">
+    <row r="682" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B682" s="3"/>
     </row>
-    <row r="683" ht="14.25" customHeight="1">
+    <row r="683" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B683" s="3"/>
     </row>
-    <row r="684" ht="14.25" customHeight="1">
+    <row r="684" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B684" s="3"/>
     </row>
-    <row r="685" ht="14.25" customHeight="1">
+    <row r="685" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B685" s="3"/>
     </row>
-    <row r="686" ht="14.25" customHeight="1">
+    <row r="686" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B686" s="3"/>
     </row>
-    <row r="687" ht="14.25" customHeight="1">
+    <row r="687" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B687" s="3"/>
     </row>
-    <row r="688" ht="14.25" customHeight="1">
+    <row r="688" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B688" s="3"/>
     </row>
-    <row r="689" ht="14.25" customHeight="1">
+    <row r="689" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B689" s="3"/>
     </row>
-    <row r="690" ht="14.25" customHeight="1">
+    <row r="690" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B690" s="3"/>
     </row>
-    <row r="691" ht="14.25" customHeight="1">
+    <row r="691" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B691" s="3"/>
     </row>
-    <row r="692" ht="14.25" customHeight="1">
+    <row r="692" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B692" s="3"/>
     </row>
-    <row r="693" ht="14.25" customHeight="1">
+    <row r="693" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B693" s="3"/>
     </row>
-    <row r="694" ht="14.25" customHeight="1">
+    <row r="694" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B694" s="3"/>
     </row>
-    <row r="695" ht="14.25" customHeight="1">
+    <row r="695" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B695" s="3"/>
     </row>
-    <row r="696" ht="14.25" customHeight="1">
+    <row r="696" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B696" s="3"/>
     </row>
-    <row r="697" ht="14.25" customHeight="1">
+    <row r="697" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B697" s="3"/>
     </row>
-    <row r="698" ht="14.25" customHeight="1">
+    <row r="698" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B698" s="3"/>
     </row>
-    <row r="699" ht="14.25" customHeight="1">
+    <row r="699" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B699" s="3"/>
     </row>
-    <row r="700" ht="14.25" customHeight="1">
+    <row r="700" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B700" s="3"/>
     </row>
-    <row r="701" ht="14.25" customHeight="1">
+    <row r="701" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B701" s="3"/>
     </row>
-    <row r="702" ht="14.25" customHeight="1">
+    <row r="702" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B702" s="3"/>
     </row>
-    <row r="703" ht="14.25" customHeight="1">
+    <row r="703" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B703" s="3"/>
     </row>
-    <row r="704" ht="14.25" customHeight="1">
+    <row r="704" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B704" s="3"/>
     </row>
-    <row r="705" ht="14.25" customHeight="1">
+    <row r="705" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B705" s="3"/>
     </row>
-    <row r="706" ht="14.25" customHeight="1">
+    <row r="706" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B706" s="3"/>
     </row>
-    <row r="707" ht="14.25" customHeight="1">
+    <row r="707" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B707" s="3"/>
     </row>
-    <row r="708" ht="14.25" customHeight="1">
+    <row r="708" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B708" s="3"/>
     </row>
-    <row r="709" ht="14.25" customHeight="1">
+    <row r="709" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B709" s="3"/>
     </row>
-    <row r="710" ht="14.25" customHeight="1">
+    <row r="710" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B710" s="3"/>
     </row>
-    <row r="711" ht="14.25" customHeight="1">
+    <row r="711" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B711" s="3"/>
     </row>
-    <row r="712" ht="14.25" customHeight="1">
+    <row r="712" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B712" s="3"/>
     </row>
-    <row r="713" ht="14.25" customHeight="1">
+    <row r="713" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B713" s="3"/>
     </row>
-    <row r="714" ht="14.25" customHeight="1">
+    <row r="714" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B714" s="3"/>
     </row>
-    <row r="715" ht="14.25" customHeight="1">
+    <row r="715" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B715" s="3"/>
     </row>
-    <row r="716" ht="14.25" customHeight="1">
+    <row r="716" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B716" s="3"/>
     </row>
-    <row r="717" ht="14.25" customHeight="1">
+    <row r="717" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B717" s="3"/>
     </row>
-    <row r="718" ht="14.25" customHeight="1">
+    <row r="718" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B718" s="3"/>
     </row>
-    <row r="719" ht="14.25" customHeight="1">
+    <row r="719" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B719" s="3"/>
     </row>
-    <row r="720" ht="14.25" customHeight="1">
+    <row r="720" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B720" s="3"/>
     </row>
-    <row r="721" ht="14.25" customHeight="1">
+    <row r="721" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B721" s="3"/>
     </row>
-    <row r="722" ht="14.25" customHeight="1">
+    <row r="722" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B722" s="3"/>
     </row>
-    <row r="723" ht="14.25" customHeight="1">
+    <row r="723" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B723" s="3"/>
     </row>
-    <row r="724" ht="14.25" customHeight="1">
+    <row r="724" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B724" s="3"/>
     </row>
-    <row r="725" ht="14.25" customHeight="1">
+    <row r="725" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B725" s="3"/>
     </row>
-    <row r="726" ht="14.25" customHeight="1">
+    <row r="726" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B726" s="3"/>
     </row>
-    <row r="727" ht="14.25" customHeight="1">
+    <row r="727" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B727" s="3"/>
     </row>
-    <row r="728" ht="14.25" customHeight="1">
+    <row r="728" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B728" s="3"/>
     </row>
-    <row r="729" ht="14.25" customHeight="1">
+    <row r="729" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B729" s="3"/>
     </row>
-    <row r="730" ht="14.25" customHeight="1">
+    <row r="730" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B730" s="3"/>
     </row>
-    <row r="731" ht="14.25" customHeight="1">
+    <row r="731" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B731" s="3"/>
     </row>
-    <row r="732" ht="14.25" customHeight="1">
+    <row r="732" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B732" s="3"/>
     </row>
-    <row r="733" ht="14.25" customHeight="1">
+    <row r="733" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B733" s="3"/>
     </row>
-    <row r="734" ht="14.25" customHeight="1">
+    <row r="734" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B734" s="3"/>
     </row>
-    <row r="735" ht="14.25" customHeight="1">
+    <row r="735" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B735" s="3"/>
     </row>
-    <row r="736" ht="14.25" customHeight="1">
+    <row r="736" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B736" s="3"/>
     </row>
-    <row r="737" ht="14.25" customHeight="1">
+    <row r="737" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B737" s="3"/>
     </row>
-    <row r="738" ht="14.25" customHeight="1">
+    <row r="738" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B738" s="3"/>
     </row>
-    <row r="739" ht="14.25" customHeight="1">
+    <row r="739" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B739" s="3"/>
     </row>
-    <row r="740" ht="14.25" customHeight="1">
+    <row r="740" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B740" s="3"/>
     </row>
-    <row r="741" ht="14.25" customHeight="1">
+    <row r="741" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B741" s="3"/>
     </row>
-    <row r="742" ht="14.25" customHeight="1">
+    <row r="742" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B742" s="3"/>
     </row>
-    <row r="743" ht="14.25" customHeight="1">
+    <row r="743" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B743" s="3"/>
     </row>
-    <row r="744" ht="14.25" customHeight="1">
+    <row r="744" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B744" s="3"/>
     </row>
-    <row r="745" ht="14.25" customHeight="1">
+    <row r="745" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B745" s="3"/>
     </row>
-    <row r="746" ht="14.25" customHeight="1">
+    <row r="746" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B746" s="3"/>
     </row>
-    <row r="747" ht="14.25" customHeight="1">
+    <row r="747" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B747" s="3"/>
     </row>
-    <row r="748" ht="14.25" customHeight="1">
+    <row r="748" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B748" s="3"/>
     </row>
-    <row r="749" ht="14.25" customHeight="1">
+    <row r="749" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B749" s="3"/>
     </row>
-    <row r="750" ht="14.25" customHeight="1">
+    <row r="750" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B750" s="3"/>
     </row>
-    <row r="751" ht="14.25" customHeight="1">
+    <row r="751" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B751" s="3"/>
     </row>
-    <row r="752" ht="14.25" customHeight="1">
+    <row r="752" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B752" s="3"/>
     </row>
-    <row r="753" ht="14.25" customHeight="1">
+    <row r="753" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B753" s="3"/>
     </row>
-    <row r="754" ht="14.25" customHeight="1">
+    <row r="754" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B754" s="3"/>
     </row>
-    <row r="755" ht="14.25" customHeight="1">
+    <row r="755" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B755" s="3"/>
     </row>
-    <row r="756" ht="14.25" customHeight="1">
+    <row r="756" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B756" s="3"/>
     </row>
-    <row r="757" ht="14.25" customHeight="1">
+    <row r="757" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B757" s="3"/>
     </row>
-    <row r="758" ht="14.25" customHeight="1">
+    <row r="758" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B758" s="3"/>
     </row>
-    <row r="759" ht="14.25" customHeight="1">
+    <row r="759" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B759" s="3"/>
     </row>
-    <row r="760" ht="14.25" customHeight="1">
+    <row r="760" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B760" s="3"/>
     </row>
-    <row r="761" ht="14.25" customHeight="1">
+    <row r="761" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B761" s="3"/>
     </row>
-    <row r="762" ht="14.25" customHeight="1">
+    <row r="762" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B762" s="3"/>
     </row>
-    <row r="763" ht="14.25" customHeight="1">
+    <row r="763" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B763" s="3"/>
     </row>
-    <row r="764" ht="14.25" customHeight="1">
+    <row r="764" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B764" s="3"/>
     </row>
-    <row r="765" ht="14.25" customHeight="1">
+    <row r="765" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B765" s="3"/>
     </row>
-    <row r="766" ht="14.25" customHeight="1">
+    <row r="766" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B766" s="3"/>
     </row>
-    <row r="767" ht="14.25" customHeight="1">
+    <row r="767" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B767" s="3"/>
     </row>
-    <row r="768" ht="14.25" customHeight="1">
+    <row r="768" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B768" s="3"/>
     </row>
-    <row r="769" ht="14.25" customHeight="1">
+    <row r="769" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B769" s="3"/>
     </row>
-    <row r="770" ht="14.25" customHeight="1">
+    <row r="770" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B770" s="3"/>
     </row>
-    <row r="771" ht="14.25" customHeight="1">
+    <row r="771" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B771" s="3"/>
     </row>
-    <row r="772" ht="14.25" customHeight="1">
+    <row r="772" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B772" s="3"/>
     </row>
-    <row r="773" ht="14.25" customHeight="1">
+    <row r="773" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B773" s="3"/>
     </row>
-    <row r="774" ht="14.25" customHeight="1">
+    <row r="774" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B774" s="3"/>
     </row>
-    <row r="775" ht="14.25" customHeight="1">
+    <row r="775" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B775" s="3"/>
     </row>
-    <row r="776" ht="14.25" customHeight="1">
+    <row r="776" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B776" s="3"/>
     </row>
-    <row r="777" ht="14.25" customHeight="1">
+    <row r="777" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B777" s="3"/>
     </row>
-    <row r="778" ht="14.25" customHeight="1">
+    <row r="778" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B778" s="3"/>
     </row>
-    <row r="779" ht="14.25" customHeight="1">
+    <row r="779" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B779" s="3"/>
     </row>
-    <row r="780" ht="14.25" customHeight="1">
+    <row r="780" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B780" s="3"/>
     </row>
-    <row r="781" ht="14.25" customHeight="1">
+    <row r="781" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B781" s="3"/>
     </row>
-    <row r="782" ht="14.25" customHeight="1">
+    <row r="782" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B782" s="3"/>
     </row>
-    <row r="783" ht="14.25" customHeight="1">
+    <row r="783" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B783" s="3"/>
     </row>
-    <row r="784" ht="14.25" customHeight="1">
+    <row r="784" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B784" s="3"/>
     </row>
-    <row r="785" ht="14.25" customHeight="1">
+    <row r="785" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B785" s="3"/>
     </row>
-    <row r="786" ht="14.25" customHeight="1">
+    <row r="786" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B786" s="3"/>
     </row>
-    <row r="787" ht="14.25" customHeight="1">
+    <row r="787" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B787" s="3"/>
     </row>
-    <row r="788" ht="14.25" customHeight="1">
+    <row r="788" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B788" s="3"/>
     </row>
-    <row r="789" ht="14.25" customHeight="1">
+    <row r="789" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B789" s="3"/>
     </row>
-    <row r="790" ht="14.25" customHeight="1">
+    <row r="790" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B790" s="3"/>
     </row>
-    <row r="791" ht="14.25" customHeight="1">
+    <row r="791" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B791" s="3"/>
     </row>
-    <row r="792" ht="14.25" customHeight="1">
+    <row r="792" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B792" s="3"/>
     </row>
-    <row r="793" ht="14.25" customHeight="1">
+    <row r="793" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B793" s="3"/>
     </row>
-    <row r="794" ht="14.25" customHeight="1">
+    <row r="794" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B794" s="3"/>
     </row>
-    <row r="795" ht="14.25" customHeight="1">
+    <row r="795" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B795" s="3"/>
     </row>
-    <row r="796" ht="14.25" customHeight="1">
+    <row r="796" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B796" s="3"/>
     </row>
-    <row r="797" ht="14.25" customHeight="1">
+    <row r="797" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B797" s="3"/>
     </row>
-    <row r="798" ht="14.25" customHeight="1">
+    <row r="798" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B798" s="3"/>
     </row>
-    <row r="799" ht="14.25" customHeight="1">
+    <row r="799" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B799" s="3"/>
     </row>
-    <row r="800" ht="14.25" customHeight="1">
+    <row r="800" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B800" s="3"/>
     </row>
-    <row r="801" ht="14.25" customHeight="1">
+    <row r="801" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B801" s="3"/>
     </row>
-    <row r="802" ht="14.25" customHeight="1">
+    <row r="802" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B802" s="3"/>
     </row>
-    <row r="803" ht="14.25" customHeight="1">
+    <row r="803" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B803" s="3"/>
     </row>
-    <row r="804" ht="14.25" customHeight="1">
+    <row r="804" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B804" s="3"/>
     </row>
-    <row r="805" ht="14.25" customHeight="1">
+    <row r="805" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B805" s="3"/>
     </row>
-    <row r="806" ht="14.25" customHeight="1">
+    <row r="806" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B806" s="3"/>
     </row>
-    <row r="807" ht="14.25" customHeight="1">
+    <row r="807" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B807" s="3"/>
     </row>
-    <row r="808" ht="14.25" customHeight="1">
+    <row r="808" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B808" s="3"/>
     </row>
-    <row r="809" ht="14.25" customHeight="1">
+    <row r="809" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B809" s="3"/>
     </row>
-    <row r="810" ht="14.25" customHeight="1">
+    <row r="810" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B810" s="3"/>
     </row>
-    <row r="811" ht="14.25" customHeight="1">
+    <row r="811" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B811" s="3"/>
     </row>
-    <row r="812" ht="14.25" customHeight="1">
+    <row r="812" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B812" s="3"/>
     </row>
-    <row r="813" ht="14.25" customHeight="1">
+    <row r="813" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B813" s="3"/>
     </row>
-    <row r="814" ht="14.25" customHeight="1">
+    <row r="814" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B814" s="3"/>
     </row>
-    <row r="815" ht="14.25" customHeight="1">
+    <row r="815" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B815" s="3"/>
     </row>
-    <row r="816" ht="14.25" customHeight="1">
+    <row r="816" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B816" s="3"/>
     </row>
-    <row r="817" ht="14.25" customHeight="1">
+    <row r="817" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B817" s="3"/>
     </row>
-    <row r="818" ht="14.25" customHeight="1">
+    <row r="818" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B818" s="3"/>
     </row>
-    <row r="819" ht="14.25" customHeight="1">
+    <row r="819" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B819" s="3"/>
     </row>
-    <row r="820" ht="14.25" customHeight="1">
+    <row r="820" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B820" s="3"/>
     </row>
-    <row r="821" ht="14.25" customHeight="1">
+    <row r="821" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B821" s="3"/>
     </row>
-    <row r="822" ht="14.25" customHeight="1">
+    <row r="822" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B822" s="3"/>
     </row>
-    <row r="823" ht="14.25" customHeight="1">
+    <row r="823" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B823" s="3"/>
     </row>
-    <row r="824" ht="14.25" customHeight="1">
+    <row r="824" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B824" s="3"/>
     </row>
-    <row r="825" ht="14.25" customHeight="1">
+    <row r="825" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B825" s="3"/>
     </row>
-    <row r="826" ht="14.25" customHeight="1">
+    <row r="826" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B826" s="3"/>
     </row>
-    <row r="827" ht="14.25" customHeight="1">
+    <row r="827" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B827" s="3"/>
     </row>
-    <row r="828" ht="14.25" customHeight="1">
+    <row r="828" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B828" s="3"/>
     </row>
-    <row r="829" ht="14.25" customHeight="1">
+    <row r="829" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B829" s="3"/>
     </row>
-    <row r="830" ht="14.25" customHeight="1">
+    <row r="830" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B830" s="3"/>
     </row>
-    <row r="831" ht="14.25" customHeight="1">
+    <row r="831" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B831" s="3"/>
     </row>
-    <row r="832" ht="14.25" customHeight="1">
+    <row r="832" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B832" s="3"/>
     </row>
-    <row r="833" ht="14.25" customHeight="1">
+    <row r="833" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B833" s="3"/>
     </row>
-    <row r="834" ht="14.25" customHeight="1">
+    <row r="834" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B834" s="3"/>
     </row>
-    <row r="835" ht="14.25" customHeight="1">
+    <row r="835" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B835" s="3"/>
     </row>
-    <row r="836" ht="14.25" customHeight="1">
+    <row r="836" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B836" s="3"/>
     </row>
-    <row r="837" ht="14.25" customHeight="1">
+    <row r="837" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B837" s="3"/>
     </row>
-    <row r="838" ht="14.25" customHeight="1">
+    <row r="838" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B838" s="3"/>
     </row>
-    <row r="839" ht="14.25" customHeight="1">
+    <row r="839" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B839" s="3"/>
     </row>
-    <row r="840" ht="14.25" customHeight="1">
+    <row r="840" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B840" s="3"/>
     </row>
-    <row r="841" ht="14.25" customHeight="1">
+    <row r="841" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B841" s="3"/>
     </row>
-    <row r="842" ht="14.25" customHeight="1">
+    <row r="842" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B842" s="3"/>
     </row>
-    <row r="843" ht="14.25" customHeight="1">
+    <row r="843" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B843" s="3"/>
     </row>
-    <row r="844" ht="14.25" customHeight="1">
+    <row r="844" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B844" s="3"/>
     </row>
-    <row r="845" ht="14.25" customHeight="1">
+    <row r="845" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B845" s="3"/>
     </row>
-    <row r="846" ht="14.25" customHeight="1">
+    <row r="846" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B846" s="3"/>
     </row>
-    <row r="847" ht="14.25" customHeight="1">
+    <row r="847" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B847" s="3"/>
     </row>
-    <row r="848" ht="14.25" customHeight="1">
+    <row r="848" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B848" s="3"/>
     </row>
-    <row r="849" ht="14.25" customHeight="1">
+    <row r="849" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B849" s="3"/>
     </row>
-    <row r="850" ht="14.25" customHeight="1">
+    <row r="850" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B850" s="3"/>
     </row>
-    <row r="851" ht="14.25" customHeight="1">
+    <row r="851" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B851" s="3"/>
     </row>
-    <row r="852" ht="14.25" customHeight="1">
+    <row r="852" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B852" s="3"/>
     </row>
-    <row r="853" ht="14.25" customHeight="1">
+    <row r="853" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B853" s="3"/>
     </row>
-    <row r="854" ht="14.25" customHeight="1">
+    <row r="854" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B854" s="3"/>
     </row>
-    <row r="855" ht="14.25" customHeight="1">
+    <row r="855" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B855" s="3"/>
     </row>
-    <row r="856" ht="14.25" customHeight="1">
+    <row r="856" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B856" s="3"/>
     </row>
-    <row r="857" ht="14.25" customHeight="1">
+    <row r="857" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B857" s="3"/>
     </row>
-    <row r="858" ht="14.25" customHeight="1">
+    <row r="858" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B858" s="3"/>
     </row>
-    <row r="859" ht="14.25" customHeight="1">
+    <row r="859" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B859" s="3"/>
     </row>
-    <row r="860" ht="14.25" customHeight="1">
+    <row r="860" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B860" s="3"/>
     </row>
-    <row r="861" ht="14.25" customHeight="1">
+    <row r="861" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B861" s="3"/>
     </row>
-    <row r="862" ht="14.25" customHeight="1">
+    <row r="862" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B862" s="3"/>
     </row>
-    <row r="863" ht="14.25" customHeight="1">
+    <row r="863" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B863" s="3"/>
     </row>
-    <row r="864" ht="14.25" customHeight="1">
+    <row r="864" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B864" s="3"/>
     </row>
-    <row r="865" ht="14.25" customHeight="1">
+    <row r="865" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B865" s="3"/>
     </row>
-    <row r="866" ht="14.25" customHeight="1">
+    <row r="866" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B866" s="3"/>
     </row>
-    <row r="867" ht="14.25" customHeight="1">
+    <row r="867" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B867" s="3"/>
     </row>
-    <row r="868" ht="14.25" customHeight="1">
+    <row r="868" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B868" s="3"/>
     </row>
-    <row r="869" ht="14.25" customHeight="1">
+    <row r="869" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B869" s="3"/>
     </row>
-    <row r="870" ht="14.25" customHeight="1">
+    <row r="870" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B870" s="3"/>
     </row>
-    <row r="871" ht="14.25" customHeight="1">
+    <row r="871" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B871" s="3"/>
     </row>
-    <row r="872" ht="14.25" customHeight="1">
+    <row r="872" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B872" s="3"/>
     </row>
-    <row r="873" ht="14.25" customHeight="1">
+    <row r="873" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B873" s="3"/>
     </row>
-    <row r="874" ht="14.25" customHeight="1">
+    <row r="874" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B874" s="3"/>
     </row>
-    <row r="875" ht="14.25" customHeight="1">
+    <row r="875" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B875" s="3"/>
     </row>
-    <row r="876" ht="14.25" customHeight="1">
+    <row r="876" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B876" s="3"/>
     </row>
-    <row r="877" ht="14.25" customHeight="1">
+    <row r="877" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B877" s="3"/>
     </row>
-    <row r="878" ht="14.25" customHeight="1">
+    <row r="878" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B878" s="3"/>
     </row>
-    <row r="879" ht="14.25" customHeight="1">
+    <row r="879" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B879" s="3"/>
     </row>
-    <row r="880" ht="14.25" customHeight="1">
+    <row r="880" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B880" s="3"/>
     </row>
-    <row r="881" ht="14.25" customHeight="1">
+    <row r="881" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B881" s="3"/>
     </row>
-    <row r="882" ht="14.25" customHeight="1">
+    <row r="882" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B882" s="3"/>
     </row>
-    <row r="883" ht="14.25" customHeight="1">
+    <row r="883" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B883" s="3"/>
     </row>
-    <row r="884" ht="14.25" customHeight="1">
+    <row r="884" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B884" s="3"/>
     </row>
-    <row r="885" ht="14.25" customHeight="1">
+    <row r="885" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B885" s="3"/>
     </row>
-    <row r="886" ht="14.25" customHeight="1">
+    <row r="886" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B886" s="3"/>
     </row>
-    <row r="887" ht="14.25" customHeight="1">
+    <row r="887" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B887" s="3"/>
     </row>
-    <row r="888" ht="14.25" customHeight="1">
+    <row r="888" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B888" s="3"/>
     </row>
-    <row r="889" ht="14.25" customHeight="1">
+    <row r="889" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B889" s="3"/>
     </row>
-    <row r="890" ht="14.25" customHeight="1">
+    <row r="890" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B890" s="3"/>
     </row>
-    <row r="891" ht="14.25" customHeight="1">
+    <row r="891" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B891" s="3"/>
     </row>
-    <row r="892" ht="14.25" customHeight="1">
+    <row r="892" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B892" s="3"/>
     </row>
-    <row r="893" ht="14.25" customHeight="1">
+    <row r="893" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B893" s="3"/>
     </row>
-    <row r="894" ht="14.25" customHeight="1">
+    <row r="894" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B894" s="3"/>
     </row>
-    <row r="895" ht="14.25" customHeight="1">
+    <row r="895" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B895" s="3"/>
     </row>
-    <row r="896" ht="14.25" customHeight="1">
+    <row r="896" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B896" s="3"/>
     </row>
-    <row r="897" ht="14.25" customHeight="1">
+    <row r="897" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B897" s="3"/>
     </row>
-    <row r="898" ht="14.25" customHeight="1">
+    <row r="898" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B898" s="3"/>
     </row>
-    <row r="899" ht="14.25" customHeight="1">
+    <row r="899" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B899" s="3"/>
     </row>
-    <row r="900" ht="14.25" customHeight="1">
+    <row r="900" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B900" s="3"/>
     </row>
-    <row r="901" ht="14.25" customHeight="1">
+    <row r="901" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B901" s="3"/>
     </row>
-    <row r="902" ht="14.25" customHeight="1">
+    <row r="902" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B902" s="3"/>
     </row>
-    <row r="903" ht="14.25" customHeight="1">
+    <row r="903" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B903" s="3"/>
     </row>
-    <row r="904" ht="14.25" customHeight="1">
+    <row r="904" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B904" s="3"/>
     </row>
-    <row r="905" ht="14.25" customHeight="1">
+    <row r="905" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B905" s="3"/>
     </row>
-    <row r="906" ht="14.25" customHeight="1">
+    <row r="906" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B906" s="3"/>
     </row>
-    <row r="907" ht="14.25" customHeight="1">
+    <row r="907" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B907" s="3"/>
     </row>
-    <row r="908" ht="14.25" customHeight="1">
+    <row r="908" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B908" s="3"/>
     </row>
-    <row r="909" ht="14.25" customHeight="1">
+    <row r="909" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B909" s="3"/>
     </row>
-    <row r="910" ht="14.25" customHeight="1">
+    <row r="910" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B910" s="3"/>
     </row>
-    <row r="911" ht="14.25" customHeight="1">
+    <row r="911" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B911" s="3"/>
     </row>
-    <row r="912" ht="14.25" customHeight="1">
+    <row r="912" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B912" s="3"/>
     </row>
-    <row r="913" ht="14.25" customHeight="1">
+    <row r="913" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B913" s="3"/>
     </row>
-    <row r="914" ht="14.25" customHeight="1">
+    <row r="914" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B914" s="3"/>
     </row>
-    <row r="915" ht="14.25" customHeight="1">
+    <row r="915" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B915" s="3"/>
     </row>
-    <row r="916" ht="14.25" customHeight="1">
+    <row r="916" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B916" s="3"/>
     </row>
-    <row r="917" ht="14.25" customHeight="1">
+    <row r="917" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B917" s="3"/>
     </row>
-    <row r="918" ht="14.25" customHeight="1">
+    <row r="918" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B918" s="3"/>
     </row>
-    <row r="919" ht="14.25" customHeight="1">
+    <row r="919" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B919" s="3"/>
     </row>
-    <row r="920" ht="14.25" customHeight="1">
+    <row r="920" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B920" s="3"/>
     </row>
-    <row r="921" ht="14.25" customHeight="1">
+    <row r="921" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B921" s="3"/>
     </row>
-    <row r="922" ht="14.25" customHeight="1">
+    <row r="922" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B922" s="3"/>
     </row>
-    <row r="923" ht="14.25" customHeight="1">
+    <row r="923" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B923" s="3"/>
     </row>
-    <row r="924" ht="14.25" customHeight="1">
+    <row r="924" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B924" s="3"/>
     </row>
-    <row r="925" ht="14.25" customHeight="1">
+    <row r="925" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B925" s="3"/>
     </row>
-    <row r="926" ht="14.25" customHeight="1">
+    <row r="926" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B926" s="3"/>
     </row>
-    <row r="927" ht="14.25" customHeight="1">
+    <row r="927" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B927" s="3"/>
     </row>
-    <row r="928" ht="14.25" customHeight="1">
+    <row r="928" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B928" s="3"/>
     </row>
-    <row r="929" ht="14.25" customHeight="1">
+    <row r="929" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B929" s="3"/>
     </row>
-    <row r="930" ht="14.25" customHeight="1">
+    <row r="930" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B930" s="3"/>
     </row>
-    <row r="931" ht="14.25" customHeight="1">
+    <row r="931" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B931" s="3"/>
     </row>
-    <row r="932" ht="14.25" customHeight="1">
+    <row r="932" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B932" s="3"/>
     </row>
-    <row r="933" ht="14.25" customHeight="1">
+    <row r="933" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B933" s="3"/>
     </row>
-    <row r="934" ht="14.25" customHeight="1">
+    <row r="934" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B934" s="3"/>
     </row>
-    <row r="935" ht="14.25" customHeight="1">
+    <row r="935" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B935" s="3"/>
     </row>
-    <row r="936" ht="14.25" customHeight="1">
+    <row r="936" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B936" s="3"/>
     </row>
-    <row r="937" ht="14.25" customHeight="1">
+    <row r="937" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B937" s="3"/>
     </row>
-    <row r="938" ht="14.25" customHeight="1">
+    <row r="938" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B938" s="3"/>
     </row>
-    <row r="939" ht="14.25" customHeight="1">
+    <row r="939" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B939" s="3"/>
     </row>
-    <row r="940" ht="14.25" customHeight="1">
+    <row r="940" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B940" s="3"/>
     </row>
-    <row r="941" ht="14.25" customHeight="1">
+    <row r="941" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B941" s="3"/>
     </row>
-    <row r="942" ht="14.25" customHeight="1">
+    <row r="942" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B942" s="3"/>
     </row>
-    <row r="943" ht="14.25" customHeight="1">
+    <row r="943" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B943" s="3"/>
     </row>
-    <row r="944" ht="14.25" customHeight="1">
+    <row r="944" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B944" s="3"/>
     </row>
-    <row r="945" ht="14.25" customHeight="1">
+    <row r="945" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B945" s="3"/>
     </row>
-    <row r="946" ht="14.25" customHeight="1">
+    <row r="946" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B946" s="3"/>
     </row>
-    <row r="947" ht="14.25" customHeight="1">
+    <row r="947" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B947" s="3"/>
     </row>
-    <row r="948" ht="14.25" customHeight="1">
+    <row r="948" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B948" s="3"/>
     </row>
-    <row r="949" ht="14.25" customHeight="1">
+    <row r="949" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B949" s="3"/>
     </row>
-    <row r="950" ht="14.25" customHeight="1">
+    <row r="950" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B950" s="3"/>
     </row>
-    <row r="951" ht="14.25" customHeight="1">
+    <row r="951" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B951" s="3"/>
     </row>
-    <row r="952" ht="14.25" customHeight="1">
+    <row r="952" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B952" s="3"/>
     </row>
-    <row r="953" ht="14.25" customHeight="1">
+    <row r="953" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B953" s="3"/>
     </row>
-    <row r="954" ht="14.25" customHeight="1">
+    <row r="954" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B954" s="3"/>
     </row>
-    <row r="955" ht="14.25" customHeight="1">
+    <row r="955" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B955" s="3"/>
     </row>
-    <row r="956" ht="14.25" customHeight="1">
+    <row r="956" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B956" s="3"/>
     </row>
-    <row r="957" ht="14.25" customHeight="1">
+    <row r="957" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B957" s="3"/>
     </row>
-    <row r="958" ht="14.25" customHeight="1">
+    <row r="958" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B958" s="3"/>
     </row>
-    <row r="959" ht="14.25" customHeight="1">
+    <row r="959" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B959" s="3"/>
     </row>
-    <row r="960" ht="14.25" customHeight="1">
+    <row r="960" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B960" s="3"/>
     </row>
-    <row r="961" ht="14.25" customHeight="1">
+    <row r="961" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B961" s="3"/>
     </row>
-    <row r="962" ht="14.25" customHeight="1">
+    <row r="962" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B962" s="3"/>
     </row>
-    <row r="963" ht="14.25" customHeight="1">
+    <row r="963" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B963" s="3"/>
     </row>
-    <row r="964" ht="14.25" customHeight="1">
+    <row r="964" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B964" s="3"/>
     </row>
-    <row r="965" ht="14.25" customHeight="1">
+    <row r="965" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B965" s="3"/>
     </row>
-    <row r="966" ht="14.25" customHeight="1">
+    <row r="966" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B966" s="3"/>
     </row>
-    <row r="967" ht="14.25" customHeight="1">
+    <row r="967" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B967" s="3"/>
     </row>
-    <row r="968" ht="14.25" customHeight="1">
+    <row r="968" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B968" s="3"/>
     </row>
-    <row r="969" ht="14.25" customHeight="1">
+    <row r="969" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B969" s="3"/>
     </row>
-    <row r="970" ht="14.25" customHeight="1">
+    <row r="970" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B970" s="3"/>
     </row>
-    <row r="971" ht="14.25" customHeight="1">
+    <row r="971" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B971" s="3"/>
     </row>
-    <row r="972" ht="14.25" customHeight="1">
+    <row r="972" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B972" s="3"/>
     </row>
-    <row r="973" ht="14.25" customHeight="1">
+    <row r="973" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B973" s="3"/>
     </row>
-    <row r="974" ht="14.25" customHeight="1">
+    <row r="974" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B974" s="3"/>
     </row>
-    <row r="975" ht="14.25" customHeight="1">
+    <row r="975" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B975" s="3"/>
     </row>
-    <row r="976" ht="14.25" customHeight="1">
+    <row r="976" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B976" s="3"/>
     </row>
-    <row r="977" ht="14.25" customHeight="1">
+    <row r="977" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B977" s="3"/>
     </row>
-    <row r="978" ht="14.25" customHeight="1">
+    <row r="978" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B978" s="3"/>
     </row>
-    <row r="979" ht="14.25" customHeight="1">
+    <row r="979" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B979" s="3"/>
     </row>
-    <row r="980" ht="14.25" customHeight="1">
+    <row r="980" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B980" s="3"/>
     </row>
-    <row r="981" ht="14.25" customHeight="1">
+    <row r="981" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B981" s="3"/>
     </row>
-    <row r="982" ht="14.25" customHeight="1">
+    <row r="982" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B982" s="3"/>
     </row>
-    <row r="983" ht="14.25" customHeight="1">
+    <row r="983" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B983" s="3"/>
     </row>
-    <row r="984" ht="14.25" customHeight="1">
+    <row r="984" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B984" s="3"/>
     </row>
-    <row r="985" ht="14.25" customHeight="1">
+    <row r="985" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B985" s="3"/>
     </row>
-    <row r="986" ht="14.25" customHeight="1">
+    <row r="986" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B986" s="3"/>
     </row>
-    <row r="987" ht="14.25" customHeight="1">
+    <row r="987" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B987" s="3"/>
     </row>
-    <row r="988" ht="14.25" customHeight="1">
+    <row r="988" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B988" s="3"/>
     </row>
-    <row r="989" ht="14.25" customHeight="1">
+    <row r="989" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B989" s="3"/>
     </row>
-    <row r="990" ht="14.25" customHeight="1">
+    <row r="990" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B990" s="3"/>
     </row>
-    <row r="991" ht="14.25" customHeight="1">
+    <row r="991" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B991" s="3"/>
     </row>
-    <row r="992" ht="14.25" customHeight="1">
+    <row r="992" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B992" s="3"/>
     </row>
-    <row r="993" ht="14.25" customHeight="1">
+    <row r="993" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B993" s="3"/>
     </row>
-    <row r="994" ht="14.25" customHeight="1">
+    <row r="994" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B994" s="3"/>
     </row>
-    <row r="995" ht="14.25" customHeight="1">
+    <row r="995" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B995" s="3"/>
     </row>
-    <row r="996" ht="14.25" customHeight="1">
+    <row r="996" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B996" s="3"/>
     </row>
-    <row r="997" ht="14.25" customHeight="1">
+    <row r="997" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B997" s="3"/>
     </row>
-    <row r="998" ht="14.25" customHeight="1">
+    <row r="998" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B998" s="3"/>
     </row>
-    <row r="999" ht="14.25" customHeight="1">
+    <row r="999" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B999" s="3"/>
     </row>
-    <row r="1000" ht="14.25" customHeight="1">
+    <row r="1000" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1000" s="3"/>
     </row>
+    <row r="1001" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1001" s="3"/>
+    </row>
+    <row r="1002" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1002" s="3"/>
+    </row>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CEFE34F-2070-49CD-8F06-CB4BE1EB1541}">
+  <dimension ref="A1:Z1002"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="26" width="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:26" ht="5.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+    </row>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2">
+        <v>29.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2">
+        <v>32.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2">
+        <v>399.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2">
+        <v>249.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2">
+        <v>259.89999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2">
+        <v>299.89999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2">
+        <v>85.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2">
+        <v>89.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2">
+        <v>92.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2">
+        <v>149.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="2">
+        <v>65.900000000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="2">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="2">
+        <v>70.900000000000006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <v>36</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="2">
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3">
+        <v>37</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2">
+        <v>249.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="3">
+        <v>38</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="2">
+        <v>259.89999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="2">
+        <v>259.89999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="2">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="2">
+        <v>49.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="3"/>
+    </row>
+    <row r="43" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="3"/>
+    </row>
+    <row r="46" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="3"/>
+    </row>
+    <row r="47" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="3"/>
+    </row>
+    <row r="48" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="3"/>
+    </row>
+    <row r="49" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="3"/>
+    </row>
+    <row r="50" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="3"/>
+    </row>
+    <row r="51" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="3"/>
+    </row>
+    <row r="52" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="3"/>
+    </row>
+    <row r="53" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="3"/>
+    </row>
+    <row r="54" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="3"/>
+    </row>
+    <row r="55" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="3"/>
+    </row>
+    <row r="56" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="3"/>
+    </row>
+    <row r="57" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="3"/>
+    </row>
+    <row r="58" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="3"/>
+    </row>
+    <row r="59" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="3"/>
+    </row>
+    <row r="60" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="3"/>
+    </row>
+    <row r="61" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="3"/>
+    </row>
+    <row r="62" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="3"/>
+    </row>
+    <row r="63" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="3"/>
+    </row>
+    <row r="64" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="3"/>
+    </row>
+    <row r="65" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="3"/>
+    </row>
+    <row r="66" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="3"/>
+    </row>
+    <row r="67" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="3"/>
+    </row>
+    <row r="68" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="3"/>
+    </row>
+    <row r="69" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="3"/>
+    </row>
+    <row r="70" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="3"/>
+    </row>
+    <row r="71" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="3"/>
+    </row>
+    <row r="72" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="3"/>
+    </row>
+    <row r="73" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="3"/>
+    </row>
+    <row r="74" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="3"/>
+    </row>
+    <row r="75" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="3"/>
+    </row>
+    <row r="76" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="3"/>
+    </row>
+    <row r="77" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="3"/>
+    </row>
+    <row r="78" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="3"/>
+    </row>
+    <row r="79" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="3"/>
+    </row>
+    <row r="80" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="3"/>
+    </row>
+    <row r="81" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="3"/>
+    </row>
+    <row r="82" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="3"/>
+    </row>
+    <row r="83" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="3"/>
+    </row>
+    <row r="84" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="3"/>
+    </row>
+    <row r="85" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B85" s="3"/>
+    </row>
+    <row r="86" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B86" s="3"/>
+    </row>
+    <row r="87" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B87" s="3"/>
+    </row>
+    <row r="88" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B88" s="3"/>
+    </row>
+    <row r="89" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B89" s="3"/>
+    </row>
+    <row r="90" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B90" s="3"/>
+    </row>
+    <row r="91" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B91" s="3"/>
+    </row>
+    <row r="92" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B92" s="3"/>
+    </row>
+    <row r="93" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B93" s="3"/>
+    </row>
+    <row r="94" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B94" s="3"/>
+    </row>
+    <row r="95" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B95" s="3"/>
+    </row>
+    <row r="96" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B96" s="3"/>
+    </row>
+    <row r="97" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B97" s="3"/>
+    </row>
+    <row r="98" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B98" s="3"/>
+    </row>
+    <row r="99" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B99" s="3"/>
+    </row>
+    <row r="100" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B100" s="3"/>
+    </row>
+    <row r="101" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B101" s="3"/>
+    </row>
+    <row r="102" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B102" s="3"/>
+    </row>
+    <row r="103" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B103" s="3"/>
+    </row>
+    <row r="104" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B104" s="3"/>
+    </row>
+    <row r="105" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B105" s="3"/>
+    </row>
+    <row r="106" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B106" s="3"/>
+    </row>
+    <row r="107" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B107" s="3"/>
+    </row>
+    <row r="108" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B108" s="3"/>
+    </row>
+    <row r="109" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B109" s="3"/>
+    </row>
+    <row r="110" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B110" s="3"/>
+    </row>
+    <row r="111" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B111" s="3"/>
+    </row>
+    <row r="112" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B112" s="3"/>
+    </row>
+    <row r="113" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B113" s="3"/>
+    </row>
+    <row r="114" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B114" s="3"/>
+    </row>
+    <row r="115" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B115" s="3"/>
+    </row>
+    <row r="116" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B116" s="3"/>
+    </row>
+    <row r="117" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B117" s="3"/>
+    </row>
+    <row r="118" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B118" s="3"/>
+    </row>
+    <row r="119" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B119" s="3"/>
+    </row>
+    <row r="120" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B120" s="3"/>
+    </row>
+    <row r="121" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B121" s="3"/>
+    </row>
+    <row r="122" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B122" s="3"/>
+    </row>
+    <row r="123" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B123" s="3"/>
+    </row>
+    <row r="124" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B124" s="3"/>
+    </row>
+    <row r="125" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B125" s="3"/>
+    </row>
+    <row r="126" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B126" s="3"/>
+    </row>
+    <row r="127" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B127" s="3"/>
+    </row>
+    <row r="128" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B128" s="3"/>
+    </row>
+    <row r="129" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B129" s="3"/>
+    </row>
+    <row r="130" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B130" s="3"/>
+    </row>
+    <row r="131" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B131" s="3"/>
+    </row>
+    <row r="132" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B132" s="3"/>
+    </row>
+    <row r="133" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B133" s="3"/>
+    </row>
+    <row r="134" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B134" s="3"/>
+    </row>
+    <row r="135" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B135" s="3"/>
+    </row>
+    <row r="136" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B136" s="3"/>
+    </row>
+    <row r="137" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B137" s="3"/>
+    </row>
+    <row r="138" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B138" s="3"/>
+    </row>
+    <row r="139" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B139" s="3"/>
+    </row>
+    <row r="140" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B140" s="3"/>
+    </row>
+    <row r="141" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B141" s="3"/>
+    </row>
+    <row r="142" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B142" s="3"/>
+    </row>
+    <row r="143" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B143" s="3"/>
+    </row>
+    <row r="144" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B144" s="3"/>
+    </row>
+    <row r="145" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B145" s="3"/>
+    </row>
+    <row r="146" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B146" s="3"/>
+    </row>
+    <row r="147" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B147" s="3"/>
+    </row>
+    <row r="148" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B148" s="3"/>
+    </row>
+    <row r="149" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B149" s="3"/>
+    </row>
+    <row r="150" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B150" s="3"/>
+    </row>
+    <row r="151" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B151" s="3"/>
+    </row>
+    <row r="152" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B152" s="3"/>
+    </row>
+    <row r="153" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B153" s="3"/>
+    </row>
+    <row r="154" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B154" s="3"/>
+    </row>
+    <row r="155" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B155" s="3"/>
+    </row>
+    <row r="156" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B156" s="3"/>
+    </row>
+    <row r="157" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B157" s="3"/>
+    </row>
+    <row r="158" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B158" s="3"/>
+    </row>
+    <row r="159" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B159" s="3"/>
+    </row>
+    <row r="160" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B160" s="3"/>
+    </row>
+    <row r="161" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B161" s="3"/>
+    </row>
+    <row r="162" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B162" s="3"/>
+    </row>
+    <row r="163" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B163" s="3"/>
+    </row>
+    <row r="164" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B164" s="3"/>
+    </row>
+    <row r="165" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B165" s="3"/>
+    </row>
+    <row r="166" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B166" s="3"/>
+    </row>
+    <row r="167" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B167" s="3"/>
+    </row>
+    <row r="168" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B168" s="3"/>
+    </row>
+    <row r="169" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B169" s="3"/>
+    </row>
+    <row r="170" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B170" s="3"/>
+    </row>
+    <row r="171" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B171" s="3"/>
+    </row>
+    <row r="172" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B172" s="3"/>
+    </row>
+    <row r="173" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B173" s="3"/>
+    </row>
+    <row r="174" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B174" s="3"/>
+    </row>
+    <row r="175" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B175" s="3"/>
+    </row>
+    <row r="176" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B176" s="3"/>
+    </row>
+    <row r="177" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B177" s="3"/>
+    </row>
+    <row r="178" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B178" s="3"/>
+    </row>
+    <row r="179" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B179" s="3"/>
+    </row>
+    <row r="180" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B180" s="3"/>
+    </row>
+    <row r="181" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B181" s="3"/>
+    </row>
+    <row r="182" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B182" s="3"/>
+    </row>
+    <row r="183" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B183" s="3"/>
+    </row>
+    <row r="184" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B184" s="3"/>
+    </row>
+    <row r="185" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B185" s="3"/>
+    </row>
+    <row r="186" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B186" s="3"/>
+    </row>
+    <row r="187" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B187" s="3"/>
+    </row>
+    <row r="188" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B188" s="3"/>
+    </row>
+    <row r="189" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B189" s="3"/>
+    </row>
+    <row r="190" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B190" s="3"/>
+    </row>
+    <row r="191" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B191" s="3"/>
+    </row>
+    <row r="192" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B192" s="3"/>
+    </row>
+    <row r="193" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B193" s="3"/>
+    </row>
+    <row r="194" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B194" s="3"/>
+    </row>
+    <row r="195" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B195" s="3"/>
+    </row>
+    <row r="196" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B196" s="3"/>
+    </row>
+    <row r="197" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B197" s="3"/>
+    </row>
+    <row r="198" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B198" s="3"/>
+    </row>
+    <row r="199" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B199" s="3"/>
+    </row>
+    <row r="200" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B200" s="3"/>
+    </row>
+    <row r="201" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B201" s="3"/>
+    </row>
+    <row r="202" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B202" s="3"/>
+    </row>
+    <row r="203" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B203" s="3"/>
+    </row>
+    <row r="204" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B204" s="3"/>
+    </row>
+    <row r="205" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B205" s="3"/>
+    </row>
+    <row r="206" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B206" s="3"/>
+    </row>
+    <row r="207" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B207" s="3"/>
+    </row>
+    <row r="208" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B208" s="3"/>
+    </row>
+    <row r="209" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B209" s="3"/>
+    </row>
+    <row r="210" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B210" s="3"/>
+    </row>
+    <row r="211" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B211" s="3"/>
+    </row>
+    <row r="212" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B212" s="3"/>
+    </row>
+    <row r="213" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B213" s="3"/>
+    </row>
+    <row r="214" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B214" s="3"/>
+    </row>
+    <row r="215" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B215" s="3"/>
+    </row>
+    <row r="216" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B216" s="3"/>
+    </row>
+    <row r="217" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B217" s="3"/>
+    </row>
+    <row r="218" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B218" s="3"/>
+    </row>
+    <row r="219" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B219" s="3"/>
+    </row>
+    <row r="220" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B220" s="3"/>
+    </row>
+    <row r="221" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B221" s="3"/>
+    </row>
+    <row r="222" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B222" s="3"/>
+    </row>
+    <row r="223" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B223" s="3"/>
+    </row>
+    <row r="224" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B224" s="3"/>
+    </row>
+    <row r="225" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B225" s="3"/>
+    </row>
+    <row r="226" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B226" s="3"/>
+    </row>
+    <row r="227" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B227" s="3"/>
+    </row>
+    <row r="228" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B228" s="3"/>
+    </row>
+    <row r="229" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B229" s="3"/>
+    </row>
+    <row r="230" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B230" s="3"/>
+    </row>
+    <row r="231" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B231" s="3"/>
+    </row>
+    <row r="232" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B232" s="3"/>
+    </row>
+    <row r="233" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B233" s="3"/>
+    </row>
+    <row r="234" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B234" s="3"/>
+    </row>
+    <row r="235" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B235" s="3"/>
+    </row>
+    <row r="236" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B236" s="3"/>
+    </row>
+    <row r="237" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B237" s="3"/>
+    </row>
+    <row r="238" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B238" s="3"/>
+    </row>
+    <row r="239" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B239" s="3"/>
+    </row>
+    <row r="240" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B240" s="3"/>
+    </row>
+    <row r="241" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B241" s="3"/>
+    </row>
+    <row r="242" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B242" s="3"/>
+    </row>
+    <row r="243" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B243" s="3"/>
+    </row>
+    <row r="244" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B244" s="3"/>
+    </row>
+    <row r="245" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B245" s="3"/>
+    </row>
+    <row r="246" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B246" s="3"/>
+    </row>
+    <row r="247" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B247" s="3"/>
+    </row>
+    <row r="248" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B248" s="3"/>
+    </row>
+    <row r="249" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B249" s="3"/>
+    </row>
+    <row r="250" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B250" s="3"/>
+    </row>
+    <row r="251" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B251" s="3"/>
+    </row>
+    <row r="252" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B252" s="3"/>
+    </row>
+    <row r="253" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B253" s="3"/>
+    </row>
+    <row r="254" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B254" s="3"/>
+    </row>
+    <row r="255" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B255" s="3"/>
+    </row>
+    <row r="256" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B256" s="3"/>
+    </row>
+    <row r="257" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B257" s="3"/>
+    </row>
+    <row r="258" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B258" s="3"/>
+    </row>
+    <row r="259" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B259" s="3"/>
+    </row>
+    <row r="260" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B260" s="3"/>
+    </row>
+    <row r="261" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B261" s="3"/>
+    </row>
+    <row r="262" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B262" s="3"/>
+    </row>
+    <row r="263" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B263" s="3"/>
+    </row>
+    <row r="264" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B264" s="3"/>
+    </row>
+    <row r="265" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B265" s="3"/>
+    </row>
+    <row r="266" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B266" s="3"/>
+    </row>
+    <row r="267" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B267" s="3"/>
+    </row>
+    <row r="268" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B268" s="3"/>
+    </row>
+    <row r="269" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B269" s="3"/>
+    </row>
+    <row r="270" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B270" s="3"/>
+    </row>
+    <row r="271" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B271" s="3"/>
+    </row>
+    <row r="272" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B272" s="3"/>
+    </row>
+    <row r="273" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B273" s="3"/>
+    </row>
+    <row r="274" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B274" s="3"/>
+    </row>
+    <row r="275" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B275" s="3"/>
+    </row>
+    <row r="276" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B276" s="3"/>
+    </row>
+    <row r="277" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B277" s="3"/>
+    </row>
+    <row r="278" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B278" s="3"/>
+    </row>
+    <row r="279" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B279" s="3"/>
+    </row>
+    <row r="280" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B280" s="3"/>
+    </row>
+    <row r="281" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B281" s="3"/>
+    </row>
+    <row r="282" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B282" s="3"/>
+    </row>
+    <row r="283" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B283" s="3"/>
+    </row>
+    <row r="284" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B284" s="3"/>
+    </row>
+    <row r="285" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B285" s="3"/>
+    </row>
+    <row r="286" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B286" s="3"/>
+    </row>
+    <row r="287" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B287" s="3"/>
+    </row>
+    <row r="288" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B288" s="3"/>
+    </row>
+    <row r="289" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B289" s="3"/>
+    </row>
+    <row r="290" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B290" s="3"/>
+    </row>
+    <row r="291" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B291" s="3"/>
+    </row>
+    <row r="292" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B292" s="3"/>
+    </row>
+    <row r="293" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B293" s="3"/>
+    </row>
+    <row r="294" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B294" s="3"/>
+    </row>
+    <row r="295" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B295" s="3"/>
+    </row>
+    <row r="296" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B296" s="3"/>
+    </row>
+    <row r="297" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B297" s="3"/>
+    </row>
+    <row r="298" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B298" s="3"/>
+    </row>
+    <row r="299" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B299" s="3"/>
+    </row>
+    <row r="300" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B300" s="3"/>
+    </row>
+    <row r="301" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B301" s="3"/>
+    </row>
+    <row r="302" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B302" s="3"/>
+    </row>
+    <row r="303" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B303" s="3"/>
+    </row>
+    <row r="304" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B304" s="3"/>
+    </row>
+    <row r="305" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B305" s="3"/>
+    </row>
+    <row r="306" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B306" s="3"/>
+    </row>
+    <row r="307" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B307" s="3"/>
+    </row>
+    <row r="308" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B308" s="3"/>
+    </row>
+    <row r="309" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B309" s="3"/>
+    </row>
+    <row r="310" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B310" s="3"/>
+    </row>
+    <row r="311" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B311" s="3"/>
+    </row>
+    <row r="312" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B312" s="3"/>
+    </row>
+    <row r="313" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B313" s="3"/>
+    </row>
+    <row r="314" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B314" s="3"/>
+    </row>
+    <row r="315" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B315" s="3"/>
+    </row>
+    <row r="316" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B316" s="3"/>
+    </row>
+    <row r="317" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B317" s="3"/>
+    </row>
+    <row r="318" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B318" s="3"/>
+    </row>
+    <row r="319" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B319" s="3"/>
+    </row>
+    <row r="320" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B320" s="3"/>
+    </row>
+    <row r="321" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B321" s="3"/>
+    </row>
+    <row r="322" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B322" s="3"/>
+    </row>
+    <row r="323" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B323" s="3"/>
+    </row>
+    <row r="324" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B324" s="3"/>
+    </row>
+    <row r="325" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B325" s="3"/>
+    </row>
+    <row r="326" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B326" s="3"/>
+    </row>
+    <row r="327" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B327" s="3"/>
+    </row>
+    <row r="328" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B328" s="3"/>
+    </row>
+    <row r="329" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B329" s="3"/>
+    </row>
+    <row r="330" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B330" s="3"/>
+    </row>
+    <row r="331" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B331" s="3"/>
+    </row>
+    <row r="332" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B332" s="3"/>
+    </row>
+    <row r="333" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B333" s="3"/>
+    </row>
+    <row r="334" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B334" s="3"/>
+    </row>
+    <row r="335" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B335" s="3"/>
+    </row>
+    <row r="336" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B336" s="3"/>
+    </row>
+    <row r="337" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B337" s="3"/>
+    </row>
+    <row r="338" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B338" s="3"/>
+    </row>
+    <row r="339" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B339" s="3"/>
+    </row>
+    <row r="340" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B340" s="3"/>
+    </row>
+    <row r="341" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B341" s="3"/>
+    </row>
+    <row r="342" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B342" s="3"/>
+    </row>
+    <row r="343" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B343" s="3"/>
+    </row>
+    <row r="344" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B344" s="3"/>
+    </row>
+    <row r="345" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B345" s="3"/>
+    </row>
+    <row r="346" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B346" s="3"/>
+    </row>
+    <row r="347" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B347" s="3"/>
+    </row>
+    <row r="348" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B348" s="3"/>
+    </row>
+    <row r="349" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B349" s="3"/>
+    </row>
+    <row r="350" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B350" s="3"/>
+    </row>
+    <row r="351" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B351" s="3"/>
+    </row>
+    <row r="352" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B352" s="3"/>
+    </row>
+    <row r="353" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B353" s="3"/>
+    </row>
+    <row r="354" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B354" s="3"/>
+    </row>
+    <row r="355" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B355" s="3"/>
+    </row>
+    <row r="356" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B356" s="3"/>
+    </row>
+    <row r="357" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B357" s="3"/>
+    </row>
+    <row r="358" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B358" s="3"/>
+    </row>
+    <row r="359" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B359" s="3"/>
+    </row>
+    <row r="360" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B360" s="3"/>
+    </row>
+    <row r="361" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B361" s="3"/>
+    </row>
+    <row r="362" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B362" s="3"/>
+    </row>
+    <row r="363" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B363" s="3"/>
+    </row>
+    <row r="364" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B364" s="3"/>
+    </row>
+    <row r="365" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B365" s="3"/>
+    </row>
+    <row r="366" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B366" s="3"/>
+    </row>
+    <row r="367" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B367" s="3"/>
+    </row>
+    <row r="368" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B368" s="3"/>
+    </row>
+    <row r="369" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B369" s="3"/>
+    </row>
+    <row r="370" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B370" s="3"/>
+    </row>
+    <row r="371" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B371" s="3"/>
+    </row>
+    <row r="372" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B372" s="3"/>
+    </row>
+    <row r="373" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B373" s="3"/>
+    </row>
+    <row r="374" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B374" s="3"/>
+    </row>
+    <row r="375" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B375" s="3"/>
+    </row>
+    <row r="376" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B376" s="3"/>
+    </row>
+    <row r="377" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B377" s="3"/>
+    </row>
+    <row r="378" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B378" s="3"/>
+    </row>
+    <row r="379" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B379" s="3"/>
+    </row>
+    <row r="380" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B380" s="3"/>
+    </row>
+    <row r="381" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B381" s="3"/>
+    </row>
+    <row r="382" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B382" s="3"/>
+    </row>
+    <row r="383" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B383" s="3"/>
+    </row>
+    <row r="384" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B384" s="3"/>
+    </row>
+    <row r="385" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B385" s="3"/>
+    </row>
+    <row r="386" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B386" s="3"/>
+    </row>
+    <row r="387" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B387" s="3"/>
+    </row>
+    <row r="388" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B388" s="3"/>
+    </row>
+    <row r="389" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B389" s="3"/>
+    </row>
+    <row r="390" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B390" s="3"/>
+    </row>
+    <row r="391" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B391" s="3"/>
+    </row>
+    <row r="392" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B392" s="3"/>
+    </row>
+    <row r="393" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B393" s="3"/>
+    </row>
+    <row r="394" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B394" s="3"/>
+    </row>
+    <row r="395" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B395" s="3"/>
+    </row>
+    <row r="396" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B396" s="3"/>
+    </row>
+    <row r="397" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B397" s="3"/>
+    </row>
+    <row r="398" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B398" s="3"/>
+    </row>
+    <row r="399" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B399" s="3"/>
+    </row>
+    <row r="400" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B400" s="3"/>
+    </row>
+    <row r="401" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B401" s="3"/>
+    </row>
+    <row r="402" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B402" s="3"/>
+    </row>
+    <row r="403" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B403" s="3"/>
+    </row>
+    <row r="404" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B404" s="3"/>
+    </row>
+    <row r="405" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B405" s="3"/>
+    </row>
+    <row r="406" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B406" s="3"/>
+    </row>
+    <row r="407" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B407" s="3"/>
+    </row>
+    <row r="408" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B408" s="3"/>
+    </row>
+    <row r="409" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B409" s="3"/>
+    </row>
+    <row r="410" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B410" s="3"/>
+    </row>
+    <row r="411" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B411" s="3"/>
+    </row>
+    <row r="412" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B412" s="3"/>
+    </row>
+    <row r="413" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B413" s="3"/>
+    </row>
+    <row r="414" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B414" s="3"/>
+    </row>
+    <row r="415" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B415" s="3"/>
+    </row>
+    <row r="416" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B416" s="3"/>
+    </row>
+    <row r="417" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B417" s="3"/>
+    </row>
+    <row r="418" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B418" s="3"/>
+    </row>
+    <row r="419" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B419" s="3"/>
+    </row>
+    <row r="420" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B420" s="3"/>
+    </row>
+    <row r="421" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B421" s="3"/>
+    </row>
+    <row r="422" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B422" s="3"/>
+    </row>
+    <row r="423" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B423" s="3"/>
+    </row>
+    <row r="424" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B424" s="3"/>
+    </row>
+    <row r="425" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B425" s="3"/>
+    </row>
+    <row r="426" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B426" s="3"/>
+    </row>
+    <row r="427" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B427" s="3"/>
+    </row>
+    <row r="428" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B428" s="3"/>
+    </row>
+    <row r="429" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B429" s="3"/>
+    </row>
+    <row r="430" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B430" s="3"/>
+    </row>
+    <row r="431" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B431" s="3"/>
+    </row>
+    <row r="432" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B432" s="3"/>
+    </row>
+    <row r="433" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B433" s="3"/>
+    </row>
+    <row r="434" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B434" s="3"/>
+    </row>
+    <row r="435" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B435" s="3"/>
+    </row>
+    <row r="436" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B436" s="3"/>
+    </row>
+    <row r="437" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B437" s="3"/>
+    </row>
+    <row r="438" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B438" s="3"/>
+    </row>
+    <row r="439" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B439" s="3"/>
+    </row>
+    <row r="440" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B440" s="3"/>
+    </row>
+    <row r="441" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B441" s="3"/>
+    </row>
+    <row r="442" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B442" s="3"/>
+    </row>
+    <row r="443" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B443" s="3"/>
+    </row>
+    <row r="444" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B444" s="3"/>
+    </row>
+    <row r="445" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B445" s="3"/>
+    </row>
+    <row r="446" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B446" s="3"/>
+    </row>
+    <row r="447" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B447" s="3"/>
+    </row>
+    <row r="448" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B448" s="3"/>
+    </row>
+    <row r="449" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B449" s="3"/>
+    </row>
+    <row r="450" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B450" s="3"/>
+    </row>
+    <row r="451" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B451" s="3"/>
+    </row>
+    <row r="452" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B452" s="3"/>
+    </row>
+    <row r="453" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B453" s="3"/>
+    </row>
+    <row r="454" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B454" s="3"/>
+    </row>
+    <row r="455" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B455" s="3"/>
+    </row>
+    <row r="456" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B456" s="3"/>
+    </row>
+    <row r="457" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B457" s="3"/>
+    </row>
+    <row r="458" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B458" s="3"/>
+    </row>
+    <row r="459" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B459" s="3"/>
+    </row>
+    <row r="460" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B460" s="3"/>
+    </row>
+    <row r="461" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B461" s="3"/>
+    </row>
+    <row r="462" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B462" s="3"/>
+    </row>
+    <row r="463" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B463" s="3"/>
+    </row>
+    <row r="464" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B464" s="3"/>
+    </row>
+    <row r="465" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B465" s="3"/>
+    </row>
+    <row r="466" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B466" s="3"/>
+    </row>
+    <row r="467" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B467" s="3"/>
+    </row>
+    <row r="468" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B468" s="3"/>
+    </row>
+    <row r="469" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B469" s="3"/>
+    </row>
+    <row r="470" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B470" s="3"/>
+    </row>
+    <row r="471" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B471" s="3"/>
+    </row>
+    <row r="472" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B472" s="3"/>
+    </row>
+    <row r="473" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B473" s="3"/>
+    </row>
+    <row r="474" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B474" s="3"/>
+    </row>
+    <row r="475" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B475" s="3"/>
+    </row>
+    <row r="476" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B476" s="3"/>
+    </row>
+    <row r="477" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B477" s="3"/>
+    </row>
+    <row r="478" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B478" s="3"/>
+    </row>
+    <row r="479" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B479" s="3"/>
+    </row>
+    <row r="480" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B480" s="3"/>
+    </row>
+    <row r="481" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B481" s="3"/>
+    </row>
+    <row r="482" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B482" s="3"/>
+    </row>
+    <row r="483" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B483" s="3"/>
+    </row>
+    <row r="484" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B484" s="3"/>
+    </row>
+    <row r="485" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B485" s="3"/>
+    </row>
+    <row r="486" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B486" s="3"/>
+    </row>
+    <row r="487" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B487" s="3"/>
+    </row>
+    <row r="488" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B488" s="3"/>
+    </row>
+    <row r="489" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B489" s="3"/>
+    </row>
+    <row r="490" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B490" s="3"/>
+    </row>
+    <row r="491" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B491" s="3"/>
+    </row>
+    <row r="492" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B492" s="3"/>
+    </row>
+    <row r="493" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B493" s="3"/>
+    </row>
+    <row r="494" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B494" s="3"/>
+    </row>
+    <row r="495" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B495" s="3"/>
+    </row>
+    <row r="496" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B496" s="3"/>
+    </row>
+    <row r="497" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B497" s="3"/>
+    </row>
+    <row r="498" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B498" s="3"/>
+    </row>
+    <row r="499" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B499" s="3"/>
+    </row>
+    <row r="500" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B500" s="3"/>
+    </row>
+    <row r="501" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B501" s="3"/>
+    </row>
+    <row r="502" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B502" s="3"/>
+    </row>
+    <row r="503" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B503" s="3"/>
+    </row>
+    <row r="504" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B504" s="3"/>
+    </row>
+    <row r="505" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B505" s="3"/>
+    </row>
+    <row r="506" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B506" s="3"/>
+    </row>
+    <row r="507" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B507" s="3"/>
+    </row>
+    <row r="508" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B508" s="3"/>
+    </row>
+    <row r="509" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B509" s="3"/>
+    </row>
+    <row r="510" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B510" s="3"/>
+    </row>
+    <row r="511" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B511" s="3"/>
+    </row>
+    <row r="512" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B512" s="3"/>
+    </row>
+    <row r="513" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B513" s="3"/>
+    </row>
+    <row r="514" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B514" s="3"/>
+    </row>
+    <row r="515" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B515" s="3"/>
+    </row>
+    <row r="516" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B516" s="3"/>
+    </row>
+    <row r="517" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B517" s="3"/>
+    </row>
+    <row r="518" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B518" s="3"/>
+    </row>
+    <row r="519" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B519" s="3"/>
+    </row>
+    <row r="520" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B520" s="3"/>
+    </row>
+    <row r="521" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B521" s="3"/>
+    </row>
+    <row r="522" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B522" s="3"/>
+    </row>
+    <row r="523" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B523" s="3"/>
+    </row>
+    <row r="524" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B524" s="3"/>
+    </row>
+    <row r="525" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B525" s="3"/>
+    </row>
+    <row r="526" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B526" s="3"/>
+    </row>
+    <row r="527" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B527" s="3"/>
+    </row>
+    <row r="528" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B528" s="3"/>
+    </row>
+    <row r="529" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B529" s="3"/>
+    </row>
+    <row r="530" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B530" s="3"/>
+    </row>
+    <row r="531" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B531" s="3"/>
+    </row>
+    <row r="532" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B532" s="3"/>
+    </row>
+    <row r="533" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B533" s="3"/>
+    </row>
+    <row r="534" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B534" s="3"/>
+    </row>
+    <row r="535" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B535" s="3"/>
+    </row>
+    <row r="536" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B536" s="3"/>
+    </row>
+    <row r="537" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B537" s="3"/>
+    </row>
+    <row r="538" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B538" s="3"/>
+    </row>
+    <row r="539" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B539" s="3"/>
+    </row>
+    <row r="540" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B540" s="3"/>
+    </row>
+    <row r="541" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B541" s="3"/>
+    </row>
+    <row r="542" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B542" s="3"/>
+    </row>
+    <row r="543" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B543" s="3"/>
+    </row>
+    <row r="544" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B544" s="3"/>
+    </row>
+    <row r="545" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B545" s="3"/>
+    </row>
+    <row r="546" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B546" s="3"/>
+    </row>
+    <row r="547" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B547" s="3"/>
+    </row>
+    <row r="548" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B548" s="3"/>
+    </row>
+    <row r="549" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B549" s="3"/>
+    </row>
+    <row r="550" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B550" s="3"/>
+    </row>
+    <row r="551" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B551" s="3"/>
+    </row>
+    <row r="552" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B552" s="3"/>
+    </row>
+    <row r="553" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B553" s="3"/>
+    </row>
+    <row r="554" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B554" s="3"/>
+    </row>
+    <row r="555" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B555" s="3"/>
+    </row>
+    <row r="556" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B556" s="3"/>
+    </row>
+    <row r="557" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B557" s="3"/>
+    </row>
+    <row r="558" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B558" s="3"/>
+    </row>
+    <row r="559" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B559" s="3"/>
+    </row>
+    <row r="560" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B560" s="3"/>
+    </row>
+    <row r="561" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B561" s="3"/>
+    </row>
+    <row r="562" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B562" s="3"/>
+    </row>
+    <row r="563" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B563" s="3"/>
+    </row>
+    <row r="564" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B564" s="3"/>
+    </row>
+    <row r="565" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B565" s="3"/>
+    </row>
+    <row r="566" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B566" s="3"/>
+    </row>
+    <row r="567" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B567" s="3"/>
+    </row>
+    <row r="568" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B568" s="3"/>
+    </row>
+    <row r="569" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B569" s="3"/>
+    </row>
+    <row r="570" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B570" s="3"/>
+    </row>
+    <row r="571" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B571" s="3"/>
+    </row>
+    <row r="572" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B572" s="3"/>
+    </row>
+    <row r="573" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B573" s="3"/>
+    </row>
+    <row r="574" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B574" s="3"/>
+    </row>
+    <row r="575" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B575" s="3"/>
+    </row>
+    <row r="576" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B576" s="3"/>
+    </row>
+    <row r="577" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B577" s="3"/>
+    </row>
+    <row r="578" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B578" s="3"/>
+    </row>
+    <row r="579" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B579" s="3"/>
+    </row>
+    <row r="580" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B580" s="3"/>
+    </row>
+    <row r="581" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B581" s="3"/>
+    </row>
+    <row r="582" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B582" s="3"/>
+    </row>
+    <row r="583" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B583" s="3"/>
+    </row>
+    <row r="584" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B584" s="3"/>
+    </row>
+    <row r="585" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B585" s="3"/>
+    </row>
+    <row r="586" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B586" s="3"/>
+    </row>
+    <row r="587" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B587" s="3"/>
+    </row>
+    <row r="588" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B588" s="3"/>
+    </row>
+    <row r="589" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B589" s="3"/>
+    </row>
+    <row r="590" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B590" s="3"/>
+    </row>
+    <row r="591" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B591" s="3"/>
+    </row>
+    <row r="592" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B592" s="3"/>
+    </row>
+    <row r="593" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B593" s="3"/>
+    </row>
+    <row r="594" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B594" s="3"/>
+    </row>
+    <row r="595" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B595" s="3"/>
+    </row>
+    <row r="596" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B596" s="3"/>
+    </row>
+    <row r="597" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B597" s="3"/>
+    </row>
+    <row r="598" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B598" s="3"/>
+    </row>
+    <row r="599" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B599" s="3"/>
+    </row>
+    <row r="600" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B600" s="3"/>
+    </row>
+    <row r="601" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B601" s="3"/>
+    </row>
+    <row r="602" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B602" s="3"/>
+    </row>
+    <row r="603" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B603" s="3"/>
+    </row>
+    <row r="604" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B604" s="3"/>
+    </row>
+    <row r="605" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B605" s="3"/>
+    </row>
+    <row r="606" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B606" s="3"/>
+    </row>
+    <row r="607" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B607" s="3"/>
+    </row>
+    <row r="608" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B608" s="3"/>
+    </row>
+    <row r="609" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B609" s="3"/>
+    </row>
+    <row r="610" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B610" s="3"/>
+    </row>
+    <row r="611" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B611" s="3"/>
+    </row>
+    <row r="612" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B612" s="3"/>
+    </row>
+    <row r="613" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B613" s="3"/>
+    </row>
+    <row r="614" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B614" s="3"/>
+    </row>
+    <row r="615" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B615" s="3"/>
+    </row>
+    <row r="616" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B616" s="3"/>
+    </row>
+    <row r="617" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B617" s="3"/>
+    </row>
+    <row r="618" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B618" s="3"/>
+    </row>
+    <row r="619" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B619" s="3"/>
+    </row>
+    <row r="620" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B620" s="3"/>
+    </row>
+    <row r="621" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B621" s="3"/>
+    </row>
+    <row r="622" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B622" s="3"/>
+    </row>
+    <row r="623" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B623" s="3"/>
+    </row>
+    <row r="624" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B624" s="3"/>
+    </row>
+    <row r="625" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B625" s="3"/>
+    </row>
+    <row r="626" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B626" s="3"/>
+    </row>
+    <row r="627" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B627" s="3"/>
+    </row>
+    <row r="628" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B628" s="3"/>
+    </row>
+    <row r="629" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B629" s="3"/>
+    </row>
+    <row r="630" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B630" s="3"/>
+    </row>
+    <row r="631" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B631" s="3"/>
+    </row>
+    <row r="632" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B632" s="3"/>
+    </row>
+    <row r="633" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B633" s="3"/>
+    </row>
+    <row r="634" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B634" s="3"/>
+    </row>
+    <row r="635" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B635" s="3"/>
+    </row>
+    <row r="636" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B636" s="3"/>
+    </row>
+    <row r="637" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B637" s="3"/>
+    </row>
+    <row r="638" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B638" s="3"/>
+    </row>
+    <row r="639" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B639" s="3"/>
+    </row>
+    <row r="640" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B640" s="3"/>
+    </row>
+    <row r="641" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B641" s="3"/>
+    </row>
+    <row r="642" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B642" s="3"/>
+    </row>
+    <row r="643" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B643" s="3"/>
+    </row>
+    <row r="644" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B644" s="3"/>
+    </row>
+    <row r="645" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B645" s="3"/>
+    </row>
+    <row r="646" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B646" s="3"/>
+    </row>
+    <row r="647" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B647" s="3"/>
+    </row>
+    <row r="648" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B648" s="3"/>
+    </row>
+    <row r="649" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B649" s="3"/>
+    </row>
+    <row r="650" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B650" s="3"/>
+    </row>
+    <row r="651" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B651" s="3"/>
+    </row>
+    <row r="652" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B652" s="3"/>
+    </row>
+    <row r="653" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B653" s="3"/>
+    </row>
+    <row r="654" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B654" s="3"/>
+    </row>
+    <row r="655" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B655" s="3"/>
+    </row>
+    <row r="656" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B656" s="3"/>
+    </row>
+    <row r="657" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B657" s="3"/>
+    </row>
+    <row r="658" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B658" s="3"/>
+    </row>
+    <row r="659" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B659" s="3"/>
+    </row>
+    <row r="660" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B660" s="3"/>
+    </row>
+    <row r="661" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B661" s="3"/>
+    </row>
+    <row r="662" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B662" s="3"/>
+    </row>
+    <row r="663" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B663" s="3"/>
+    </row>
+    <row r="664" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B664" s="3"/>
+    </row>
+    <row r="665" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B665" s="3"/>
+    </row>
+    <row r="666" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B666" s="3"/>
+    </row>
+    <row r="667" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B667" s="3"/>
+    </row>
+    <row r="668" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B668" s="3"/>
+    </row>
+    <row r="669" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B669" s="3"/>
+    </row>
+    <row r="670" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B670" s="3"/>
+    </row>
+    <row r="671" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B671" s="3"/>
+    </row>
+    <row r="672" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B672" s="3"/>
+    </row>
+    <row r="673" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B673" s="3"/>
+    </row>
+    <row r="674" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B674" s="3"/>
+    </row>
+    <row r="675" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B675" s="3"/>
+    </row>
+    <row r="676" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B676" s="3"/>
+    </row>
+    <row r="677" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B677" s="3"/>
+    </row>
+    <row r="678" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B678" s="3"/>
+    </row>
+    <row r="679" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B679" s="3"/>
+    </row>
+    <row r="680" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B680" s="3"/>
+    </row>
+    <row r="681" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B681" s="3"/>
+    </row>
+    <row r="682" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B682" s="3"/>
+    </row>
+    <row r="683" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B683" s="3"/>
+    </row>
+    <row r="684" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B684" s="3"/>
+    </row>
+    <row r="685" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B685" s="3"/>
+    </row>
+    <row r="686" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B686" s="3"/>
+    </row>
+    <row r="687" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B687" s="3"/>
+    </row>
+    <row r="688" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B688" s="3"/>
+    </row>
+    <row r="689" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B689" s="3"/>
+    </row>
+    <row r="690" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B690" s="3"/>
+    </row>
+    <row r="691" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B691" s="3"/>
+    </row>
+    <row r="692" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B692" s="3"/>
+    </row>
+    <row r="693" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B693" s="3"/>
+    </row>
+    <row r="694" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B694" s="3"/>
+    </row>
+    <row r="695" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B695" s="3"/>
+    </row>
+    <row r="696" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B696" s="3"/>
+    </row>
+    <row r="697" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B697" s="3"/>
+    </row>
+    <row r="698" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B698" s="3"/>
+    </row>
+    <row r="699" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B699" s="3"/>
+    </row>
+    <row r="700" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B700" s="3"/>
+    </row>
+    <row r="701" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B701" s="3"/>
+    </row>
+    <row r="702" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B702" s="3"/>
+    </row>
+    <row r="703" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B703" s="3"/>
+    </row>
+    <row r="704" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B704" s="3"/>
+    </row>
+    <row r="705" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B705" s="3"/>
+    </row>
+    <row r="706" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B706" s="3"/>
+    </row>
+    <row r="707" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B707" s="3"/>
+    </row>
+    <row r="708" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B708" s="3"/>
+    </row>
+    <row r="709" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B709" s="3"/>
+    </row>
+    <row r="710" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B710" s="3"/>
+    </row>
+    <row r="711" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B711" s="3"/>
+    </row>
+    <row r="712" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B712" s="3"/>
+    </row>
+    <row r="713" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B713" s="3"/>
+    </row>
+    <row r="714" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B714" s="3"/>
+    </row>
+    <row r="715" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B715" s="3"/>
+    </row>
+    <row r="716" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B716" s="3"/>
+    </row>
+    <row r="717" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B717" s="3"/>
+    </row>
+    <row r="718" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B718" s="3"/>
+    </row>
+    <row r="719" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B719" s="3"/>
+    </row>
+    <row r="720" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B720" s="3"/>
+    </row>
+    <row r="721" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B721" s="3"/>
+    </row>
+    <row r="722" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B722" s="3"/>
+    </row>
+    <row r="723" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B723" s="3"/>
+    </row>
+    <row r="724" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B724" s="3"/>
+    </row>
+    <row r="725" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B725" s="3"/>
+    </row>
+    <row r="726" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B726" s="3"/>
+    </row>
+    <row r="727" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B727" s="3"/>
+    </row>
+    <row r="728" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B728" s="3"/>
+    </row>
+    <row r="729" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B729" s="3"/>
+    </row>
+    <row r="730" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B730" s="3"/>
+    </row>
+    <row r="731" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B731" s="3"/>
+    </row>
+    <row r="732" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B732" s="3"/>
+    </row>
+    <row r="733" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B733" s="3"/>
+    </row>
+    <row r="734" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B734" s="3"/>
+    </row>
+    <row r="735" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B735" s="3"/>
+    </row>
+    <row r="736" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B736" s="3"/>
+    </row>
+    <row r="737" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B737" s="3"/>
+    </row>
+    <row r="738" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B738" s="3"/>
+    </row>
+    <row r="739" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B739" s="3"/>
+    </row>
+    <row r="740" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B740" s="3"/>
+    </row>
+    <row r="741" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B741" s="3"/>
+    </row>
+    <row r="742" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B742" s="3"/>
+    </row>
+    <row r="743" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B743" s="3"/>
+    </row>
+    <row r="744" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B744" s="3"/>
+    </row>
+    <row r="745" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B745" s="3"/>
+    </row>
+    <row r="746" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B746" s="3"/>
+    </row>
+    <row r="747" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B747" s="3"/>
+    </row>
+    <row r="748" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B748" s="3"/>
+    </row>
+    <row r="749" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B749" s="3"/>
+    </row>
+    <row r="750" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B750" s="3"/>
+    </row>
+    <row r="751" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B751" s="3"/>
+    </row>
+    <row r="752" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B752" s="3"/>
+    </row>
+    <row r="753" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B753" s="3"/>
+    </row>
+    <row r="754" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B754" s="3"/>
+    </row>
+    <row r="755" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B755" s="3"/>
+    </row>
+    <row r="756" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B756" s="3"/>
+    </row>
+    <row r="757" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B757" s="3"/>
+    </row>
+    <row r="758" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B758" s="3"/>
+    </row>
+    <row r="759" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B759" s="3"/>
+    </row>
+    <row r="760" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B760" s="3"/>
+    </row>
+    <row r="761" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B761" s="3"/>
+    </row>
+    <row r="762" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B762" s="3"/>
+    </row>
+    <row r="763" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B763" s="3"/>
+    </row>
+    <row r="764" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B764" s="3"/>
+    </row>
+    <row r="765" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B765" s="3"/>
+    </row>
+    <row r="766" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B766" s="3"/>
+    </row>
+    <row r="767" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B767" s="3"/>
+    </row>
+    <row r="768" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B768" s="3"/>
+    </row>
+    <row r="769" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B769" s="3"/>
+    </row>
+    <row r="770" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B770" s="3"/>
+    </row>
+    <row r="771" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B771" s="3"/>
+    </row>
+    <row r="772" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B772" s="3"/>
+    </row>
+    <row r="773" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B773" s="3"/>
+    </row>
+    <row r="774" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B774" s="3"/>
+    </row>
+    <row r="775" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B775" s="3"/>
+    </row>
+    <row r="776" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B776" s="3"/>
+    </row>
+    <row r="777" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B777" s="3"/>
+    </row>
+    <row r="778" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B778" s="3"/>
+    </row>
+    <row r="779" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B779" s="3"/>
+    </row>
+    <row r="780" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B780" s="3"/>
+    </row>
+    <row r="781" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B781" s="3"/>
+    </row>
+    <row r="782" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B782" s="3"/>
+    </row>
+    <row r="783" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B783" s="3"/>
+    </row>
+    <row r="784" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B784" s="3"/>
+    </row>
+    <row r="785" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B785" s="3"/>
+    </row>
+    <row r="786" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B786" s="3"/>
+    </row>
+    <row r="787" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B787" s="3"/>
+    </row>
+    <row r="788" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B788" s="3"/>
+    </row>
+    <row r="789" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B789" s="3"/>
+    </row>
+    <row r="790" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B790" s="3"/>
+    </row>
+    <row r="791" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B791" s="3"/>
+    </row>
+    <row r="792" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B792" s="3"/>
+    </row>
+    <row r="793" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B793" s="3"/>
+    </row>
+    <row r="794" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B794" s="3"/>
+    </row>
+    <row r="795" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B795" s="3"/>
+    </row>
+    <row r="796" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B796" s="3"/>
+    </row>
+    <row r="797" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B797" s="3"/>
+    </row>
+    <row r="798" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B798" s="3"/>
+    </row>
+    <row r="799" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B799" s="3"/>
+    </row>
+    <row r="800" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B800" s="3"/>
+    </row>
+    <row r="801" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B801" s="3"/>
+    </row>
+    <row r="802" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B802" s="3"/>
+    </row>
+    <row r="803" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B803" s="3"/>
+    </row>
+    <row r="804" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B804" s="3"/>
+    </row>
+    <row r="805" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B805" s="3"/>
+    </row>
+    <row r="806" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B806" s="3"/>
+    </row>
+    <row r="807" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B807" s="3"/>
+    </row>
+    <row r="808" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B808" s="3"/>
+    </row>
+    <row r="809" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B809" s="3"/>
+    </row>
+    <row r="810" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B810" s="3"/>
+    </row>
+    <row r="811" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B811" s="3"/>
+    </row>
+    <row r="812" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B812" s="3"/>
+    </row>
+    <row r="813" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B813" s="3"/>
+    </row>
+    <row r="814" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B814" s="3"/>
+    </row>
+    <row r="815" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B815" s="3"/>
+    </row>
+    <row r="816" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B816" s="3"/>
+    </row>
+    <row r="817" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B817" s="3"/>
+    </row>
+    <row r="818" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B818" s="3"/>
+    </row>
+    <row r="819" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B819" s="3"/>
+    </row>
+    <row r="820" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B820" s="3"/>
+    </row>
+    <row r="821" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B821" s="3"/>
+    </row>
+    <row r="822" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B822" s="3"/>
+    </row>
+    <row r="823" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B823" s="3"/>
+    </row>
+    <row r="824" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B824" s="3"/>
+    </row>
+    <row r="825" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B825" s="3"/>
+    </row>
+    <row r="826" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B826" s="3"/>
+    </row>
+    <row r="827" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B827" s="3"/>
+    </row>
+    <row r="828" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B828" s="3"/>
+    </row>
+    <row r="829" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B829" s="3"/>
+    </row>
+    <row r="830" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B830" s="3"/>
+    </row>
+    <row r="831" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B831" s="3"/>
+    </row>
+    <row r="832" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B832" s="3"/>
+    </row>
+    <row r="833" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B833" s="3"/>
+    </row>
+    <row r="834" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B834" s="3"/>
+    </row>
+    <row r="835" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B835" s="3"/>
+    </row>
+    <row r="836" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B836" s="3"/>
+    </row>
+    <row r="837" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B837" s="3"/>
+    </row>
+    <row r="838" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B838" s="3"/>
+    </row>
+    <row r="839" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B839" s="3"/>
+    </row>
+    <row r="840" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B840" s="3"/>
+    </row>
+    <row r="841" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B841" s="3"/>
+    </row>
+    <row r="842" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B842" s="3"/>
+    </row>
+    <row r="843" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B843" s="3"/>
+    </row>
+    <row r="844" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B844" s="3"/>
+    </row>
+    <row r="845" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B845" s="3"/>
+    </row>
+    <row r="846" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B846" s="3"/>
+    </row>
+    <row r="847" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B847" s="3"/>
+    </row>
+    <row r="848" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B848" s="3"/>
+    </row>
+    <row r="849" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B849" s="3"/>
+    </row>
+    <row r="850" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B850" s="3"/>
+    </row>
+    <row r="851" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B851" s="3"/>
+    </row>
+    <row r="852" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B852" s="3"/>
+    </row>
+    <row r="853" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B853" s="3"/>
+    </row>
+    <row r="854" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B854" s="3"/>
+    </row>
+    <row r="855" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B855" s="3"/>
+    </row>
+    <row r="856" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B856" s="3"/>
+    </row>
+    <row r="857" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B857" s="3"/>
+    </row>
+    <row r="858" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B858" s="3"/>
+    </row>
+    <row r="859" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B859" s="3"/>
+    </row>
+    <row r="860" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B860" s="3"/>
+    </row>
+    <row r="861" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B861" s="3"/>
+    </row>
+    <row r="862" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B862" s="3"/>
+    </row>
+    <row r="863" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B863" s="3"/>
+    </row>
+    <row r="864" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B864" s="3"/>
+    </row>
+    <row r="865" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B865" s="3"/>
+    </row>
+    <row r="866" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B866" s="3"/>
+    </row>
+    <row r="867" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B867" s="3"/>
+    </row>
+    <row r="868" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B868" s="3"/>
+    </row>
+    <row r="869" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B869" s="3"/>
+    </row>
+    <row r="870" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B870" s="3"/>
+    </row>
+    <row r="871" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B871" s="3"/>
+    </row>
+    <row r="872" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B872" s="3"/>
+    </row>
+    <row r="873" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B873" s="3"/>
+    </row>
+    <row r="874" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B874" s="3"/>
+    </row>
+    <row r="875" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B875" s="3"/>
+    </row>
+    <row r="876" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B876" s="3"/>
+    </row>
+    <row r="877" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B877" s="3"/>
+    </row>
+    <row r="878" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B878" s="3"/>
+    </row>
+    <row r="879" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B879" s="3"/>
+    </row>
+    <row r="880" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B880" s="3"/>
+    </row>
+    <row r="881" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B881" s="3"/>
+    </row>
+    <row r="882" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B882" s="3"/>
+    </row>
+    <row r="883" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B883" s="3"/>
+    </row>
+    <row r="884" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B884" s="3"/>
+    </row>
+    <row r="885" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B885" s="3"/>
+    </row>
+    <row r="886" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B886" s="3"/>
+    </row>
+    <row r="887" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B887" s="3"/>
+    </row>
+    <row r="888" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B888" s="3"/>
+    </row>
+    <row r="889" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B889" s="3"/>
+    </row>
+    <row r="890" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B890" s="3"/>
+    </row>
+    <row r="891" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B891" s="3"/>
+    </row>
+    <row r="892" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B892" s="3"/>
+    </row>
+    <row r="893" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B893" s="3"/>
+    </row>
+    <row r="894" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B894" s="3"/>
+    </row>
+    <row r="895" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B895" s="3"/>
+    </row>
+    <row r="896" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B896" s="3"/>
+    </row>
+    <row r="897" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B897" s="3"/>
+    </row>
+    <row r="898" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B898" s="3"/>
+    </row>
+    <row r="899" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B899" s="3"/>
+    </row>
+    <row r="900" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B900" s="3"/>
+    </row>
+    <row r="901" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B901" s="3"/>
+    </row>
+    <row r="902" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B902" s="3"/>
+    </row>
+    <row r="903" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B903" s="3"/>
+    </row>
+    <row r="904" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B904" s="3"/>
+    </row>
+    <row r="905" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B905" s="3"/>
+    </row>
+    <row r="906" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B906" s="3"/>
+    </row>
+    <row r="907" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B907" s="3"/>
+    </row>
+    <row r="908" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B908" s="3"/>
+    </row>
+    <row r="909" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B909" s="3"/>
+    </row>
+    <row r="910" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B910" s="3"/>
+    </row>
+    <row r="911" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B911" s="3"/>
+    </row>
+    <row r="912" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B912" s="3"/>
+    </row>
+    <row r="913" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B913" s="3"/>
+    </row>
+    <row r="914" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B914" s="3"/>
+    </row>
+    <row r="915" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B915" s="3"/>
+    </row>
+    <row r="916" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B916" s="3"/>
+    </row>
+    <row r="917" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B917" s="3"/>
+    </row>
+    <row r="918" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B918" s="3"/>
+    </row>
+    <row r="919" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B919" s="3"/>
+    </row>
+    <row r="920" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B920" s="3"/>
+    </row>
+    <row r="921" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B921" s="3"/>
+    </row>
+    <row r="922" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B922" s="3"/>
+    </row>
+    <row r="923" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B923" s="3"/>
+    </row>
+    <row r="924" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B924" s="3"/>
+    </row>
+    <row r="925" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B925" s="3"/>
+    </row>
+    <row r="926" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B926" s="3"/>
+    </row>
+    <row r="927" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B927" s="3"/>
+    </row>
+    <row r="928" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B928" s="3"/>
+    </row>
+    <row r="929" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B929" s="3"/>
+    </row>
+    <row r="930" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B930" s="3"/>
+    </row>
+    <row r="931" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B931" s="3"/>
+    </row>
+    <row r="932" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B932" s="3"/>
+    </row>
+    <row r="933" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B933" s="3"/>
+    </row>
+    <row r="934" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B934" s="3"/>
+    </row>
+    <row r="935" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B935" s="3"/>
+    </row>
+    <row r="936" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B936" s="3"/>
+    </row>
+    <row r="937" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B937" s="3"/>
+    </row>
+    <row r="938" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B938" s="3"/>
+    </row>
+    <row r="939" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B939" s="3"/>
+    </row>
+    <row r="940" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B940" s="3"/>
+    </row>
+    <row r="941" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B941" s="3"/>
+    </row>
+    <row r="942" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B942" s="3"/>
+    </row>
+    <row r="943" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B943" s="3"/>
+    </row>
+    <row r="944" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B944" s="3"/>
+    </row>
+    <row r="945" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B945" s="3"/>
+    </row>
+    <row r="946" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B946" s="3"/>
+    </row>
+    <row r="947" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B947" s="3"/>
+    </row>
+    <row r="948" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B948" s="3"/>
+    </row>
+    <row r="949" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B949" s="3"/>
+    </row>
+    <row r="950" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B950" s="3"/>
+    </row>
+    <row r="951" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B951" s="3"/>
+    </row>
+    <row r="952" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B952" s="3"/>
+    </row>
+    <row r="953" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B953" s="3"/>
+    </row>
+    <row r="954" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B954" s="3"/>
+    </row>
+    <row r="955" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B955" s="3"/>
+    </row>
+    <row r="956" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B956" s="3"/>
+    </row>
+    <row r="957" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B957" s="3"/>
+    </row>
+    <row r="958" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B958" s="3"/>
+    </row>
+    <row r="959" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B959" s="3"/>
+    </row>
+    <row r="960" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B960" s="3"/>
+    </row>
+    <row r="961" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B961" s="3"/>
+    </row>
+    <row r="962" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B962" s="3"/>
+    </row>
+    <row r="963" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B963" s="3"/>
+    </row>
+    <row r="964" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B964" s="3"/>
+    </row>
+    <row r="965" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B965" s="3"/>
+    </row>
+    <row r="966" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B966" s="3"/>
+    </row>
+    <row r="967" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B967" s="3"/>
+    </row>
+    <row r="968" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B968" s="3"/>
+    </row>
+    <row r="969" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B969" s="3"/>
+    </row>
+    <row r="970" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B970" s="3"/>
+    </row>
+    <row r="971" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B971" s="3"/>
+    </row>
+    <row r="972" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B972" s="3"/>
+    </row>
+    <row r="973" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B973" s="3"/>
+    </row>
+    <row r="974" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B974" s="3"/>
+    </row>
+    <row r="975" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B975" s="3"/>
+    </row>
+    <row r="976" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B976" s="3"/>
+    </row>
+    <row r="977" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B977" s="3"/>
+    </row>
+    <row r="978" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B978" s="3"/>
+    </row>
+    <row r="979" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B979" s="3"/>
+    </row>
+    <row r="980" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B980" s="3"/>
+    </row>
+    <row r="981" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B981" s="3"/>
+    </row>
+    <row r="982" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B982" s="3"/>
+    </row>
+    <row r="983" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B983" s="3"/>
+    </row>
+    <row r="984" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B984" s="3"/>
+    </row>
+    <row r="985" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B985" s="3"/>
+    </row>
+    <row r="986" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B986" s="3"/>
+    </row>
+    <row r="987" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B987" s="3"/>
+    </row>
+    <row r="988" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B988" s="3"/>
+    </row>
+    <row r="989" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B989" s="3"/>
+    </row>
+    <row r="990" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B990" s="3"/>
+    </row>
+    <row r="991" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B991" s="3"/>
+    </row>
+    <row r="992" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B992" s="3"/>
+    </row>
+    <row r="993" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B993" s="3"/>
+    </row>
+    <row r="994" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B994" s="3"/>
+    </row>
+    <row r="995" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B995" s="3"/>
+    </row>
+    <row r="996" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B996" s="3"/>
+    </row>
+    <row r="997" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B997" s="3"/>
+    </row>
+    <row r="998" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B998" s="3"/>
+    </row>
+    <row r="999" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B999" s="3"/>
+    </row>
+    <row r="1000" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1000" s="3"/>
+    </row>
+    <row r="1001" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1001" s="3"/>
+    </row>
+    <row r="1002" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1002" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Meteora Ecommerce.xlsx
+++ b/Meteora Ecommerce.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gribeirodeal\cursos-alura\curso-excel-domine-editor-planilhas-alura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8277D02F-A680-49BF-B85C-CDE2617594FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8480AE6-55C1-4CA1-939E-DBEF786EA9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Produtos" sheetId="1" r:id="rId1"/>
     <sheet name="Tabela de Produtos" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -93,7 +94,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,8 +128,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -138,8 +149,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAFF01"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -147,11 +170,146 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -160,55 +318,41 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -278,8 +422,48 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFDAFF01"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -292,13 +476,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ACDD8594-C6FB-45AB-BA9E-8F1EB3E3DA5F}" name="Table3" displayName="Table3" ref="A3:D23" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ACDD8594-C6FB-45AB-BA9E-8F1EB3E3DA5F}" name="Table3" displayName="Table3" ref="A3:D23" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A3:D23" xr:uid="{ACDD8594-C6FB-45AB-BA9E-8F1EB3E3DA5F}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D28492A9-579C-4F05-A742-7ACB40A3E915}" name="Produtos" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{1E4438B0-5873-45D7-94C1-2DE7F3D6B1D9}" name="Tamanho" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{10732D68-E106-4E50-A393-271DBF29B5C3}" name="Categoria" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{91F7D37B-465A-4B08-8894-63AF3264D30E}" name="Preço Unitário" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{D28492A9-579C-4F05-A742-7ACB40A3E915}" name="Produtos" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{1E4438B0-5873-45D7-94C1-2DE7F3D6B1D9}" name="Tamanho" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{10732D68-E106-4E50-A393-271DBF29B5C3}" name="Categoria" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{91F7D37B-465A-4B08-8894-63AF3264D30E}" name="Preço Unitário" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -504,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -517,31 +701,31 @@
     <col min="5" max="26" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:26" ht="5.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:26" ht="5.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="1"/>
@@ -568,282 +752,282 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="16">
         <v>25.9</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="16">
         <v>29.9</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="16">
         <v>32.9</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="16">
         <v>399.9</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="16">
         <v>249.9</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="16">
         <v>259.89999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="16">
         <v>299.89999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="16">
         <v>85.9</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="16">
         <v>89.9</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="16">
         <v>92.9</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="16">
         <v>149.9</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="16">
         <v>65.900000000000006</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="16">
         <v>69.900000000000006</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="16">
         <v>70.900000000000006</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="6">
         <v>36</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="16">
         <v>199.9</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="6">
         <v>37</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="16">
         <v>249.9</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="6">
         <v>38</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="16">
         <v>259.89999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="16">
         <v>259.89999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="16">
         <v>39.9</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="17">
         <v>49.9</v>
       </c>
     </row>
@@ -3797,7 +3981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CEFE34F-2070-49CD-8F06-CB4BE1EB1541}">
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:D23"/>
     </sheetView>
   </sheetViews>
@@ -3811,18 +3995,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:26" ht="5.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">

--- a/Meteora Ecommerce.xlsx
+++ b/Meteora Ecommerce.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gribeirodeal\cursos-alura\curso-excel-domine-editor-planilhas-alura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8480AE6-55C1-4CA1-939E-DBEF786EA9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6040D725-5895-4171-93A9-F6F58533A1B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,11 @@
     <sheet name="Tabela de Produtos" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="23">
   <si>
     <t>Produtos</t>
   </si>
@@ -89,19 +88,30 @@
   <si>
     <t>Meteora</t>
   </si>
+  <si>
+    <t>Qtd</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -132,6 +142,13 @@
       <b/>
       <sz val="14"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -306,53 +323,74 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
     <dxf>
       <font>
         <b val="0"/>
@@ -369,6 +407,25 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -476,13 +533,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ACDD8594-C6FB-45AB-BA9E-8F1EB3E3DA5F}" name="Table3" displayName="Table3" ref="A3:D23" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A3:D23" xr:uid="{ACDD8594-C6FB-45AB-BA9E-8F1EB3E3DA5F}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D28492A9-579C-4F05-A742-7ACB40A3E915}" name="Produtos" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{1E4438B0-5873-45D7-94C1-2DE7F3D6B1D9}" name="Tamanho" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{10732D68-E106-4E50-A393-271DBF29B5C3}" name="Categoria" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ACDD8594-C6FB-45AB-BA9E-8F1EB3E3DA5F}" name="Table3" displayName="Table3" ref="A3:E23" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A3:E23" xr:uid="{ACDD8594-C6FB-45AB-BA9E-8F1EB3E3DA5F}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{D28492A9-579C-4F05-A742-7ACB40A3E915}" name="Produtos" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{1E4438B0-5873-45D7-94C1-2DE7F3D6B1D9}" name="Tamanho" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{10732D68-E106-4E50-A393-271DBF29B5C3}" name="Categoria" dataDxfId="2"/>
     <tableColumn id="4" xr3:uid="{91F7D37B-465A-4B08-8894-63AF3264D30E}" name="Preço Unitário" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{28FE975C-DEE9-44F0-A8FD-097CAC5CC889}" name="Qtd" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -688,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D23"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -698,7 +756,8 @@
     <col min="2" max="2" width="11.54296875" customWidth="1"/>
     <col min="3" max="3" width="12.08984375" customWidth="1"/>
     <col min="4" max="4" width="17.81640625" customWidth="1"/>
-    <col min="5" max="26" width="8" customWidth="1"/>
+    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="26" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -708,12 +767,14 @@
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:26" ht="5.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
@@ -725,10 +786,12 @@
       <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -764,6 +827,9 @@
       <c r="D4" s="16">
         <v>25.9</v>
       </c>
+      <c r="E4" s="18">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
@@ -778,6 +844,9 @@
       <c r="D5" s="16">
         <v>29.9</v>
       </c>
+      <c r="E5" s="18">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
@@ -792,6 +861,9 @@
       <c r="D6" s="16">
         <v>32.9</v>
       </c>
+      <c r="E6" s="19">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
@@ -806,6 +878,9 @@
       <c r="D7" s="16">
         <v>399.9</v>
       </c>
+      <c r="E7" s="19">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
@@ -820,6 +895,9 @@
       <c r="D8" s="16">
         <v>249.9</v>
       </c>
+      <c r="E8" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
@@ -834,6 +912,9 @@
       <c r="D9" s="16">
         <v>259.89999999999998</v>
       </c>
+      <c r="E9" s="19">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
@@ -848,6 +929,9 @@
       <c r="D10" s="16">
         <v>299.89999999999998</v>
       </c>
+      <c r="E10" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
@@ -862,6 +946,9 @@
       <c r="D11" s="16">
         <v>85.9</v>
       </c>
+      <c r="E11" s="19">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
@@ -876,6 +963,9 @@
       <c r="D12" s="16">
         <v>89.9</v>
       </c>
+      <c r="E12" s="19">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
@@ -890,6 +980,9 @@
       <c r="D13" s="16">
         <v>92.9</v>
       </c>
+      <c r="E13" s="19">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
@@ -904,6 +997,9 @@
       <c r="D14" s="16">
         <v>149.9</v>
       </c>
+      <c r="E14" s="19">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
@@ -918,6 +1014,9 @@
       <c r="D15" s="16">
         <v>65.900000000000006</v>
       </c>
+      <c r="E15" s="19">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
@@ -932,8 +1031,11 @@
       <c r="D16" s="16">
         <v>69.900000000000006</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E16" s="19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>15</v>
       </c>
@@ -946,8 +1048,11 @@
       <c r="D17" s="16">
         <v>70.900000000000006</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E17" s="19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
         <v>16</v>
       </c>
@@ -960,8 +1065,11 @@
       <c r="D18" s="16">
         <v>199.9</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E18" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
         <v>16</v>
       </c>
@@ -974,8 +1082,11 @@
       <c r="D19" s="16">
         <v>249.9</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E19" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
         <v>16</v>
       </c>
@@ -988,8 +1099,11 @@
       <c r="D20" s="16">
         <v>259.89999999999998</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E20" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
         <v>18</v>
       </c>
@@ -1002,8 +1116,11 @@
       <c r="D21" s="16">
         <v>259.89999999999998</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E21" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
         <v>19</v>
       </c>
@@ -1016,8 +1133,11 @@
       <c r="D22" s="16">
         <v>39.9</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E22" s="19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="11" t="s">
         <v>20</v>
       </c>
@@ -1030,32 +1150,35 @@
       <c r="D23" s="17">
         <v>49.9</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E23" s="20">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="3"/>
     </row>
     <row r="33" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3970,7 +4093,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -3982,7 +4105,7 @@
   <dimension ref="A1:Z1002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D23"/>
+      <selection activeCell="D4" sqref="D4:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3991,22 +4114,25 @@
     <col min="2" max="2" width="15.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="26" width="8" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="26" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:26" ht="21.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:26" ht="5.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
@@ -4021,7 +4147,9 @@
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="21" t="s">
+        <v>22</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -4054,8 +4182,11 @@
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="24">
         <v>25.9</v>
+      </c>
+      <c r="E4" s="22">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4068,8 +4199,11 @@
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="24">
         <v>29.9</v>
+      </c>
+      <c r="E5" s="22">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4082,8 +4216,11 @@
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="24">
         <v>32.9</v>
+      </c>
+      <c r="E6" s="22">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4096,8 +4233,11 @@
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="24">
         <v>399.9</v>
+      </c>
+      <c r="E7" s="22">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4110,8 +4250,11 @@
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="24">
         <v>249.9</v>
+      </c>
+      <c r="E8" s="22">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4124,8 +4267,11 @@
       <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="24">
         <v>259.89999999999998</v>
+      </c>
+      <c r="E9" s="22">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4138,8 +4284,11 @@
       <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="24">
         <v>299.89999999999998</v>
+      </c>
+      <c r="E10" s="22">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4152,8 +4301,11 @@
       <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="24">
         <v>85.9</v>
+      </c>
+      <c r="E11" s="22">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4166,8 +4318,11 @@
       <c r="C12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="24">
         <v>89.9</v>
+      </c>
+      <c r="E12" s="22">
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4180,8 +4335,11 @@
       <c r="C13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="24">
         <v>92.9</v>
+      </c>
+      <c r="E13" s="22">
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4194,8 +4352,11 @@
       <c r="C14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="24">
         <v>149.9</v>
+      </c>
+      <c r="E14" s="22">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4208,8 +4369,11 @@
       <c r="C15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="24">
         <v>65.900000000000006</v>
+      </c>
+      <c r="E15" s="22">
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4222,11 +4386,14 @@
       <c r="C16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="24">
         <v>69.900000000000006</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E16" s="22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -4236,11 +4403,14 @@
       <c r="C17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="24">
         <v>70.900000000000006</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E17" s="22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -4250,11 +4420,14 @@
       <c r="C18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="24">
         <v>199.9</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E18" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
@@ -4264,11 +4437,14 @@
       <c r="C19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="24">
         <v>249.9</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E19" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
@@ -4278,11 +4454,14 @@
       <c r="C20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="24">
         <v>259.89999999999998</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E20" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
@@ -4292,11 +4471,14 @@
       <c r="C21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="24">
         <v>259.89999999999998</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E21" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
@@ -4306,11 +4488,14 @@
       <c r="C22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="24">
         <v>39.9</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E22" s="22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -4320,35 +4505,38 @@
       <c r="C23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="24">
         <v>49.9</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E23" s="22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="3"/>
     </row>
     <row r="33" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7263,7 +7451,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/Meteora Ecommerce.xlsx
+++ b/Meteora Ecommerce.xlsx
@@ -8,20 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gribeirodeal\cursos-alura\curso-excel-domine-editor-planilhas-alura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6040D725-5895-4171-93A9-F6F58533A1B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F687F369-26CB-471B-9B8C-799B4A21B21C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Produtos" sheetId="1" r:id="rId1"/>
     <sheet name="Tabela de Produtos" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="28">
   <si>
     <t>Produtos</t>
   </si>
@@ -90,6 +103,21 @@
   </si>
   <si>
     <t>Qtd</t>
+  </si>
+  <si>
+    <t>Soma:</t>
+  </si>
+  <si>
+    <t>Média:</t>
+  </si>
+  <si>
+    <t>Maior:</t>
+  </si>
+  <si>
+    <t>Menor:</t>
+  </si>
+  <si>
+    <t>Soma</t>
   </si>
 </sst>
 </file>
@@ -179,7 +207,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -322,12 +350,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -358,9 +397,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -385,12 +421,35 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -408,6 +467,25 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -426,6 +504,24 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -533,14 +629,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ACDD8594-C6FB-45AB-BA9E-8F1EB3E3DA5F}" name="Table3" displayName="Table3" ref="A3:E23" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ACDD8594-C6FB-45AB-BA9E-8F1EB3E3DA5F}" name="Table3" displayName="Table3" ref="A3:E24" totalsRowCount="1" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A3:E23" xr:uid="{ACDD8594-C6FB-45AB-BA9E-8F1EB3E3DA5F}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D28492A9-579C-4F05-A742-7ACB40A3E915}" name="Produtos" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{1E4438B0-5873-45D7-94C1-2DE7F3D6B1D9}" name="Tamanho" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{10732D68-E106-4E50-A393-271DBF29B5C3}" name="Categoria" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{91F7D37B-465A-4B08-8894-63AF3264D30E}" name="Preço Unitário" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{28FE975C-DEE9-44F0-A8FD-097CAC5CC889}" name="Qtd" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{D28492A9-579C-4F05-A742-7ACB40A3E915}" name="Produtos" totalsRowLabel="Soma" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{1E4438B0-5873-45D7-94C1-2DE7F3D6B1D9}" name="Tamanho" dataDxfId="6" totalsRowDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{10732D68-E106-4E50-A393-271DBF29B5C3}" name="Categoria" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{91F7D37B-465A-4B08-8894-63AF3264D30E}" name="Preço Unitário" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{28FE975C-DEE9-44F0-A8FD-097CAC5CC889}" name="Qtd" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -746,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E23"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -761,13 +857,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:26" ht="5.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="4"/>
@@ -824,10 +920,10 @@
       <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <v>25.9</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="17">
         <v>12</v>
       </c>
     </row>
@@ -841,10 +937,10 @@
       <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <v>29.9</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="17">
         <v>10</v>
       </c>
     </row>
@@ -858,10 +954,10 @@
       <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="15">
         <v>32.9</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="18">
         <v>6</v>
       </c>
     </row>
@@ -875,10 +971,10 @@
       <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="15">
         <v>399.9</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="18">
         <v>3</v>
       </c>
     </row>
@@ -892,10 +988,10 @@
       <c r="C8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="15">
         <v>249.9</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="18">
         <v>1</v>
       </c>
     </row>
@@ -909,10 +1005,10 @@
       <c r="C9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="15">
         <v>259.89999999999998</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="18">
         <v>2</v>
       </c>
     </row>
@@ -926,10 +1022,10 @@
       <c r="C10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="15">
         <v>299.89999999999998</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="18">
         <v>1</v>
       </c>
     </row>
@@ -943,10 +1039,10 @@
       <c r="C11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="15">
         <v>85.9</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="18">
         <v>8</v>
       </c>
     </row>
@@ -960,10 +1056,10 @@
       <c r="C12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="15">
         <v>89.9</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="18">
         <v>5</v>
       </c>
     </row>
@@ -977,10 +1073,10 @@
       <c r="C13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="15">
         <v>92.9</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="18">
         <v>6</v>
       </c>
     </row>
@@ -994,10 +1090,10 @@
       <c r="C14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="15">
         <v>149.9</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="18">
         <v>2</v>
       </c>
     </row>
@@ -1011,10 +1107,10 @@
       <c r="C15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="15">
         <v>65.900000000000006</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="18">
         <v>12</v>
       </c>
     </row>
@@ -1028,10 +1124,10 @@
       <c r="C16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="15">
         <v>69.900000000000006</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="18">
         <v>15</v>
       </c>
     </row>
@@ -1045,10 +1141,10 @@
       <c r="C17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="15">
         <v>70.900000000000006</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="18">
         <v>13</v>
       </c>
     </row>
@@ -1062,10 +1158,10 @@
       <c r="C18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="15">
         <v>199.9</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="18">
         <v>2</v>
       </c>
     </row>
@@ -1079,10 +1175,10 @@
       <c r="C19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="15">
         <v>249.9</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="18">
         <v>1</v>
       </c>
     </row>
@@ -1096,10 +1192,10 @@
       <c r="C20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="15">
         <v>259.89999999999998</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="18">
         <v>0</v>
       </c>
     </row>
@@ -1113,10 +1209,10 @@
       <c r="C21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="15">
         <v>259.89999999999998</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="18">
         <v>1</v>
       </c>
     </row>
@@ -1130,10 +1226,10 @@
       <c r="C22" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="15">
         <v>39.9</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="18">
         <v>11</v>
       </c>
     </row>
@@ -1147,27 +1243,57 @@
       <c r="C23" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="16">
         <v>49.9</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E23" s="19">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="3"/>
+      <c r="C24" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="25">
+        <f>SUM(D4:D23)</f>
+        <v>2983.0000000000009</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="3"/>
+      <c r="C25" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="25">
+        <f>AVERAGE(D4:D23)</f>
+        <v>149.15000000000003</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="3"/>
+      <c r="C26" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26">
+        <f>LARGE(D4:D23, 1)</f>
+        <v>399.9</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="3"/>
+      <c r="C27" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27">
+        <f>SMALL(D4:D23, 1)</f>
+        <v>25.9</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="3"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="25"/>
     </row>
     <row r="29" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3"/>
@@ -4102,10 +4228,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CEFE34F-2070-49CD-8F06-CB4BE1EB1541}">
-  <dimension ref="A1:Z1002"/>
+  <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D23"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4114,25 +4240,25 @@
     <col min="2" max="2" width="15.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="26" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="21.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:26" ht="5.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="23"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
@@ -4147,7 +4273,7 @@
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="20" t="s">
         <v>22</v>
       </c>
       <c r="F3" s="1"/>
@@ -4182,10 +4308,10 @@
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="23">
         <v>25.9</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="21">
         <v>12</v>
       </c>
     </row>
@@ -4199,10 +4325,10 @@
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="23">
         <v>29.9</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="21">
         <v>10</v>
       </c>
     </row>
@@ -4216,10 +4342,10 @@
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="23">
         <v>32.9</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="21">
         <v>6</v>
       </c>
     </row>
@@ -4233,10 +4359,10 @@
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="23">
         <v>399.9</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="21">
         <v>3</v>
       </c>
     </row>
@@ -4250,10 +4376,10 @@
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="23">
         <v>249.9</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="21">
         <v>1</v>
       </c>
     </row>
@@ -4267,10 +4393,10 @@
       <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="23">
         <v>259.89999999999998</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="21">
         <v>2</v>
       </c>
     </row>
@@ -4284,10 +4410,10 @@
       <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="23">
         <v>299.89999999999998</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="21">
         <v>1</v>
       </c>
     </row>
@@ -4301,10 +4427,10 @@
       <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="23">
         <v>85.9</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="21">
         <v>8</v>
       </c>
     </row>
@@ -4318,10 +4444,10 @@
       <c r="C12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="23">
         <v>89.9</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="21">
         <v>5</v>
       </c>
     </row>
@@ -4335,10 +4461,10 @@
       <c r="C13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="23">
         <v>92.9</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="21">
         <v>6</v>
       </c>
     </row>
@@ -4352,10 +4478,10 @@
       <c r="C14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="23">
         <v>149.9</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="21">
         <v>2</v>
       </c>
     </row>
@@ -4369,10 +4495,10 @@
       <c r="C15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15" s="23">
         <v>65.900000000000006</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="21">
         <v>12</v>
       </c>
     </row>
@@ -4386,10 +4512,10 @@
       <c r="C16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="23">
         <v>69.900000000000006</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="21">
         <v>15</v>
       </c>
     </row>
@@ -4403,10 +4529,10 @@
       <c r="C17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="23">
         <v>70.900000000000006</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="21">
         <v>13</v>
       </c>
     </row>
@@ -4420,10 +4546,10 @@
       <c r="C18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="23">
         <v>199.9</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="21">
         <v>2</v>
       </c>
     </row>
@@ -4437,10 +4563,10 @@
       <c r="C19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="23">
         <v>249.9</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="21">
         <v>1</v>
       </c>
     </row>
@@ -4454,10 +4580,10 @@
       <c r="C20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="24">
+      <c r="D20" s="23">
         <v>259.89999999999998</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="21">
         <v>0</v>
       </c>
     </row>
@@ -4471,10 +4597,10 @@
       <c r="C21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="24">
+      <c r="D21" s="23">
         <v>259.89999999999998</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="21">
         <v>1</v>
       </c>
     </row>
@@ -4488,10 +4614,10 @@
       <c r="C22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="23">
         <v>39.9</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="21">
         <v>11</v>
       </c>
     </row>
@@ -4505,15 +4631,26 @@
       <c r="C23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="24">
+      <c r="D23" s="23">
         <v>49.9</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="21">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
       <c r="B24" s="3"/>
+      <c r="D24" s="25">
+        <f>SUBTOTAL(109,Table3[Preço Unitário])</f>
+        <v>2983.0000000000009</v>
+      </c>
+      <c r="E24" s="14">
+        <f>SUBTOTAL(109,Table3[Qtd])</f>
+        <v>132</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="3"/>
@@ -7448,6 +7585,9 @@
     </row>
     <row r="1002" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1002" s="3"/>
+    </row>
+    <row r="1003" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1003" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Meteora Ecommerce.xlsx
+++ b/Meteora Ecommerce.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gribeirodeal\cursos-alura\curso-excel-domine-editor-planilhas-alura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F687F369-26CB-471B-9B8C-799B4A21B21C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C842149D-EC51-442F-A1C0-EF2E2E69A5D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Produtos" sheetId="1" r:id="rId1"/>
@@ -421,17 +421,35 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -483,42 +501,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
@@ -539,6 +521,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -633,10 +633,10 @@
   <autoFilter ref="A3:E23" xr:uid="{ACDD8594-C6FB-45AB-BA9E-8F1EB3E3DA5F}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D28492A9-579C-4F05-A742-7ACB40A3E915}" name="Produtos" totalsRowLabel="Soma" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{1E4438B0-5873-45D7-94C1-2DE7F3D6B1D9}" name="Tamanho" dataDxfId="6" totalsRowDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{10732D68-E106-4E50-A393-271DBF29B5C3}" name="Categoria" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{91F7D37B-465A-4B08-8894-63AF3264D30E}" name="Preço Unitário" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{28FE975C-DEE9-44F0-A8FD-097CAC5CC889}" name="Qtd" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{1E4438B0-5873-45D7-94C1-2DE7F3D6B1D9}" name="Tamanho" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{10732D68-E106-4E50-A393-271DBF29B5C3}" name="Categoria" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{91F7D37B-465A-4B08-8894-63AF3264D30E}" name="Preço Unitário" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{28FE975C-DEE9-44F0-A8FD-097CAC5CC889}" name="Qtd" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -842,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -857,13 +857,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:26" ht="5.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="4"/>
@@ -1252,48 +1252,64 @@
     </row>
     <row r="24" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="3"/>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="25">
+      <c r="D24" s="24">
         <f>SUM(D4:D23)</f>
         <v>2983.0000000000009</v>
       </c>
+      <c r="E24">
+        <f>SUM(E4:E23)</f>
+        <v>132</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="3"/>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="25">
+      <c r="D25" s="24">
         <f>AVERAGE(D4:D23)</f>
         <v>149.15000000000003</v>
       </c>
+      <c r="E25">
+        <f>AVERAGE(E4:E23)</f>
+        <v>6.6</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="3"/>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="25" t="s">
         <v>25</v>
       </c>
       <c r="D26">
         <f>LARGE(D4:D23, 1)</f>
         <v>399.9</v>
       </c>
+      <c r="E26">
+        <f>LARGE(E4:E23, 1)</f>
+        <v>21</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="3"/>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="25" t="s">
         <v>26</v>
       </c>
       <c r="D27">
         <f>SMALL(D4:D23, 1)</f>
         <v>25.9</v>
       </c>
+      <c r="E27">
+        <f>SMALL(E4:E23, 1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="3"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="24"/>
     </row>
     <row r="29" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3"/>
@@ -4230,8 +4246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CEFE34F-2070-49CD-8F06-CB4BE1EB1541}">
   <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4245,13 +4261,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="21.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:26" ht="5.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4"/>
@@ -4643,7 +4659,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="D24" s="25">
+      <c r="D24" s="24">
         <f>SUBTOTAL(109,Table3[Preço Unitário])</f>
         <v>2983.0000000000009</v>
       </c>

--- a/Meteora Ecommerce.xlsx
+++ b/Meteora Ecommerce.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gribeirodeal\cursos-alura\curso-excel-domine-editor-planilhas-alura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C842149D-EC51-442F-A1C0-EF2E2E69A5D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBCD11E-1353-4C97-BC4F-61259BD8CDBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="30">
   <si>
     <t>Produtos</t>
   </si>
@@ -105,19 +105,25 @@
     <t>Qtd</t>
   </si>
   <si>
-    <t>Soma:</t>
+    <t>Soma</t>
   </si>
   <si>
-    <t>Média:</t>
+    <t>Total</t>
   </si>
   <si>
-    <t>Maior:</t>
+    <t>Total com Função</t>
   </si>
   <si>
-    <t>Menor:</t>
+    <t>Total com operador aritmético</t>
   </si>
   <si>
-    <t>Soma</t>
+    <t>Totais</t>
+  </si>
+  <si>
+    <t>Desconto</t>
+  </si>
+  <si>
+    <t>Valor de Desconto</t>
   </si>
 </sst>
 </file>
@@ -128,7 +134,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +186,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -207,7 +221,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -306,21 +320,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -330,9 +329,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -345,6 +342,115 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -354,19 +460,20 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
-      </right>
-      <top/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -382,35 +489,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -422,16 +505,106 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="4" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -501,6 +674,24 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
@@ -521,24 +712,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -629,14 +802,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ACDD8594-C6FB-45AB-BA9E-8F1EB3E3DA5F}" name="Table3" displayName="Table3" ref="A3:E24" totalsRowCount="1" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A3:E23" xr:uid="{ACDD8594-C6FB-45AB-BA9E-8F1EB3E3DA5F}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D28492A9-579C-4F05-A742-7ACB40A3E915}" name="Produtos" totalsRowLabel="Soma" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{1E4438B0-5873-45D7-94C1-2DE7F3D6B1D9}" name="Tamanho" dataDxfId="6" totalsRowDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{10732D68-E106-4E50-A393-271DBF29B5C3}" name="Categoria" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{91F7D37B-465A-4B08-8894-63AF3264D30E}" name="Preço Unitário" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{28FE975C-DEE9-44F0-A8FD-097CAC5CC889}" name="Qtd" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ACDD8594-C6FB-45AB-BA9E-8F1EB3E3DA5F}" name="Table3" displayName="Table3" ref="A3:F24" totalsRowCount="1" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A3:F23" xr:uid="{ACDD8594-C6FB-45AB-BA9E-8F1EB3E3DA5F}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{D28492A9-579C-4F05-A742-7ACB40A3E915}" name="Produtos" totalsRowLabel="Soma" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{1E4438B0-5873-45D7-94C1-2DE7F3D6B1D9}" name="Tamanho" dataDxfId="7" totalsRowDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{10732D68-E106-4E50-A393-271DBF29B5C3}" name="Categoria" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{91F7D37B-465A-4B08-8894-63AF3264D30E}" name="Preço Unitário" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{28FE975C-DEE9-44F0-A8FD-097CAC5CC889}" name="Qtd" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{D58018FC-BCF1-4900-B490-199FBDAD536F}" name="Total" totalsRowFunction="sum" dataDxfId="0">
+      <calculatedColumnFormula>PRODUCT(D4,E4)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -842,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27:E27"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -853,17 +1029,23 @@
     <col min="3" max="3" width="12.08984375" customWidth="1"/>
     <col min="4" max="4" width="17.81640625" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="26" width="8" customWidth="1"/>
+    <col min="6" max="6" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="26" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:26" ht="5.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="4"/>
@@ -871,24 +1053,3692 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+    </row>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="29">
+        <v>25.9</v>
+      </c>
+      <c r="E4" s="30">
+        <v>12</v>
+      </c>
+      <c r="F4" s="32">
+        <f>PRODUCT(D4,E4)</f>
+        <v>310.79999999999995</v>
+      </c>
+      <c r="G4" s="32">
+        <f>D4*E4</f>
+        <v>310.79999999999995</v>
+      </c>
+      <c r="H4" s="32">
+        <f>F4*$D$25</f>
+        <v>15.54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="9">
+        <v>29.9</v>
+      </c>
+      <c r="E5" s="24">
+        <v>10</v>
+      </c>
+      <c r="F5" s="33">
+        <f>PRODUCT(D5,E5)</f>
+        <v>299</v>
+      </c>
+      <c r="G5" s="32">
+        <f t="shared" ref="G5:G23" si="0">D5*E5</f>
+        <v>299</v>
+      </c>
+      <c r="H5" s="32">
+        <f t="shared" ref="H5:H23" si="1">F5*$D$25</f>
+        <v>14.950000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="9">
+        <v>32.9</v>
+      </c>
+      <c r="E6" s="25">
+        <v>6</v>
+      </c>
+      <c r="F6" s="33">
+        <f>PRODUCT(D6,E6)</f>
+        <v>197.39999999999998</v>
+      </c>
+      <c r="G6" s="32">
+        <f t="shared" si="0"/>
+        <v>197.39999999999998</v>
+      </c>
+      <c r="H6" s="32">
+        <f t="shared" si="1"/>
+        <v>9.8699999999999992</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="9">
+        <v>399.9</v>
+      </c>
+      <c r="E7" s="25">
+        <v>3</v>
+      </c>
+      <c r="F7" s="33">
+        <f t="shared" ref="F7:H23" si="2">PRODUCT(D7,E7)</f>
+        <v>1199.6999999999998</v>
+      </c>
+      <c r="G7" s="32">
+        <f t="shared" si="0"/>
+        <v>1199.6999999999998</v>
+      </c>
+      <c r="H7" s="32">
+        <f t="shared" si="1"/>
+        <v>59.984999999999992</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="9">
+        <v>249.9</v>
+      </c>
+      <c r="E8" s="25">
+        <v>1</v>
+      </c>
+      <c r="F8" s="33">
+        <f t="shared" si="2"/>
+        <v>249.9</v>
+      </c>
+      <c r="G8" s="32">
+        <f t="shared" si="0"/>
+        <v>249.9</v>
+      </c>
+      <c r="H8" s="32">
+        <f t="shared" si="1"/>
+        <v>12.495000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="9">
+        <v>259.89999999999998</v>
+      </c>
+      <c r="E9" s="25">
+        <v>2</v>
+      </c>
+      <c r="F9" s="33">
+        <f t="shared" si="2"/>
+        <v>519.79999999999995</v>
+      </c>
+      <c r="G9" s="32">
+        <f t="shared" si="0"/>
+        <v>519.79999999999995</v>
+      </c>
+      <c r="H9" s="32">
+        <f t="shared" si="1"/>
+        <v>25.99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="9">
+        <v>299.89999999999998</v>
+      </c>
+      <c r="E10" s="25">
+        <v>1</v>
+      </c>
+      <c r="F10" s="33">
+        <f t="shared" si="2"/>
+        <v>299.89999999999998</v>
+      </c>
+      <c r="G10" s="32">
+        <f t="shared" si="0"/>
+        <v>299.89999999999998</v>
+      </c>
+      <c r="H10" s="32">
+        <f t="shared" si="1"/>
+        <v>14.994999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="9">
+        <v>85.9</v>
+      </c>
+      <c r="E11" s="25">
+        <v>8</v>
+      </c>
+      <c r="F11" s="33">
+        <f t="shared" si="2"/>
+        <v>687.2</v>
+      </c>
+      <c r="G11" s="32">
+        <f t="shared" si="0"/>
+        <v>687.2</v>
+      </c>
+      <c r="H11" s="32">
+        <f t="shared" si="1"/>
+        <v>34.360000000000007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="9">
+        <v>89.9</v>
+      </c>
+      <c r="E12" s="25">
+        <v>5</v>
+      </c>
+      <c r="F12" s="33">
+        <f t="shared" si="2"/>
+        <v>449.5</v>
+      </c>
+      <c r="G12" s="32">
+        <f t="shared" si="0"/>
+        <v>449.5</v>
+      </c>
+      <c r="H12" s="32">
+        <f t="shared" si="1"/>
+        <v>22.475000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="9">
+        <v>92.9</v>
+      </c>
+      <c r="E13" s="25">
+        <v>6</v>
+      </c>
+      <c r="F13" s="33">
+        <f t="shared" si="2"/>
+        <v>557.40000000000009</v>
+      </c>
+      <c r="G13" s="32">
+        <f t="shared" si="0"/>
+        <v>557.40000000000009</v>
+      </c>
+      <c r="H13" s="32">
+        <f t="shared" si="1"/>
+        <v>27.870000000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="9">
+        <v>149.9</v>
+      </c>
+      <c r="E14" s="25">
+        <v>2</v>
+      </c>
+      <c r="F14" s="33">
+        <f t="shared" si="2"/>
+        <v>299.8</v>
+      </c>
+      <c r="G14" s="32">
+        <f t="shared" si="0"/>
+        <v>299.8</v>
+      </c>
+      <c r="H14" s="32">
+        <f t="shared" si="1"/>
+        <v>14.990000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="9">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="E15" s="25">
+        <v>12</v>
+      </c>
+      <c r="F15" s="33">
+        <f t="shared" si="2"/>
+        <v>790.80000000000007</v>
+      </c>
+      <c r="G15" s="32">
+        <f t="shared" si="0"/>
+        <v>790.80000000000007</v>
+      </c>
+      <c r="H15" s="32">
+        <f t="shared" si="1"/>
+        <v>39.540000000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="9">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="E16" s="25">
+        <v>15</v>
+      </c>
+      <c r="F16" s="33">
+        <f t="shared" si="2"/>
+        <v>1048.5</v>
+      </c>
+      <c r="G16" s="32">
+        <f t="shared" si="0"/>
+        <v>1048.5</v>
+      </c>
+      <c r="H16" s="32">
+        <f t="shared" si="1"/>
+        <v>52.425000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="9">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="E17" s="25">
+        <v>13</v>
+      </c>
+      <c r="F17" s="33">
+        <f t="shared" si="2"/>
+        <v>921.7</v>
+      </c>
+      <c r="G17" s="32">
+        <f t="shared" si="0"/>
+        <v>921.7</v>
+      </c>
+      <c r="H17" s="32">
+        <f t="shared" si="1"/>
+        <v>46.085000000000008</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6">
+        <v>36</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="9">
+        <v>199.9</v>
+      </c>
+      <c r="E18" s="25">
+        <v>2</v>
+      </c>
+      <c r="F18" s="33">
+        <f t="shared" si="2"/>
+        <v>399.8</v>
+      </c>
+      <c r="G18" s="32">
+        <f t="shared" si="0"/>
+        <v>399.8</v>
+      </c>
+      <c r="H18" s="32">
+        <f t="shared" si="1"/>
+        <v>19.990000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="6">
+        <v>37</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="9">
+        <v>249.9</v>
+      </c>
+      <c r="E19" s="25">
+        <v>1</v>
+      </c>
+      <c r="F19" s="33">
+        <f t="shared" si="2"/>
+        <v>249.9</v>
+      </c>
+      <c r="G19" s="32">
+        <f t="shared" si="0"/>
+        <v>249.9</v>
+      </c>
+      <c r="H19" s="32">
+        <f t="shared" si="1"/>
+        <v>12.495000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="6">
+        <v>38</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="9">
+        <v>259.89999999999998</v>
+      </c>
+      <c r="E20" s="25">
+        <v>0</v>
+      </c>
+      <c r="F20" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="9">
+        <v>259.89999999999998</v>
+      </c>
+      <c r="E21" s="25">
+        <v>1</v>
+      </c>
+      <c r="F21" s="33">
+        <f t="shared" si="2"/>
+        <v>259.89999999999998</v>
+      </c>
+      <c r="G21" s="32">
+        <f t="shared" si="0"/>
+        <v>259.89999999999998</v>
+      </c>
+      <c r="H21" s="32">
+        <f t="shared" si="1"/>
+        <v>12.994999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="9">
+        <v>39.9</v>
+      </c>
+      <c r="E22" s="25">
+        <v>11</v>
+      </c>
+      <c r="F22" s="33">
+        <f t="shared" si="2"/>
+        <v>438.9</v>
+      </c>
+      <c r="G22" s="32">
+        <f t="shared" si="0"/>
+        <v>438.9</v>
+      </c>
+      <c r="H22" s="32">
+        <f t="shared" si="1"/>
+        <v>21.945</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="17">
+        <v>49.9</v>
+      </c>
+      <c r="E23" s="36">
+        <v>21</v>
+      </c>
+      <c r="F23" s="37">
+        <f t="shared" si="2"/>
+        <v>1047.8999999999999</v>
+      </c>
+      <c r="G23" s="38">
+        <f t="shared" si="0"/>
+        <v>1047.8999999999999</v>
+      </c>
+      <c r="H23" s="32">
+        <f t="shared" si="1"/>
+        <v>52.394999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="44"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="39">
+        <f>SUM(D4:D23)</f>
+        <v>2983.0000000000009</v>
+      </c>
+      <c r="E24" s="40">
+        <f>SUM(E4:E23)</f>
+        <v>132</v>
+      </c>
+      <c r="F24" s="41">
+        <f>SUM(F4:F23)</f>
+        <v>10227.799999999999</v>
+      </c>
+      <c r="G24" s="42">
+        <f>SUM(G4:G23)</f>
+        <v>10227.799999999999</v>
+      </c>
+      <c r="H24" s="41">
+        <f>SUM(H4:H23)</f>
+        <v>511.39000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="44"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="46">
+        <v>0.05</v>
+      </c>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+    </row>
+    <row r="26" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="3"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+    </row>
+    <row r="27" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="3"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+    </row>
+    <row r="28" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="3"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+    </row>
+    <row r="29" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="3"/>
+    </row>
+    <row r="43" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="3"/>
+    </row>
+    <row r="46" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="3"/>
+    </row>
+    <row r="47" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="3"/>
+    </row>
+    <row r="48" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="3"/>
+    </row>
+    <row r="49" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="3"/>
+    </row>
+    <row r="50" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="3"/>
+    </row>
+    <row r="51" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="3"/>
+    </row>
+    <row r="52" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="3"/>
+    </row>
+    <row r="53" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="3"/>
+    </row>
+    <row r="54" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="3"/>
+    </row>
+    <row r="55" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="3"/>
+    </row>
+    <row r="56" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="3"/>
+    </row>
+    <row r="57" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="3"/>
+    </row>
+    <row r="58" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="3"/>
+    </row>
+    <row r="59" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="3"/>
+    </row>
+    <row r="60" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="3"/>
+    </row>
+    <row r="61" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="3"/>
+    </row>
+    <row r="62" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="3"/>
+    </row>
+    <row r="63" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="3"/>
+    </row>
+    <row r="64" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="3"/>
+    </row>
+    <row r="65" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="3"/>
+    </row>
+    <row r="66" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="3"/>
+    </row>
+    <row r="67" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="3"/>
+    </row>
+    <row r="68" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="3"/>
+    </row>
+    <row r="69" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="3"/>
+    </row>
+    <row r="70" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="3"/>
+    </row>
+    <row r="71" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="3"/>
+    </row>
+    <row r="72" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="3"/>
+    </row>
+    <row r="73" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="3"/>
+    </row>
+    <row r="74" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="3"/>
+    </row>
+    <row r="75" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="3"/>
+    </row>
+    <row r="76" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="3"/>
+    </row>
+    <row r="77" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="3"/>
+    </row>
+    <row r="78" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="3"/>
+    </row>
+    <row r="79" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="3"/>
+    </row>
+    <row r="80" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="3"/>
+    </row>
+    <row r="81" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="3"/>
+    </row>
+    <row r="82" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="3"/>
+    </row>
+    <row r="83" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="3"/>
+    </row>
+    <row r="84" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="3"/>
+    </row>
+    <row r="85" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B85" s="3"/>
+    </row>
+    <row r="86" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B86" s="3"/>
+    </row>
+    <row r="87" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B87" s="3"/>
+    </row>
+    <row r="88" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B88" s="3"/>
+    </row>
+    <row r="89" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B89" s="3"/>
+    </row>
+    <row r="90" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B90" s="3"/>
+    </row>
+    <row r="91" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B91" s="3"/>
+    </row>
+    <row r="92" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B92" s="3"/>
+    </row>
+    <row r="93" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B93" s="3"/>
+    </row>
+    <row r="94" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B94" s="3"/>
+    </row>
+    <row r="95" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B95" s="3"/>
+    </row>
+    <row r="96" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B96" s="3"/>
+    </row>
+    <row r="97" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B97" s="3"/>
+    </row>
+    <row r="98" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B98" s="3"/>
+    </row>
+    <row r="99" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B99" s="3"/>
+    </row>
+    <row r="100" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B100" s="3"/>
+    </row>
+    <row r="101" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B101" s="3"/>
+    </row>
+    <row r="102" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B102" s="3"/>
+    </row>
+    <row r="103" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B103" s="3"/>
+    </row>
+    <row r="104" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B104" s="3"/>
+    </row>
+    <row r="105" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B105" s="3"/>
+    </row>
+    <row r="106" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B106" s="3"/>
+    </row>
+    <row r="107" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B107" s="3"/>
+    </row>
+    <row r="108" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B108" s="3"/>
+    </row>
+    <row r="109" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B109" s="3"/>
+    </row>
+    <row r="110" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B110" s="3"/>
+    </row>
+    <row r="111" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B111" s="3"/>
+    </row>
+    <row r="112" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B112" s="3"/>
+    </row>
+    <row r="113" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B113" s="3"/>
+    </row>
+    <row r="114" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B114" s="3"/>
+    </row>
+    <row r="115" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B115" s="3"/>
+    </row>
+    <row r="116" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B116" s="3"/>
+    </row>
+    <row r="117" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B117" s="3"/>
+    </row>
+    <row r="118" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B118" s="3"/>
+    </row>
+    <row r="119" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B119" s="3"/>
+    </row>
+    <row r="120" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B120" s="3"/>
+    </row>
+    <row r="121" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B121" s="3"/>
+    </row>
+    <row r="122" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B122" s="3"/>
+    </row>
+    <row r="123" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B123" s="3"/>
+    </row>
+    <row r="124" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B124" s="3"/>
+    </row>
+    <row r="125" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B125" s="3"/>
+    </row>
+    <row r="126" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B126" s="3"/>
+    </row>
+    <row r="127" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B127" s="3"/>
+    </row>
+    <row r="128" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B128" s="3"/>
+    </row>
+    <row r="129" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B129" s="3"/>
+    </row>
+    <row r="130" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B130" s="3"/>
+    </row>
+    <row r="131" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B131" s="3"/>
+    </row>
+    <row r="132" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B132" s="3"/>
+    </row>
+    <row r="133" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B133" s="3"/>
+    </row>
+    <row r="134" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B134" s="3"/>
+    </row>
+    <row r="135" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B135" s="3"/>
+    </row>
+    <row r="136" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B136" s="3"/>
+    </row>
+    <row r="137" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B137" s="3"/>
+    </row>
+    <row r="138" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B138" s="3"/>
+    </row>
+    <row r="139" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B139" s="3"/>
+    </row>
+    <row r="140" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B140" s="3"/>
+    </row>
+    <row r="141" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B141" s="3"/>
+    </row>
+    <row r="142" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B142" s="3"/>
+    </row>
+    <row r="143" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B143" s="3"/>
+    </row>
+    <row r="144" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B144" s="3"/>
+    </row>
+    <row r="145" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B145" s="3"/>
+    </row>
+    <row r="146" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B146" s="3"/>
+    </row>
+    <row r="147" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B147" s="3"/>
+    </row>
+    <row r="148" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B148" s="3"/>
+    </row>
+    <row r="149" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B149" s="3"/>
+    </row>
+    <row r="150" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B150" s="3"/>
+    </row>
+    <row r="151" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B151" s="3"/>
+    </row>
+    <row r="152" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B152" s="3"/>
+    </row>
+    <row r="153" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B153" s="3"/>
+    </row>
+    <row r="154" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B154" s="3"/>
+    </row>
+    <row r="155" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B155" s="3"/>
+    </row>
+    <row r="156" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B156" s="3"/>
+    </row>
+    <row r="157" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B157" s="3"/>
+    </row>
+    <row r="158" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B158" s="3"/>
+    </row>
+    <row r="159" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B159" s="3"/>
+    </row>
+    <row r="160" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B160" s="3"/>
+    </row>
+    <row r="161" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B161" s="3"/>
+    </row>
+    <row r="162" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B162" s="3"/>
+    </row>
+    <row r="163" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B163" s="3"/>
+    </row>
+    <row r="164" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B164" s="3"/>
+    </row>
+    <row r="165" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B165" s="3"/>
+    </row>
+    <row r="166" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B166" s="3"/>
+    </row>
+    <row r="167" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B167" s="3"/>
+    </row>
+    <row r="168" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B168" s="3"/>
+    </row>
+    <row r="169" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B169" s="3"/>
+    </row>
+    <row r="170" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B170" s="3"/>
+    </row>
+    <row r="171" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B171" s="3"/>
+    </row>
+    <row r="172" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B172" s="3"/>
+    </row>
+    <row r="173" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B173" s="3"/>
+    </row>
+    <row r="174" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B174" s="3"/>
+    </row>
+    <row r="175" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B175" s="3"/>
+    </row>
+    <row r="176" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B176" s="3"/>
+    </row>
+    <row r="177" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B177" s="3"/>
+    </row>
+    <row r="178" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B178" s="3"/>
+    </row>
+    <row r="179" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B179" s="3"/>
+    </row>
+    <row r="180" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B180" s="3"/>
+    </row>
+    <row r="181" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B181" s="3"/>
+    </row>
+    <row r="182" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B182" s="3"/>
+    </row>
+    <row r="183" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B183" s="3"/>
+    </row>
+    <row r="184" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B184" s="3"/>
+    </row>
+    <row r="185" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B185" s="3"/>
+    </row>
+    <row r="186" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B186" s="3"/>
+    </row>
+    <row r="187" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B187" s="3"/>
+    </row>
+    <row r="188" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B188" s="3"/>
+    </row>
+    <row r="189" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B189" s="3"/>
+    </row>
+    <row r="190" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B190" s="3"/>
+    </row>
+    <row r="191" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B191" s="3"/>
+    </row>
+    <row r="192" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B192" s="3"/>
+    </row>
+    <row r="193" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B193" s="3"/>
+    </row>
+    <row r="194" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B194" s="3"/>
+    </row>
+    <row r="195" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B195" s="3"/>
+    </row>
+    <row r="196" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B196" s="3"/>
+    </row>
+    <row r="197" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B197" s="3"/>
+    </row>
+    <row r="198" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B198" s="3"/>
+    </row>
+    <row r="199" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B199" s="3"/>
+    </row>
+    <row r="200" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B200" s="3"/>
+    </row>
+    <row r="201" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B201" s="3"/>
+    </row>
+    <row r="202" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B202" s="3"/>
+    </row>
+    <row r="203" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B203" s="3"/>
+    </row>
+    <row r="204" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B204" s="3"/>
+    </row>
+    <row r="205" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B205" s="3"/>
+    </row>
+    <row r="206" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B206" s="3"/>
+    </row>
+    <row r="207" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B207" s="3"/>
+    </row>
+    <row r="208" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B208" s="3"/>
+    </row>
+    <row r="209" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B209" s="3"/>
+    </row>
+    <row r="210" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B210" s="3"/>
+    </row>
+    <row r="211" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B211" s="3"/>
+    </row>
+    <row r="212" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B212" s="3"/>
+    </row>
+    <row r="213" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B213" s="3"/>
+    </row>
+    <row r="214" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B214" s="3"/>
+    </row>
+    <row r="215" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B215" s="3"/>
+    </row>
+    <row r="216" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B216" s="3"/>
+    </row>
+    <row r="217" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B217" s="3"/>
+    </row>
+    <row r="218" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B218" s="3"/>
+    </row>
+    <row r="219" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B219" s="3"/>
+    </row>
+    <row r="220" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B220" s="3"/>
+    </row>
+    <row r="221" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B221" s="3"/>
+    </row>
+    <row r="222" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B222" s="3"/>
+    </row>
+    <row r="223" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B223" s="3"/>
+    </row>
+    <row r="224" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B224" s="3"/>
+    </row>
+    <row r="225" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B225" s="3"/>
+    </row>
+    <row r="226" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B226" s="3"/>
+    </row>
+    <row r="227" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B227" s="3"/>
+    </row>
+    <row r="228" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B228" s="3"/>
+    </row>
+    <row r="229" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B229" s="3"/>
+    </row>
+    <row r="230" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B230" s="3"/>
+    </row>
+    <row r="231" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B231" s="3"/>
+    </row>
+    <row r="232" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B232" s="3"/>
+    </row>
+    <row r="233" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B233" s="3"/>
+    </row>
+    <row r="234" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B234" s="3"/>
+    </row>
+    <row r="235" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B235" s="3"/>
+    </row>
+    <row r="236" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B236" s="3"/>
+    </row>
+    <row r="237" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B237" s="3"/>
+    </row>
+    <row r="238" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B238" s="3"/>
+    </row>
+    <row r="239" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B239" s="3"/>
+    </row>
+    <row r="240" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B240" s="3"/>
+    </row>
+    <row r="241" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B241" s="3"/>
+    </row>
+    <row r="242" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B242" s="3"/>
+    </row>
+    <row r="243" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B243" s="3"/>
+    </row>
+    <row r="244" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B244" s="3"/>
+    </row>
+    <row r="245" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B245" s="3"/>
+    </row>
+    <row r="246" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B246" s="3"/>
+    </row>
+    <row r="247" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B247" s="3"/>
+    </row>
+    <row r="248" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B248" s="3"/>
+    </row>
+    <row r="249" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B249" s="3"/>
+    </row>
+    <row r="250" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B250" s="3"/>
+    </row>
+    <row r="251" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B251" s="3"/>
+    </row>
+    <row r="252" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B252" s="3"/>
+    </row>
+    <row r="253" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B253" s="3"/>
+    </row>
+    <row r="254" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B254" s="3"/>
+    </row>
+    <row r="255" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B255" s="3"/>
+    </row>
+    <row r="256" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B256" s="3"/>
+    </row>
+    <row r="257" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B257" s="3"/>
+    </row>
+    <row r="258" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B258" s="3"/>
+    </row>
+    <row r="259" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B259" s="3"/>
+    </row>
+    <row r="260" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B260" s="3"/>
+    </row>
+    <row r="261" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B261" s="3"/>
+    </row>
+    <row r="262" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B262" s="3"/>
+    </row>
+    <row r="263" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B263" s="3"/>
+    </row>
+    <row r="264" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B264" s="3"/>
+    </row>
+    <row r="265" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B265" s="3"/>
+    </row>
+    <row r="266" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B266" s="3"/>
+    </row>
+    <row r="267" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B267" s="3"/>
+    </row>
+    <row r="268" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B268" s="3"/>
+    </row>
+    <row r="269" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B269" s="3"/>
+    </row>
+    <row r="270" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B270" s="3"/>
+    </row>
+    <row r="271" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B271" s="3"/>
+    </row>
+    <row r="272" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B272" s="3"/>
+    </row>
+    <row r="273" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B273" s="3"/>
+    </row>
+    <row r="274" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B274" s="3"/>
+    </row>
+    <row r="275" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B275" s="3"/>
+    </row>
+    <row r="276" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B276" s="3"/>
+    </row>
+    <row r="277" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B277" s="3"/>
+    </row>
+    <row r="278" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B278" s="3"/>
+    </row>
+    <row r="279" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B279" s="3"/>
+    </row>
+    <row r="280" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B280" s="3"/>
+    </row>
+    <row r="281" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B281" s="3"/>
+    </row>
+    <row r="282" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B282" s="3"/>
+    </row>
+    <row r="283" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B283" s="3"/>
+    </row>
+    <row r="284" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B284" s="3"/>
+    </row>
+    <row r="285" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B285" s="3"/>
+    </row>
+    <row r="286" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B286" s="3"/>
+    </row>
+    <row r="287" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B287" s="3"/>
+    </row>
+    <row r="288" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B288" s="3"/>
+    </row>
+    <row r="289" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B289" s="3"/>
+    </row>
+    <row r="290" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B290" s="3"/>
+    </row>
+    <row r="291" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B291" s="3"/>
+    </row>
+    <row r="292" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B292" s="3"/>
+    </row>
+    <row r="293" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B293" s="3"/>
+    </row>
+    <row r="294" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B294" s="3"/>
+    </row>
+    <row r="295" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B295" s="3"/>
+    </row>
+    <row r="296" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B296" s="3"/>
+    </row>
+    <row r="297" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B297" s="3"/>
+    </row>
+    <row r="298" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B298" s="3"/>
+    </row>
+    <row r="299" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B299" s="3"/>
+    </row>
+    <row r="300" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B300" s="3"/>
+    </row>
+    <row r="301" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B301" s="3"/>
+    </row>
+    <row r="302" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B302" s="3"/>
+    </row>
+    <row r="303" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B303" s="3"/>
+    </row>
+    <row r="304" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B304" s="3"/>
+    </row>
+    <row r="305" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B305" s="3"/>
+    </row>
+    <row r="306" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B306" s="3"/>
+    </row>
+    <row r="307" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B307" s="3"/>
+    </row>
+    <row r="308" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B308" s="3"/>
+    </row>
+    <row r="309" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B309" s="3"/>
+    </row>
+    <row r="310" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B310" s="3"/>
+    </row>
+    <row r="311" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B311" s="3"/>
+    </row>
+    <row r="312" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B312" s="3"/>
+    </row>
+    <row r="313" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B313" s="3"/>
+    </row>
+    <row r="314" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B314" s="3"/>
+    </row>
+    <row r="315" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B315" s="3"/>
+    </row>
+    <row r="316" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B316" s="3"/>
+    </row>
+    <row r="317" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B317" s="3"/>
+    </row>
+    <row r="318" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B318" s="3"/>
+    </row>
+    <row r="319" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B319" s="3"/>
+    </row>
+    <row r="320" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B320" s="3"/>
+    </row>
+    <row r="321" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B321" s="3"/>
+    </row>
+    <row r="322" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B322" s="3"/>
+    </row>
+    <row r="323" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B323" s="3"/>
+    </row>
+    <row r="324" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B324" s="3"/>
+    </row>
+    <row r="325" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B325" s="3"/>
+    </row>
+    <row r="326" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B326" s="3"/>
+    </row>
+    <row r="327" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B327" s="3"/>
+    </row>
+    <row r="328" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B328" s="3"/>
+    </row>
+    <row r="329" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B329" s="3"/>
+    </row>
+    <row r="330" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B330" s="3"/>
+    </row>
+    <row r="331" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B331" s="3"/>
+    </row>
+    <row r="332" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B332" s="3"/>
+    </row>
+    <row r="333" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B333" s="3"/>
+    </row>
+    <row r="334" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B334" s="3"/>
+    </row>
+    <row r="335" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B335" s="3"/>
+    </row>
+    <row r="336" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B336" s="3"/>
+    </row>
+    <row r="337" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B337" s="3"/>
+    </row>
+    <row r="338" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B338" s="3"/>
+    </row>
+    <row r="339" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B339" s="3"/>
+    </row>
+    <row r="340" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B340" s="3"/>
+    </row>
+    <row r="341" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B341" s="3"/>
+    </row>
+    <row r="342" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B342" s="3"/>
+    </row>
+    <row r="343" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B343" s="3"/>
+    </row>
+    <row r="344" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B344" s="3"/>
+    </row>
+    <row r="345" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B345" s="3"/>
+    </row>
+    <row r="346" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B346" s="3"/>
+    </row>
+    <row r="347" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B347" s="3"/>
+    </row>
+    <row r="348" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B348" s="3"/>
+    </row>
+    <row r="349" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B349" s="3"/>
+    </row>
+    <row r="350" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B350" s="3"/>
+    </row>
+    <row r="351" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B351" s="3"/>
+    </row>
+    <row r="352" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B352" s="3"/>
+    </row>
+    <row r="353" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B353" s="3"/>
+    </row>
+    <row r="354" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B354" s="3"/>
+    </row>
+    <row r="355" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B355" s="3"/>
+    </row>
+    <row r="356" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B356" s="3"/>
+    </row>
+    <row r="357" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B357" s="3"/>
+    </row>
+    <row r="358" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B358" s="3"/>
+    </row>
+    <row r="359" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B359" s="3"/>
+    </row>
+    <row r="360" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B360" s="3"/>
+    </row>
+    <row r="361" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B361" s="3"/>
+    </row>
+    <row r="362" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B362" s="3"/>
+    </row>
+    <row r="363" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B363" s="3"/>
+    </row>
+    <row r="364" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B364" s="3"/>
+    </row>
+    <row r="365" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B365" s="3"/>
+    </row>
+    <row r="366" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B366" s="3"/>
+    </row>
+    <row r="367" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B367" s="3"/>
+    </row>
+    <row r="368" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B368" s="3"/>
+    </row>
+    <row r="369" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B369" s="3"/>
+    </row>
+    <row r="370" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B370" s="3"/>
+    </row>
+    <row r="371" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B371" s="3"/>
+    </row>
+    <row r="372" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B372" s="3"/>
+    </row>
+    <row r="373" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B373" s="3"/>
+    </row>
+    <row r="374" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B374" s="3"/>
+    </row>
+    <row r="375" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B375" s="3"/>
+    </row>
+    <row r="376" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B376" s="3"/>
+    </row>
+    <row r="377" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B377" s="3"/>
+    </row>
+    <row r="378" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B378" s="3"/>
+    </row>
+    <row r="379" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B379" s="3"/>
+    </row>
+    <row r="380" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B380" s="3"/>
+    </row>
+    <row r="381" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B381" s="3"/>
+    </row>
+    <row r="382" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B382" s="3"/>
+    </row>
+    <row r="383" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B383" s="3"/>
+    </row>
+    <row r="384" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B384" s="3"/>
+    </row>
+    <row r="385" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B385" s="3"/>
+    </row>
+    <row r="386" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B386" s="3"/>
+    </row>
+    <row r="387" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B387" s="3"/>
+    </row>
+    <row r="388" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B388" s="3"/>
+    </row>
+    <row r="389" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B389" s="3"/>
+    </row>
+    <row r="390" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B390" s="3"/>
+    </row>
+    <row r="391" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B391" s="3"/>
+    </row>
+    <row r="392" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B392" s="3"/>
+    </row>
+    <row r="393" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B393" s="3"/>
+    </row>
+    <row r="394" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B394" s="3"/>
+    </row>
+    <row r="395" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B395" s="3"/>
+    </row>
+    <row r="396" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B396" s="3"/>
+    </row>
+    <row r="397" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B397" s="3"/>
+    </row>
+    <row r="398" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B398" s="3"/>
+    </row>
+    <row r="399" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B399" s="3"/>
+    </row>
+    <row r="400" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B400" s="3"/>
+    </row>
+    <row r="401" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B401" s="3"/>
+    </row>
+    <row r="402" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B402" s="3"/>
+    </row>
+    <row r="403" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B403" s="3"/>
+    </row>
+    <row r="404" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B404" s="3"/>
+    </row>
+    <row r="405" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B405" s="3"/>
+    </row>
+    <row r="406" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B406" s="3"/>
+    </row>
+    <row r="407" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B407" s="3"/>
+    </row>
+    <row r="408" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B408" s="3"/>
+    </row>
+    <row r="409" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B409" s="3"/>
+    </row>
+    <row r="410" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B410" s="3"/>
+    </row>
+    <row r="411" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B411" s="3"/>
+    </row>
+    <row r="412" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B412" s="3"/>
+    </row>
+    <row r="413" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B413" s="3"/>
+    </row>
+    <row r="414" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B414" s="3"/>
+    </row>
+    <row r="415" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B415" s="3"/>
+    </row>
+    <row r="416" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B416" s="3"/>
+    </row>
+    <row r="417" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B417" s="3"/>
+    </row>
+    <row r="418" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B418" s="3"/>
+    </row>
+    <row r="419" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B419" s="3"/>
+    </row>
+    <row r="420" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B420" s="3"/>
+    </row>
+    <row r="421" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B421" s="3"/>
+    </row>
+    <row r="422" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B422" s="3"/>
+    </row>
+    <row r="423" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B423" s="3"/>
+    </row>
+    <row r="424" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B424" s="3"/>
+    </row>
+    <row r="425" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B425" s="3"/>
+    </row>
+    <row r="426" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B426" s="3"/>
+    </row>
+    <row r="427" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B427" s="3"/>
+    </row>
+    <row r="428" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B428" s="3"/>
+    </row>
+    <row r="429" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B429" s="3"/>
+    </row>
+    <row r="430" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B430" s="3"/>
+    </row>
+    <row r="431" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B431" s="3"/>
+    </row>
+    <row r="432" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B432" s="3"/>
+    </row>
+    <row r="433" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B433" s="3"/>
+    </row>
+    <row r="434" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B434" s="3"/>
+    </row>
+    <row r="435" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B435" s="3"/>
+    </row>
+    <row r="436" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B436" s="3"/>
+    </row>
+    <row r="437" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B437" s="3"/>
+    </row>
+    <row r="438" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B438" s="3"/>
+    </row>
+    <row r="439" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B439" s="3"/>
+    </row>
+    <row r="440" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B440" s="3"/>
+    </row>
+    <row r="441" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B441" s="3"/>
+    </row>
+    <row r="442" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B442" s="3"/>
+    </row>
+    <row r="443" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B443" s="3"/>
+    </row>
+    <row r="444" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B444" s="3"/>
+    </row>
+    <row r="445" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B445" s="3"/>
+    </row>
+    <row r="446" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B446" s="3"/>
+    </row>
+    <row r="447" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B447" s="3"/>
+    </row>
+    <row r="448" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B448" s="3"/>
+    </row>
+    <row r="449" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B449" s="3"/>
+    </row>
+    <row r="450" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B450" s="3"/>
+    </row>
+    <row r="451" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B451" s="3"/>
+    </row>
+    <row r="452" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B452" s="3"/>
+    </row>
+    <row r="453" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B453" s="3"/>
+    </row>
+    <row r="454" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B454" s="3"/>
+    </row>
+    <row r="455" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B455" s="3"/>
+    </row>
+    <row r="456" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B456" s="3"/>
+    </row>
+    <row r="457" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B457" s="3"/>
+    </row>
+    <row r="458" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B458" s="3"/>
+    </row>
+    <row r="459" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B459" s="3"/>
+    </row>
+    <row r="460" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B460" s="3"/>
+    </row>
+    <row r="461" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B461" s="3"/>
+    </row>
+    <row r="462" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B462" s="3"/>
+    </row>
+    <row r="463" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B463" s="3"/>
+    </row>
+    <row r="464" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B464" s="3"/>
+    </row>
+    <row r="465" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B465" s="3"/>
+    </row>
+    <row r="466" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B466" s="3"/>
+    </row>
+    <row r="467" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B467" s="3"/>
+    </row>
+    <row r="468" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B468" s="3"/>
+    </row>
+    <row r="469" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B469" s="3"/>
+    </row>
+    <row r="470" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B470" s="3"/>
+    </row>
+    <row r="471" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B471" s="3"/>
+    </row>
+    <row r="472" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B472" s="3"/>
+    </row>
+    <row r="473" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B473" s="3"/>
+    </row>
+    <row r="474" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B474" s="3"/>
+    </row>
+    <row r="475" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B475" s="3"/>
+    </row>
+    <row r="476" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B476" s="3"/>
+    </row>
+    <row r="477" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B477" s="3"/>
+    </row>
+    <row r="478" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B478" s="3"/>
+    </row>
+    <row r="479" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B479" s="3"/>
+    </row>
+    <row r="480" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B480" s="3"/>
+    </row>
+    <row r="481" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B481" s="3"/>
+    </row>
+    <row r="482" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B482" s="3"/>
+    </row>
+    <row r="483" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B483" s="3"/>
+    </row>
+    <row r="484" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B484" s="3"/>
+    </row>
+    <row r="485" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B485" s="3"/>
+    </row>
+    <row r="486" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B486" s="3"/>
+    </row>
+    <row r="487" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B487" s="3"/>
+    </row>
+    <row r="488" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B488" s="3"/>
+    </row>
+    <row r="489" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B489" s="3"/>
+    </row>
+    <row r="490" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B490" s="3"/>
+    </row>
+    <row r="491" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B491" s="3"/>
+    </row>
+    <row r="492" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B492" s="3"/>
+    </row>
+    <row r="493" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B493" s="3"/>
+    </row>
+    <row r="494" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B494" s="3"/>
+    </row>
+    <row r="495" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B495" s="3"/>
+    </row>
+    <row r="496" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B496" s="3"/>
+    </row>
+    <row r="497" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B497" s="3"/>
+    </row>
+    <row r="498" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B498" s="3"/>
+    </row>
+    <row r="499" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B499" s="3"/>
+    </row>
+    <row r="500" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B500" s="3"/>
+    </row>
+    <row r="501" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B501" s="3"/>
+    </row>
+    <row r="502" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B502" s="3"/>
+    </row>
+    <row r="503" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B503" s="3"/>
+    </row>
+    <row r="504" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B504" s="3"/>
+    </row>
+    <row r="505" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B505" s="3"/>
+    </row>
+    <row r="506" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B506" s="3"/>
+    </row>
+    <row r="507" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B507" s="3"/>
+    </row>
+    <row r="508" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B508" s="3"/>
+    </row>
+    <row r="509" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B509" s="3"/>
+    </row>
+    <row r="510" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B510" s="3"/>
+    </row>
+    <row r="511" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B511" s="3"/>
+    </row>
+    <row r="512" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B512" s="3"/>
+    </row>
+    <row r="513" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B513" s="3"/>
+    </row>
+    <row r="514" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B514" s="3"/>
+    </row>
+    <row r="515" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B515" s="3"/>
+    </row>
+    <row r="516" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B516" s="3"/>
+    </row>
+    <row r="517" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B517" s="3"/>
+    </row>
+    <row r="518" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B518" s="3"/>
+    </row>
+    <row r="519" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B519" s="3"/>
+    </row>
+    <row r="520" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B520" s="3"/>
+    </row>
+    <row r="521" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B521" s="3"/>
+    </row>
+    <row r="522" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B522" s="3"/>
+    </row>
+    <row r="523" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B523" s="3"/>
+    </row>
+    <row r="524" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B524" s="3"/>
+    </row>
+    <row r="525" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B525" s="3"/>
+    </row>
+    <row r="526" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B526" s="3"/>
+    </row>
+    <row r="527" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B527" s="3"/>
+    </row>
+    <row r="528" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B528" s="3"/>
+    </row>
+    <row r="529" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B529" s="3"/>
+    </row>
+    <row r="530" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B530" s="3"/>
+    </row>
+    <row r="531" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B531" s="3"/>
+    </row>
+    <row r="532" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B532" s="3"/>
+    </row>
+    <row r="533" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B533" s="3"/>
+    </row>
+    <row r="534" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B534" s="3"/>
+    </row>
+    <row r="535" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B535" s="3"/>
+    </row>
+    <row r="536" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B536" s="3"/>
+    </row>
+    <row r="537" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B537" s="3"/>
+    </row>
+    <row r="538" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B538" s="3"/>
+    </row>
+    <row r="539" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B539" s="3"/>
+    </row>
+    <row r="540" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B540" s="3"/>
+    </row>
+    <row r="541" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B541" s="3"/>
+    </row>
+    <row r="542" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B542" s="3"/>
+    </row>
+    <row r="543" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B543" s="3"/>
+    </row>
+    <row r="544" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B544" s="3"/>
+    </row>
+    <row r="545" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B545" s="3"/>
+    </row>
+    <row r="546" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B546" s="3"/>
+    </row>
+    <row r="547" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B547" s="3"/>
+    </row>
+    <row r="548" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B548" s="3"/>
+    </row>
+    <row r="549" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B549" s="3"/>
+    </row>
+    <row r="550" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B550" s="3"/>
+    </row>
+    <row r="551" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B551" s="3"/>
+    </row>
+    <row r="552" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B552" s="3"/>
+    </row>
+    <row r="553" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B553" s="3"/>
+    </row>
+    <row r="554" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B554" s="3"/>
+    </row>
+    <row r="555" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B555" s="3"/>
+    </row>
+    <row r="556" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B556" s="3"/>
+    </row>
+    <row r="557" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B557" s="3"/>
+    </row>
+    <row r="558" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B558" s="3"/>
+    </row>
+    <row r="559" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B559" s="3"/>
+    </row>
+    <row r="560" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B560" s="3"/>
+    </row>
+    <row r="561" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B561" s="3"/>
+    </row>
+    <row r="562" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B562" s="3"/>
+    </row>
+    <row r="563" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B563" s="3"/>
+    </row>
+    <row r="564" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B564" s="3"/>
+    </row>
+    <row r="565" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B565" s="3"/>
+    </row>
+    <row r="566" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B566" s="3"/>
+    </row>
+    <row r="567" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B567" s="3"/>
+    </row>
+    <row r="568" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B568" s="3"/>
+    </row>
+    <row r="569" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B569" s="3"/>
+    </row>
+    <row r="570" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B570" s="3"/>
+    </row>
+    <row r="571" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B571" s="3"/>
+    </row>
+    <row r="572" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B572" s="3"/>
+    </row>
+    <row r="573" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B573" s="3"/>
+    </row>
+    <row r="574" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B574" s="3"/>
+    </row>
+    <row r="575" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B575" s="3"/>
+    </row>
+    <row r="576" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B576" s="3"/>
+    </row>
+    <row r="577" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B577" s="3"/>
+    </row>
+    <row r="578" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B578" s="3"/>
+    </row>
+    <row r="579" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B579" s="3"/>
+    </row>
+    <row r="580" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B580" s="3"/>
+    </row>
+    <row r="581" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B581" s="3"/>
+    </row>
+    <row r="582" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B582" s="3"/>
+    </row>
+    <row r="583" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B583" s="3"/>
+    </row>
+    <row r="584" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B584" s="3"/>
+    </row>
+    <row r="585" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B585" s="3"/>
+    </row>
+    <row r="586" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B586" s="3"/>
+    </row>
+    <row r="587" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B587" s="3"/>
+    </row>
+    <row r="588" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B588" s="3"/>
+    </row>
+    <row r="589" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B589" s="3"/>
+    </row>
+    <row r="590" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B590" s="3"/>
+    </row>
+    <row r="591" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B591" s="3"/>
+    </row>
+    <row r="592" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B592" s="3"/>
+    </row>
+    <row r="593" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B593" s="3"/>
+    </row>
+    <row r="594" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B594" s="3"/>
+    </row>
+    <row r="595" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B595" s="3"/>
+    </row>
+    <row r="596" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B596" s="3"/>
+    </row>
+    <row r="597" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B597" s="3"/>
+    </row>
+    <row r="598" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B598" s="3"/>
+    </row>
+    <row r="599" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B599" s="3"/>
+    </row>
+    <row r="600" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B600" s="3"/>
+    </row>
+    <row r="601" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B601" s="3"/>
+    </row>
+    <row r="602" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B602" s="3"/>
+    </row>
+    <row r="603" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B603" s="3"/>
+    </row>
+    <row r="604" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B604" s="3"/>
+    </row>
+    <row r="605" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B605" s="3"/>
+    </row>
+    <row r="606" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B606" s="3"/>
+    </row>
+    <row r="607" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B607" s="3"/>
+    </row>
+    <row r="608" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B608" s="3"/>
+    </row>
+    <row r="609" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B609" s="3"/>
+    </row>
+    <row r="610" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B610" s="3"/>
+    </row>
+    <row r="611" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B611" s="3"/>
+    </row>
+    <row r="612" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B612" s="3"/>
+    </row>
+    <row r="613" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B613" s="3"/>
+    </row>
+    <row r="614" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B614" s="3"/>
+    </row>
+    <row r="615" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B615" s="3"/>
+    </row>
+    <row r="616" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B616" s="3"/>
+    </row>
+    <row r="617" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B617" s="3"/>
+    </row>
+    <row r="618" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B618" s="3"/>
+    </row>
+    <row r="619" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B619" s="3"/>
+    </row>
+    <row r="620" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B620" s="3"/>
+    </row>
+    <row r="621" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B621" s="3"/>
+    </row>
+    <row r="622" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B622" s="3"/>
+    </row>
+    <row r="623" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B623" s="3"/>
+    </row>
+    <row r="624" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B624" s="3"/>
+    </row>
+    <row r="625" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B625" s="3"/>
+    </row>
+    <row r="626" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B626" s="3"/>
+    </row>
+    <row r="627" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B627" s="3"/>
+    </row>
+    <row r="628" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B628" s="3"/>
+    </row>
+    <row r="629" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B629" s="3"/>
+    </row>
+    <row r="630" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B630" s="3"/>
+    </row>
+    <row r="631" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B631" s="3"/>
+    </row>
+    <row r="632" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B632" s="3"/>
+    </row>
+    <row r="633" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B633" s="3"/>
+    </row>
+    <row r="634" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B634" s="3"/>
+    </row>
+    <row r="635" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B635" s="3"/>
+    </row>
+    <row r="636" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B636" s="3"/>
+    </row>
+    <row r="637" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B637" s="3"/>
+    </row>
+    <row r="638" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B638" s="3"/>
+    </row>
+    <row r="639" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B639" s="3"/>
+    </row>
+    <row r="640" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B640" s="3"/>
+    </row>
+    <row r="641" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B641" s="3"/>
+    </row>
+    <row r="642" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B642" s="3"/>
+    </row>
+    <row r="643" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B643" s="3"/>
+    </row>
+    <row r="644" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B644" s="3"/>
+    </row>
+    <row r="645" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B645" s="3"/>
+    </row>
+    <row r="646" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B646" s="3"/>
+    </row>
+    <row r="647" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B647" s="3"/>
+    </row>
+    <row r="648" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B648" s="3"/>
+    </row>
+    <row r="649" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B649" s="3"/>
+    </row>
+    <row r="650" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B650" s="3"/>
+    </row>
+    <row r="651" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B651" s="3"/>
+    </row>
+    <row r="652" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B652" s="3"/>
+    </row>
+    <row r="653" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B653" s="3"/>
+    </row>
+    <row r="654" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B654" s="3"/>
+    </row>
+    <row r="655" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B655" s="3"/>
+    </row>
+    <row r="656" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B656" s="3"/>
+    </row>
+    <row r="657" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B657" s="3"/>
+    </row>
+    <row r="658" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B658" s="3"/>
+    </row>
+    <row r="659" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B659" s="3"/>
+    </row>
+    <row r="660" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B660" s="3"/>
+    </row>
+    <row r="661" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B661" s="3"/>
+    </row>
+    <row r="662" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B662" s="3"/>
+    </row>
+    <row r="663" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B663" s="3"/>
+    </row>
+    <row r="664" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B664" s="3"/>
+    </row>
+    <row r="665" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B665" s="3"/>
+    </row>
+    <row r="666" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B666" s="3"/>
+    </row>
+    <row r="667" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B667" s="3"/>
+    </row>
+    <row r="668" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B668" s="3"/>
+    </row>
+    <row r="669" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B669" s="3"/>
+    </row>
+    <row r="670" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B670" s="3"/>
+    </row>
+    <row r="671" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B671" s="3"/>
+    </row>
+    <row r="672" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B672" s="3"/>
+    </row>
+    <row r="673" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B673" s="3"/>
+    </row>
+    <row r="674" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B674" s="3"/>
+    </row>
+    <row r="675" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B675" s="3"/>
+    </row>
+    <row r="676" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B676" s="3"/>
+    </row>
+    <row r="677" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B677" s="3"/>
+    </row>
+    <row r="678" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B678" s="3"/>
+    </row>
+    <row r="679" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B679" s="3"/>
+    </row>
+    <row r="680" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B680" s="3"/>
+    </row>
+    <row r="681" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B681" s="3"/>
+    </row>
+    <row r="682" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B682" s="3"/>
+    </row>
+    <row r="683" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B683" s="3"/>
+    </row>
+    <row r="684" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B684" s="3"/>
+    </row>
+    <row r="685" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B685" s="3"/>
+    </row>
+    <row r="686" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B686" s="3"/>
+    </row>
+    <row r="687" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B687" s="3"/>
+    </row>
+    <row r="688" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B688" s="3"/>
+    </row>
+    <row r="689" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B689" s="3"/>
+    </row>
+    <row r="690" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B690" s="3"/>
+    </row>
+    <row r="691" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B691" s="3"/>
+    </row>
+    <row r="692" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B692" s="3"/>
+    </row>
+    <row r="693" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B693" s="3"/>
+    </row>
+    <row r="694" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B694" s="3"/>
+    </row>
+    <row r="695" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B695" s="3"/>
+    </row>
+    <row r="696" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B696" s="3"/>
+    </row>
+    <row r="697" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B697" s="3"/>
+    </row>
+    <row r="698" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B698" s="3"/>
+    </row>
+    <row r="699" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B699" s="3"/>
+    </row>
+    <row r="700" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B700" s="3"/>
+    </row>
+    <row r="701" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B701" s="3"/>
+    </row>
+    <row r="702" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B702" s="3"/>
+    </row>
+    <row r="703" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B703" s="3"/>
+    </row>
+    <row r="704" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B704" s="3"/>
+    </row>
+    <row r="705" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B705" s="3"/>
+    </row>
+    <row r="706" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B706" s="3"/>
+    </row>
+    <row r="707" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B707" s="3"/>
+    </row>
+    <row r="708" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B708" s="3"/>
+    </row>
+    <row r="709" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B709" s="3"/>
+    </row>
+    <row r="710" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B710" s="3"/>
+    </row>
+    <row r="711" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B711" s="3"/>
+    </row>
+    <row r="712" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B712" s="3"/>
+    </row>
+    <row r="713" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B713" s="3"/>
+    </row>
+    <row r="714" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B714" s="3"/>
+    </row>
+    <row r="715" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B715" s="3"/>
+    </row>
+    <row r="716" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B716" s="3"/>
+    </row>
+    <row r="717" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B717" s="3"/>
+    </row>
+    <row r="718" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B718" s="3"/>
+    </row>
+    <row r="719" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B719" s="3"/>
+    </row>
+    <row r="720" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B720" s="3"/>
+    </row>
+    <row r="721" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B721" s="3"/>
+    </row>
+    <row r="722" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B722" s="3"/>
+    </row>
+    <row r="723" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B723" s="3"/>
+    </row>
+    <row r="724" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B724" s="3"/>
+    </row>
+    <row r="725" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B725" s="3"/>
+    </row>
+    <row r="726" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B726" s="3"/>
+    </row>
+    <row r="727" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B727" s="3"/>
+    </row>
+    <row r="728" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B728" s="3"/>
+    </row>
+    <row r="729" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B729" s="3"/>
+    </row>
+    <row r="730" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B730" s="3"/>
+    </row>
+    <row r="731" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B731" s="3"/>
+    </row>
+    <row r="732" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B732" s="3"/>
+    </row>
+    <row r="733" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B733" s="3"/>
+    </row>
+    <row r="734" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B734" s="3"/>
+    </row>
+    <row r="735" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B735" s="3"/>
+    </row>
+    <row r="736" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B736" s="3"/>
+    </row>
+    <row r="737" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B737" s="3"/>
+    </row>
+    <row r="738" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B738" s="3"/>
+    </row>
+    <row r="739" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B739" s="3"/>
+    </row>
+    <row r="740" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B740" s="3"/>
+    </row>
+    <row r="741" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B741" s="3"/>
+    </row>
+    <row r="742" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B742" s="3"/>
+    </row>
+    <row r="743" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B743" s="3"/>
+    </row>
+    <row r="744" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B744" s="3"/>
+    </row>
+    <row r="745" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B745" s="3"/>
+    </row>
+    <row r="746" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B746" s="3"/>
+    </row>
+    <row r="747" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B747" s="3"/>
+    </row>
+    <row r="748" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B748" s="3"/>
+    </row>
+    <row r="749" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B749" s="3"/>
+    </row>
+    <row r="750" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B750" s="3"/>
+    </row>
+    <row r="751" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B751" s="3"/>
+    </row>
+    <row r="752" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B752" s="3"/>
+    </row>
+    <row r="753" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B753" s="3"/>
+    </row>
+    <row r="754" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B754" s="3"/>
+    </row>
+    <row r="755" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B755" s="3"/>
+    </row>
+    <row r="756" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B756" s="3"/>
+    </row>
+    <row r="757" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B757" s="3"/>
+    </row>
+    <row r="758" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B758" s="3"/>
+    </row>
+    <row r="759" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B759" s="3"/>
+    </row>
+    <row r="760" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B760" s="3"/>
+    </row>
+    <row r="761" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B761" s="3"/>
+    </row>
+    <row r="762" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B762" s="3"/>
+    </row>
+    <row r="763" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B763" s="3"/>
+    </row>
+    <row r="764" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B764" s="3"/>
+    </row>
+    <row r="765" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B765" s="3"/>
+    </row>
+    <row r="766" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B766" s="3"/>
+    </row>
+    <row r="767" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B767" s="3"/>
+    </row>
+    <row r="768" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B768" s="3"/>
+    </row>
+    <row r="769" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B769" s="3"/>
+    </row>
+    <row r="770" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B770" s="3"/>
+    </row>
+    <row r="771" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B771" s="3"/>
+    </row>
+    <row r="772" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B772" s="3"/>
+    </row>
+    <row r="773" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B773" s="3"/>
+    </row>
+    <row r="774" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B774" s="3"/>
+    </row>
+    <row r="775" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B775" s="3"/>
+    </row>
+    <row r="776" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B776" s="3"/>
+    </row>
+    <row r="777" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B777" s="3"/>
+    </row>
+    <row r="778" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B778" s="3"/>
+    </row>
+    <row r="779" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B779" s="3"/>
+    </row>
+    <row r="780" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B780" s="3"/>
+    </row>
+    <row r="781" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B781" s="3"/>
+    </row>
+    <row r="782" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B782" s="3"/>
+    </row>
+    <row r="783" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B783" s="3"/>
+    </row>
+    <row r="784" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B784" s="3"/>
+    </row>
+    <row r="785" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B785" s="3"/>
+    </row>
+    <row r="786" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B786" s="3"/>
+    </row>
+    <row r="787" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B787" s="3"/>
+    </row>
+    <row r="788" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B788" s="3"/>
+    </row>
+    <row r="789" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B789" s="3"/>
+    </row>
+    <row r="790" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B790" s="3"/>
+    </row>
+    <row r="791" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B791" s="3"/>
+    </row>
+    <row r="792" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B792" s="3"/>
+    </row>
+    <row r="793" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B793" s="3"/>
+    </row>
+    <row r="794" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B794" s="3"/>
+    </row>
+    <row r="795" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B795" s="3"/>
+    </row>
+    <row r="796" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B796" s="3"/>
+    </row>
+    <row r="797" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B797" s="3"/>
+    </row>
+    <row r="798" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B798" s="3"/>
+    </row>
+    <row r="799" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B799" s="3"/>
+    </row>
+    <row r="800" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B800" s="3"/>
+    </row>
+    <row r="801" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B801" s="3"/>
+    </row>
+    <row r="802" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B802" s="3"/>
+    </row>
+    <row r="803" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B803" s="3"/>
+    </row>
+    <row r="804" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B804" s="3"/>
+    </row>
+    <row r="805" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B805" s="3"/>
+    </row>
+    <row r="806" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B806" s="3"/>
+    </row>
+    <row r="807" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B807" s="3"/>
+    </row>
+    <row r="808" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B808" s="3"/>
+    </row>
+    <row r="809" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B809" s="3"/>
+    </row>
+    <row r="810" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B810" s="3"/>
+    </row>
+    <row r="811" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B811" s="3"/>
+    </row>
+    <row r="812" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B812" s="3"/>
+    </row>
+    <row r="813" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B813" s="3"/>
+    </row>
+    <row r="814" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B814" s="3"/>
+    </row>
+    <row r="815" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B815" s="3"/>
+    </row>
+    <row r="816" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B816" s="3"/>
+    </row>
+    <row r="817" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B817" s="3"/>
+    </row>
+    <row r="818" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B818" s="3"/>
+    </row>
+    <row r="819" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B819" s="3"/>
+    </row>
+    <row r="820" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B820" s="3"/>
+    </row>
+    <row r="821" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B821" s="3"/>
+    </row>
+    <row r="822" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B822" s="3"/>
+    </row>
+    <row r="823" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B823" s="3"/>
+    </row>
+    <row r="824" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B824" s="3"/>
+    </row>
+    <row r="825" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B825" s="3"/>
+    </row>
+    <row r="826" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B826" s="3"/>
+    </row>
+    <row r="827" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B827" s="3"/>
+    </row>
+    <row r="828" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B828" s="3"/>
+    </row>
+    <row r="829" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B829" s="3"/>
+    </row>
+    <row r="830" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B830" s="3"/>
+    </row>
+    <row r="831" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B831" s="3"/>
+    </row>
+    <row r="832" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B832" s="3"/>
+    </row>
+    <row r="833" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B833" s="3"/>
+    </row>
+    <row r="834" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B834" s="3"/>
+    </row>
+    <row r="835" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B835" s="3"/>
+    </row>
+    <row r="836" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B836" s="3"/>
+    </row>
+    <row r="837" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B837" s="3"/>
+    </row>
+    <row r="838" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B838" s="3"/>
+    </row>
+    <row r="839" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B839" s="3"/>
+    </row>
+    <row r="840" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B840" s="3"/>
+    </row>
+    <row r="841" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B841" s="3"/>
+    </row>
+    <row r="842" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B842" s="3"/>
+    </row>
+    <row r="843" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B843" s="3"/>
+    </row>
+    <row r="844" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B844" s="3"/>
+    </row>
+    <row r="845" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B845" s="3"/>
+    </row>
+    <row r="846" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B846" s="3"/>
+    </row>
+    <row r="847" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B847" s="3"/>
+    </row>
+    <row r="848" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B848" s="3"/>
+    </row>
+    <row r="849" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B849" s="3"/>
+    </row>
+    <row r="850" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B850" s="3"/>
+    </row>
+    <row r="851" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B851" s="3"/>
+    </row>
+    <row r="852" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B852" s="3"/>
+    </row>
+    <row r="853" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B853" s="3"/>
+    </row>
+    <row r="854" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B854" s="3"/>
+    </row>
+    <row r="855" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B855" s="3"/>
+    </row>
+    <row r="856" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B856" s="3"/>
+    </row>
+    <row r="857" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B857" s="3"/>
+    </row>
+    <row r="858" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B858" s="3"/>
+    </row>
+    <row r="859" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B859" s="3"/>
+    </row>
+    <row r="860" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B860" s="3"/>
+    </row>
+    <row r="861" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B861" s="3"/>
+    </row>
+    <row r="862" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B862" s="3"/>
+    </row>
+    <row r="863" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B863" s="3"/>
+    </row>
+    <row r="864" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B864" s="3"/>
+    </row>
+    <row r="865" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B865" s="3"/>
+    </row>
+    <row r="866" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B866" s="3"/>
+    </row>
+    <row r="867" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B867" s="3"/>
+    </row>
+    <row r="868" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B868" s="3"/>
+    </row>
+    <row r="869" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B869" s="3"/>
+    </row>
+    <row r="870" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B870" s="3"/>
+    </row>
+    <row r="871" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B871" s="3"/>
+    </row>
+    <row r="872" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B872" s="3"/>
+    </row>
+    <row r="873" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B873" s="3"/>
+    </row>
+    <row r="874" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B874" s="3"/>
+    </row>
+    <row r="875" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B875" s="3"/>
+    </row>
+    <row r="876" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B876" s="3"/>
+    </row>
+    <row r="877" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B877" s="3"/>
+    </row>
+    <row r="878" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B878" s="3"/>
+    </row>
+    <row r="879" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B879" s="3"/>
+    </row>
+    <row r="880" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B880" s="3"/>
+    </row>
+    <row r="881" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B881" s="3"/>
+    </row>
+    <row r="882" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B882" s="3"/>
+    </row>
+    <row r="883" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B883" s="3"/>
+    </row>
+    <row r="884" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B884" s="3"/>
+    </row>
+    <row r="885" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B885" s="3"/>
+    </row>
+    <row r="886" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B886" s="3"/>
+    </row>
+    <row r="887" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B887" s="3"/>
+    </row>
+    <row r="888" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B888" s="3"/>
+    </row>
+    <row r="889" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B889" s="3"/>
+    </row>
+    <row r="890" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B890" s="3"/>
+    </row>
+    <row r="891" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B891" s="3"/>
+    </row>
+    <row r="892" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B892" s="3"/>
+    </row>
+    <row r="893" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B893" s="3"/>
+    </row>
+    <row r="894" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B894" s="3"/>
+    </row>
+    <row r="895" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B895" s="3"/>
+    </row>
+    <row r="896" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B896" s="3"/>
+    </row>
+    <row r="897" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B897" s="3"/>
+    </row>
+    <row r="898" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B898" s="3"/>
+    </row>
+    <row r="899" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B899" s="3"/>
+    </row>
+    <row r="900" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B900" s="3"/>
+    </row>
+    <row r="901" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B901" s="3"/>
+    </row>
+    <row r="902" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B902" s="3"/>
+    </row>
+    <row r="903" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B903" s="3"/>
+    </row>
+    <row r="904" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B904" s="3"/>
+    </row>
+    <row r="905" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B905" s="3"/>
+    </row>
+    <row r="906" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B906" s="3"/>
+    </row>
+    <row r="907" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B907" s="3"/>
+    </row>
+    <row r="908" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B908" s="3"/>
+    </row>
+    <row r="909" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B909" s="3"/>
+    </row>
+    <row r="910" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B910" s="3"/>
+    </row>
+    <row r="911" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B911" s="3"/>
+    </row>
+    <row r="912" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B912" s="3"/>
+    </row>
+    <row r="913" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B913" s="3"/>
+    </row>
+    <row r="914" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B914" s="3"/>
+    </row>
+    <row r="915" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B915" s="3"/>
+    </row>
+    <row r="916" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B916" s="3"/>
+    </row>
+    <row r="917" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B917" s="3"/>
+    </row>
+    <row r="918" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B918" s="3"/>
+    </row>
+    <row r="919" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B919" s="3"/>
+    </row>
+    <row r="920" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B920" s="3"/>
+    </row>
+    <row r="921" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B921" s="3"/>
+    </row>
+    <row r="922" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B922" s="3"/>
+    </row>
+    <row r="923" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B923" s="3"/>
+    </row>
+    <row r="924" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B924" s="3"/>
+    </row>
+    <row r="925" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B925" s="3"/>
+    </row>
+    <row r="926" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B926" s="3"/>
+    </row>
+    <row r="927" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B927" s="3"/>
+    </row>
+    <row r="928" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B928" s="3"/>
+    </row>
+    <row r="929" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B929" s="3"/>
+    </row>
+    <row r="930" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B930" s="3"/>
+    </row>
+    <row r="931" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B931" s="3"/>
+    </row>
+    <row r="932" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B932" s="3"/>
+    </row>
+    <row r="933" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B933" s="3"/>
+    </row>
+    <row r="934" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B934" s="3"/>
+    </row>
+    <row r="935" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B935" s="3"/>
+    </row>
+    <row r="936" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B936" s="3"/>
+    </row>
+    <row r="937" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B937" s="3"/>
+    </row>
+    <row r="938" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B938" s="3"/>
+    </row>
+    <row r="939" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B939" s="3"/>
+    </row>
+    <row r="940" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B940" s="3"/>
+    </row>
+    <row r="941" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B941" s="3"/>
+    </row>
+    <row r="942" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B942" s="3"/>
+    </row>
+    <row r="943" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B943" s="3"/>
+    </row>
+    <row r="944" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B944" s="3"/>
+    </row>
+    <row r="945" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B945" s="3"/>
+    </row>
+    <row r="946" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B946" s="3"/>
+    </row>
+    <row r="947" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B947" s="3"/>
+    </row>
+    <row r="948" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B948" s="3"/>
+    </row>
+    <row r="949" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B949" s="3"/>
+    </row>
+    <row r="950" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B950" s="3"/>
+    </row>
+    <row r="951" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B951" s="3"/>
+    </row>
+    <row r="952" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B952" s="3"/>
+    </row>
+    <row r="953" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B953" s="3"/>
+    </row>
+    <row r="954" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B954" s="3"/>
+    </row>
+    <row r="955" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B955" s="3"/>
+    </row>
+    <row r="956" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B956" s="3"/>
+    </row>
+    <row r="957" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B957" s="3"/>
+    </row>
+    <row r="958" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B958" s="3"/>
+    </row>
+    <row r="959" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B959" s="3"/>
+    </row>
+    <row r="960" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B960" s="3"/>
+    </row>
+    <row r="961" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B961" s="3"/>
+    </row>
+    <row r="962" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B962" s="3"/>
+    </row>
+    <row r="963" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B963" s="3"/>
+    </row>
+    <row r="964" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B964" s="3"/>
+    </row>
+    <row r="965" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B965" s="3"/>
+    </row>
+    <row r="966" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B966" s="3"/>
+    </row>
+    <row r="967" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B967" s="3"/>
+    </row>
+    <row r="968" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B968" s="3"/>
+    </row>
+    <row r="969" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B969" s="3"/>
+    </row>
+    <row r="970" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B970" s="3"/>
+    </row>
+    <row r="971" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B971" s="3"/>
+    </row>
+    <row r="972" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B972" s="3"/>
+    </row>
+    <row r="973" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B973" s="3"/>
+    </row>
+    <row r="974" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B974" s="3"/>
+    </row>
+    <row r="975" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B975" s="3"/>
+    </row>
+    <row r="976" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B976" s="3"/>
+    </row>
+    <row r="977" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B977" s="3"/>
+    </row>
+    <row r="978" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B978" s="3"/>
+    </row>
+    <row r="979" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B979" s="3"/>
+    </row>
+    <row r="980" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B980" s="3"/>
+    </row>
+    <row r="981" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B981" s="3"/>
+    </row>
+    <row r="982" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B982" s="3"/>
+    </row>
+    <row r="983" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B983" s="3"/>
+    </row>
+    <row r="984" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B984" s="3"/>
+    </row>
+    <row r="985" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B985" s="3"/>
+    </row>
+    <row r="986" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B986" s="3"/>
+    </row>
+    <row r="987" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B987" s="3"/>
+    </row>
+    <row r="988" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B988" s="3"/>
+    </row>
+    <row r="989" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B989" s="3"/>
+    </row>
+    <row r="990" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B990" s="3"/>
+    </row>
+    <row r="991" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B991" s="3"/>
+    </row>
+    <row r="992" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B992" s="3"/>
+    </row>
+    <row r="993" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B993" s="3"/>
+    </row>
+    <row r="994" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B994" s="3"/>
+    </row>
+    <row r="995" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B995" s="3"/>
+    </row>
+    <row r="996" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B996" s="3"/>
+    </row>
+    <row r="997" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B997" s="3"/>
+    </row>
+    <row r="998" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B998" s="3"/>
+    </row>
+    <row r="999" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B999" s="3"/>
+    </row>
+    <row r="1000" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1000" s="3"/>
+    </row>
+    <row r="1001" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1001" s="3"/>
+    </row>
+    <row r="1002" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1002" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="D25:H25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CEFE34F-2070-49CD-8F06-CB4BE1EB1541}">
+  <dimension ref="A1:Z1003"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="26" width="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="21.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="1:26" ht="5.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -911,3410 +4761,6 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="15">
-        <v>25.9</v>
-      </c>
-      <c r="E4" s="17">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="15">
-        <v>29.9</v>
-      </c>
-      <c r="E5" s="17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="15">
-        <v>32.9</v>
-      </c>
-      <c r="E6" s="18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="15">
-        <v>399.9</v>
-      </c>
-      <c r="E7" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="15">
-        <v>249.9</v>
-      </c>
-      <c r="E8" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="15">
-        <v>259.89999999999998</v>
-      </c>
-      <c r="E9" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="15">
-        <v>299.89999999999998</v>
-      </c>
-      <c r="E10" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="15">
-        <v>85.9</v>
-      </c>
-      <c r="E11" s="18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="15">
-        <v>89.9</v>
-      </c>
-      <c r="E12" s="18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="15">
-        <v>92.9</v>
-      </c>
-      <c r="E13" s="18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="15">
-        <v>149.9</v>
-      </c>
-      <c r="E14" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="15">
-        <v>65.900000000000006</v>
-      </c>
-      <c r="E15" s="18">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="15">
-        <v>69.900000000000006</v>
-      </c>
-      <c r="E16" s="18">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="15">
-        <v>70.900000000000006</v>
-      </c>
-      <c r="E17" s="18">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="6">
-        <v>36</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="15">
-        <v>199.9</v>
-      </c>
-      <c r="E18" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="6">
-        <v>37</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="15">
-        <v>249.9</v>
-      </c>
-      <c r="E19" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="6">
-        <v>38</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="15">
-        <v>259.89999999999998</v>
-      </c>
-      <c r="E20" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="15">
-        <v>259.89999999999998</v>
-      </c>
-      <c r="E21" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="15">
-        <v>39.9</v>
-      </c>
-      <c r="E22" s="18">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="16">
-        <v>49.9</v>
-      </c>
-      <c r="E23" s="19">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="3"/>
-      <c r="C24" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="24">
-        <f>SUM(D4:D23)</f>
-        <v>2983.0000000000009</v>
-      </c>
-      <c r="E24">
-        <f>SUM(E4:E23)</f>
-        <v>132</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="3"/>
-      <c r="C25" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="24">
-        <f>AVERAGE(D4:D23)</f>
-        <v>149.15000000000003</v>
-      </c>
-      <c r="E25">
-        <f>AVERAGE(E4:E23)</f>
-        <v>6.6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="3"/>
-      <c r="C26" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26">
-        <f>LARGE(D4:D23, 1)</f>
-        <v>399.9</v>
-      </c>
-      <c r="E26">
-        <f>LARGE(E4:E23, 1)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="3"/>
-      <c r="C27" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27">
-        <f>SMALL(D4:D23, 1)</f>
-        <v>25.9</v>
-      </c>
-      <c r="E27">
-        <f>SMALL(E4:E23, 1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="3"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="24"/>
-    </row>
-    <row r="29" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="3"/>
-    </row>
-    <row r="30" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="3"/>
-    </row>
-    <row r="31" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="3"/>
-    </row>
-    <row r="32" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="3"/>
-    </row>
-    <row r="33" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="3"/>
-    </row>
-    <row r="34" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="3"/>
-    </row>
-    <row r="35" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="3"/>
-    </row>
-    <row r="36" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="3"/>
-    </row>
-    <row r="37" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="3"/>
-    </row>
-    <row r="38" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="3"/>
-    </row>
-    <row r="39" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="3"/>
-    </row>
-    <row r="40" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="3"/>
-    </row>
-    <row r="41" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="3"/>
-    </row>
-    <row r="42" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="3"/>
-    </row>
-    <row r="43" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="3"/>
-    </row>
-    <row r="44" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="3"/>
-    </row>
-    <row r="45" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="3"/>
-    </row>
-    <row r="46" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="3"/>
-    </row>
-    <row r="47" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="3"/>
-    </row>
-    <row r="48" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="3"/>
-    </row>
-    <row r="49" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="3"/>
-    </row>
-    <row r="50" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="3"/>
-    </row>
-    <row r="51" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="3"/>
-    </row>
-    <row r="52" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="3"/>
-    </row>
-    <row r="53" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="3"/>
-    </row>
-    <row r="54" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="3"/>
-    </row>
-    <row r="55" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="3"/>
-    </row>
-    <row r="56" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="3"/>
-    </row>
-    <row r="57" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="3"/>
-    </row>
-    <row r="58" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="3"/>
-    </row>
-    <row r="59" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="3"/>
-    </row>
-    <row r="60" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="3"/>
-    </row>
-    <row r="61" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="3"/>
-    </row>
-    <row r="62" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="3"/>
-    </row>
-    <row r="63" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="3"/>
-    </row>
-    <row r="64" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="3"/>
-    </row>
-    <row r="65" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="3"/>
-    </row>
-    <row r="66" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="3"/>
-    </row>
-    <row r="67" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="3"/>
-    </row>
-    <row r="68" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="3"/>
-    </row>
-    <row r="69" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="3"/>
-    </row>
-    <row r="70" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="3"/>
-    </row>
-    <row r="71" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="3"/>
-    </row>
-    <row r="72" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="3"/>
-    </row>
-    <row r="73" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="3"/>
-    </row>
-    <row r="74" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="3"/>
-    </row>
-    <row r="75" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="3"/>
-    </row>
-    <row r="76" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="3"/>
-    </row>
-    <row r="77" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="3"/>
-    </row>
-    <row r="78" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="3"/>
-    </row>
-    <row r="79" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="3"/>
-    </row>
-    <row r="80" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="3"/>
-    </row>
-    <row r="81" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="3"/>
-    </row>
-    <row r="82" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="3"/>
-    </row>
-    <row r="83" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="3"/>
-    </row>
-    <row r="84" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="3"/>
-    </row>
-    <row r="85" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="3"/>
-    </row>
-    <row r="86" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="3"/>
-    </row>
-    <row r="87" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="3"/>
-    </row>
-    <row r="88" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="3"/>
-    </row>
-    <row r="89" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B89" s="3"/>
-    </row>
-    <row r="90" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B90" s="3"/>
-    </row>
-    <row r="91" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="3"/>
-    </row>
-    <row r="92" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B92" s="3"/>
-    </row>
-    <row r="93" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B93" s="3"/>
-    </row>
-    <row r="94" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B94" s="3"/>
-    </row>
-    <row r="95" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B95" s="3"/>
-    </row>
-    <row r="96" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B96" s="3"/>
-    </row>
-    <row r="97" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B97" s="3"/>
-    </row>
-    <row r="98" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B98" s="3"/>
-    </row>
-    <row r="99" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B99" s="3"/>
-    </row>
-    <row r="100" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B100" s="3"/>
-    </row>
-    <row r="101" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B101" s="3"/>
-    </row>
-    <row r="102" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B102" s="3"/>
-    </row>
-    <row r="103" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B103" s="3"/>
-    </row>
-    <row r="104" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B104" s="3"/>
-    </row>
-    <row r="105" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B105" s="3"/>
-    </row>
-    <row r="106" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B106" s="3"/>
-    </row>
-    <row r="107" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B107" s="3"/>
-    </row>
-    <row r="108" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B108" s="3"/>
-    </row>
-    <row r="109" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B109" s="3"/>
-    </row>
-    <row r="110" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B110" s="3"/>
-    </row>
-    <row r="111" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B111" s="3"/>
-    </row>
-    <row r="112" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B112" s="3"/>
-    </row>
-    <row r="113" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B113" s="3"/>
-    </row>
-    <row r="114" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B114" s="3"/>
-    </row>
-    <row r="115" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B115" s="3"/>
-    </row>
-    <row r="116" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B116" s="3"/>
-    </row>
-    <row r="117" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B117" s="3"/>
-    </row>
-    <row r="118" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B118" s="3"/>
-    </row>
-    <row r="119" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B119" s="3"/>
-    </row>
-    <row r="120" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B120" s="3"/>
-    </row>
-    <row r="121" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B121" s="3"/>
-    </row>
-    <row r="122" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B122" s="3"/>
-    </row>
-    <row r="123" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B123" s="3"/>
-    </row>
-    <row r="124" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B124" s="3"/>
-    </row>
-    <row r="125" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B125" s="3"/>
-    </row>
-    <row r="126" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B126" s="3"/>
-    </row>
-    <row r="127" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B127" s="3"/>
-    </row>
-    <row r="128" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B128" s="3"/>
-    </row>
-    <row r="129" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B129" s="3"/>
-    </row>
-    <row r="130" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B130" s="3"/>
-    </row>
-    <row r="131" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B131" s="3"/>
-    </row>
-    <row r="132" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B132" s="3"/>
-    </row>
-    <row r="133" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B133" s="3"/>
-    </row>
-    <row r="134" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B134" s="3"/>
-    </row>
-    <row r="135" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B135" s="3"/>
-    </row>
-    <row r="136" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B136" s="3"/>
-    </row>
-    <row r="137" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B137" s="3"/>
-    </row>
-    <row r="138" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B138" s="3"/>
-    </row>
-    <row r="139" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B139" s="3"/>
-    </row>
-    <row r="140" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B140" s="3"/>
-    </row>
-    <row r="141" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B141" s="3"/>
-    </row>
-    <row r="142" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B142" s="3"/>
-    </row>
-    <row r="143" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B143" s="3"/>
-    </row>
-    <row r="144" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B144" s="3"/>
-    </row>
-    <row r="145" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B145" s="3"/>
-    </row>
-    <row r="146" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B146" s="3"/>
-    </row>
-    <row r="147" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B147" s="3"/>
-    </row>
-    <row r="148" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B148" s="3"/>
-    </row>
-    <row r="149" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B149" s="3"/>
-    </row>
-    <row r="150" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B150" s="3"/>
-    </row>
-    <row r="151" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B151" s="3"/>
-    </row>
-    <row r="152" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B152" s="3"/>
-    </row>
-    <row r="153" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B153" s="3"/>
-    </row>
-    <row r="154" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B154" s="3"/>
-    </row>
-    <row r="155" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B155" s="3"/>
-    </row>
-    <row r="156" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B156" s="3"/>
-    </row>
-    <row r="157" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B157" s="3"/>
-    </row>
-    <row r="158" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B158" s="3"/>
-    </row>
-    <row r="159" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B159" s="3"/>
-    </row>
-    <row r="160" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B160" s="3"/>
-    </row>
-    <row r="161" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B161" s="3"/>
-    </row>
-    <row r="162" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B162" s="3"/>
-    </row>
-    <row r="163" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B163" s="3"/>
-    </row>
-    <row r="164" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B164" s="3"/>
-    </row>
-    <row r="165" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B165" s="3"/>
-    </row>
-    <row r="166" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B166" s="3"/>
-    </row>
-    <row r="167" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B167" s="3"/>
-    </row>
-    <row r="168" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B168" s="3"/>
-    </row>
-    <row r="169" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B169" s="3"/>
-    </row>
-    <row r="170" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B170" s="3"/>
-    </row>
-    <row r="171" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B171" s="3"/>
-    </row>
-    <row r="172" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B172" s="3"/>
-    </row>
-    <row r="173" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B173" s="3"/>
-    </row>
-    <row r="174" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B174" s="3"/>
-    </row>
-    <row r="175" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B175" s="3"/>
-    </row>
-    <row r="176" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B176" s="3"/>
-    </row>
-    <row r="177" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B177" s="3"/>
-    </row>
-    <row r="178" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B178" s="3"/>
-    </row>
-    <row r="179" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B179" s="3"/>
-    </row>
-    <row r="180" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B180" s="3"/>
-    </row>
-    <row r="181" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B181" s="3"/>
-    </row>
-    <row r="182" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B182" s="3"/>
-    </row>
-    <row r="183" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B183" s="3"/>
-    </row>
-    <row r="184" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B184" s="3"/>
-    </row>
-    <row r="185" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B185" s="3"/>
-    </row>
-    <row r="186" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B186" s="3"/>
-    </row>
-    <row r="187" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B187" s="3"/>
-    </row>
-    <row r="188" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B188" s="3"/>
-    </row>
-    <row r="189" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B189" s="3"/>
-    </row>
-    <row r="190" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B190" s="3"/>
-    </row>
-    <row r="191" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B191" s="3"/>
-    </row>
-    <row r="192" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B192" s="3"/>
-    </row>
-    <row r="193" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B193" s="3"/>
-    </row>
-    <row r="194" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B194" s="3"/>
-    </row>
-    <row r="195" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B195" s="3"/>
-    </row>
-    <row r="196" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B196" s="3"/>
-    </row>
-    <row r="197" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B197" s="3"/>
-    </row>
-    <row r="198" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B198" s="3"/>
-    </row>
-    <row r="199" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B199" s="3"/>
-    </row>
-    <row r="200" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B200" s="3"/>
-    </row>
-    <row r="201" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B201" s="3"/>
-    </row>
-    <row r="202" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B202" s="3"/>
-    </row>
-    <row r="203" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B203" s="3"/>
-    </row>
-    <row r="204" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B204" s="3"/>
-    </row>
-    <row r="205" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B205" s="3"/>
-    </row>
-    <row r="206" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B206" s="3"/>
-    </row>
-    <row r="207" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B207" s="3"/>
-    </row>
-    <row r="208" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B208" s="3"/>
-    </row>
-    <row r="209" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B209" s="3"/>
-    </row>
-    <row r="210" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B210" s="3"/>
-    </row>
-    <row r="211" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B211" s="3"/>
-    </row>
-    <row r="212" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B212" s="3"/>
-    </row>
-    <row r="213" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B213" s="3"/>
-    </row>
-    <row r="214" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B214" s="3"/>
-    </row>
-    <row r="215" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B215" s="3"/>
-    </row>
-    <row r="216" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B216" s="3"/>
-    </row>
-    <row r="217" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B217" s="3"/>
-    </row>
-    <row r="218" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B218" s="3"/>
-    </row>
-    <row r="219" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B219" s="3"/>
-    </row>
-    <row r="220" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B220" s="3"/>
-    </row>
-    <row r="221" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B221" s="3"/>
-    </row>
-    <row r="222" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B222" s="3"/>
-    </row>
-    <row r="223" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B223" s="3"/>
-    </row>
-    <row r="224" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B224" s="3"/>
-    </row>
-    <row r="225" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B225" s="3"/>
-    </row>
-    <row r="226" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B226" s="3"/>
-    </row>
-    <row r="227" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B227" s="3"/>
-    </row>
-    <row r="228" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B228" s="3"/>
-    </row>
-    <row r="229" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B229" s="3"/>
-    </row>
-    <row r="230" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B230" s="3"/>
-    </row>
-    <row r="231" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B231" s="3"/>
-    </row>
-    <row r="232" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B232" s="3"/>
-    </row>
-    <row r="233" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B233" s="3"/>
-    </row>
-    <row r="234" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B234" s="3"/>
-    </row>
-    <row r="235" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B235" s="3"/>
-    </row>
-    <row r="236" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B236" s="3"/>
-    </row>
-    <row r="237" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B237" s="3"/>
-    </row>
-    <row r="238" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B238" s="3"/>
-    </row>
-    <row r="239" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B239" s="3"/>
-    </row>
-    <row r="240" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B240" s="3"/>
-    </row>
-    <row r="241" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B241" s="3"/>
-    </row>
-    <row r="242" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B242" s="3"/>
-    </row>
-    <row r="243" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B243" s="3"/>
-    </row>
-    <row r="244" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B244" s="3"/>
-    </row>
-    <row r="245" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B245" s="3"/>
-    </row>
-    <row r="246" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B246" s="3"/>
-    </row>
-    <row r="247" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B247" s="3"/>
-    </row>
-    <row r="248" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B248" s="3"/>
-    </row>
-    <row r="249" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B249" s="3"/>
-    </row>
-    <row r="250" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B250" s="3"/>
-    </row>
-    <row r="251" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B251" s="3"/>
-    </row>
-    <row r="252" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B252" s="3"/>
-    </row>
-    <row r="253" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B253" s="3"/>
-    </row>
-    <row r="254" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B254" s="3"/>
-    </row>
-    <row r="255" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B255" s="3"/>
-    </row>
-    <row r="256" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B256" s="3"/>
-    </row>
-    <row r="257" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B257" s="3"/>
-    </row>
-    <row r="258" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B258" s="3"/>
-    </row>
-    <row r="259" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B259" s="3"/>
-    </row>
-    <row r="260" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B260" s="3"/>
-    </row>
-    <row r="261" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B261" s="3"/>
-    </row>
-    <row r="262" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B262" s="3"/>
-    </row>
-    <row r="263" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B263" s="3"/>
-    </row>
-    <row r="264" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B264" s="3"/>
-    </row>
-    <row r="265" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B265" s="3"/>
-    </row>
-    <row r="266" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B266" s="3"/>
-    </row>
-    <row r="267" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B267" s="3"/>
-    </row>
-    <row r="268" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B268" s="3"/>
-    </row>
-    <row r="269" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B269" s="3"/>
-    </row>
-    <row r="270" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B270" s="3"/>
-    </row>
-    <row r="271" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B271" s="3"/>
-    </row>
-    <row r="272" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B272" s="3"/>
-    </row>
-    <row r="273" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B273" s="3"/>
-    </row>
-    <row r="274" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B274" s="3"/>
-    </row>
-    <row r="275" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B275" s="3"/>
-    </row>
-    <row r="276" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B276" s="3"/>
-    </row>
-    <row r="277" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B277" s="3"/>
-    </row>
-    <row r="278" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B278" s="3"/>
-    </row>
-    <row r="279" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B279" s="3"/>
-    </row>
-    <row r="280" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B280" s="3"/>
-    </row>
-    <row r="281" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B281" s="3"/>
-    </row>
-    <row r="282" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B282" s="3"/>
-    </row>
-    <row r="283" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B283" s="3"/>
-    </row>
-    <row r="284" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B284" s="3"/>
-    </row>
-    <row r="285" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B285" s="3"/>
-    </row>
-    <row r="286" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B286" s="3"/>
-    </row>
-    <row r="287" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B287" s="3"/>
-    </row>
-    <row r="288" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B288" s="3"/>
-    </row>
-    <row r="289" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B289" s="3"/>
-    </row>
-    <row r="290" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B290" s="3"/>
-    </row>
-    <row r="291" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B291" s="3"/>
-    </row>
-    <row r="292" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B292" s="3"/>
-    </row>
-    <row r="293" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B293" s="3"/>
-    </row>
-    <row r="294" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B294" s="3"/>
-    </row>
-    <row r="295" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B295" s="3"/>
-    </row>
-    <row r="296" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B296" s="3"/>
-    </row>
-    <row r="297" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B297" s="3"/>
-    </row>
-    <row r="298" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B298" s="3"/>
-    </row>
-    <row r="299" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B299" s="3"/>
-    </row>
-    <row r="300" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B300" s="3"/>
-    </row>
-    <row r="301" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B301" s="3"/>
-    </row>
-    <row r="302" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B302" s="3"/>
-    </row>
-    <row r="303" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B303" s="3"/>
-    </row>
-    <row r="304" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B304" s="3"/>
-    </row>
-    <row r="305" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B305" s="3"/>
-    </row>
-    <row r="306" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B306" s="3"/>
-    </row>
-    <row r="307" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B307" s="3"/>
-    </row>
-    <row r="308" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B308" s="3"/>
-    </row>
-    <row r="309" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B309" s="3"/>
-    </row>
-    <row r="310" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B310" s="3"/>
-    </row>
-    <row r="311" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B311" s="3"/>
-    </row>
-    <row r="312" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B312" s="3"/>
-    </row>
-    <row r="313" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B313" s="3"/>
-    </row>
-    <row r="314" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B314" s="3"/>
-    </row>
-    <row r="315" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B315" s="3"/>
-    </row>
-    <row r="316" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B316" s="3"/>
-    </row>
-    <row r="317" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B317" s="3"/>
-    </row>
-    <row r="318" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B318" s="3"/>
-    </row>
-    <row r="319" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B319" s="3"/>
-    </row>
-    <row r="320" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B320" s="3"/>
-    </row>
-    <row r="321" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B321" s="3"/>
-    </row>
-    <row r="322" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B322" s="3"/>
-    </row>
-    <row r="323" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B323" s="3"/>
-    </row>
-    <row r="324" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B324" s="3"/>
-    </row>
-    <row r="325" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B325" s="3"/>
-    </row>
-    <row r="326" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B326" s="3"/>
-    </row>
-    <row r="327" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B327" s="3"/>
-    </row>
-    <row r="328" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B328" s="3"/>
-    </row>
-    <row r="329" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B329" s="3"/>
-    </row>
-    <row r="330" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B330" s="3"/>
-    </row>
-    <row r="331" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B331" s="3"/>
-    </row>
-    <row r="332" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B332" s="3"/>
-    </row>
-    <row r="333" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B333" s="3"/>
-    </row>
-    <row r="334" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B334" s="3"/>
-    </row>
-    <row r="335" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B335" s="3"/>
-    </row>
-    <row r="336" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B336" s="3"/>
-    </row>
-    <row r="337" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B337" s="3"/>
-    </row>
-    <row r="338" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B338" s="3"/>
-    </row>
-    <row r="339" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B339" s="3"/>
-    </row>
-    <row r="340" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B340" s="3"/>
-    </row>
-    <row r="341" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B341" s="3"/>
-    </row>
-    <row r="342" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B342" s="3"/>
-    </row>
-    <row r="343" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B343" s="3"/>
-    </row>
-    <row r="344" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B344" s="3"/>
-    </row>
-    <row r="345" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B345" s="3"/>
-    </row>
-    <row r="346" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B346" s="3"/>
-    </row>
-    <row r="347" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B347" s="3"/>
-    </row>
-    <row r="348" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B348" s="3"/>
-    </row>
-    <row r="349" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B349" s="3"/>
-    </row>
-    <row r="350" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B350" s="3"/>
-    </row>
-    <row r="351" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B351" s="3"/>
-    </row>
-    <row r="352" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B352" s="3"/>
-    </row>
-    <row r="353" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B353" s="3"/>
-    </row>
-    <row r="354" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B354" s="3"/>
-    </row>
-    <row r="355" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B355" s="3"/>
-    </row>
-    <row r="356" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B356" s="3"/>
-    </row>
-    <row r="357" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B357" s="3"/>
-    </row>
-    <row r="358" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B358" s="3"/>
-    </row>
-    <row r="359" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B359" s="3"/>
-    </row>
-    <row r="360" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B360" s="3"/>
-    </row>
-    <row r="361" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B361" s="3"/>
-    </row>
-    <row r="362" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B362" s="3"/>
-    </row>
-    <row r="363" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B363" s="3"/>
-    </row>
-    <row r="364" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B364" s="3"/>
-    </row>
-    <row r="365" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B365" s="3"/>
-    </row>
-    <row r="366" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B366" s="3"/>
-    </row>
-    <row r="367" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B367" s="3"/>
-    </row>
-    <row r="368" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B368" s="3"/>
-    </row>
-    <row r="369" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B369" s="3"/>
-    </row>
-    <row r="370" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B370" s="3"/>
-    </row>
-    <row r="371" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B371" s="3"/>
-    </row>
-    <row r="372" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B372" s="3"/>
-    </row>
-    <row r="373" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B373" s="3"/>
-    </row>
-    <row r="374" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B374" s="3"/>
-    </row>
-    <row r="375" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B375" s="3"/>
-    </row>
-    <row r="376" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B376" s="3"/>
-    </row>
-    <row r="377" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B377" s="3"/>
-    </row>
-    <row r="378" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B378" s="3"/>
-    </row>
-    <row r="379" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B379" s="3"/>
-    </row>
-    <row r="380" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B380" s="3"/>
-    </row>
-    <row r="381" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B381" s="3"/>
-    </row>
-    <row r="382" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B382" s="3"/>
-    </row>
-    <row r="383" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B383" s="3"/>
-    </row>
-    <row r="384" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B384" s="3"/>
-    </row>
-    <row r="385" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B385" s="3"/>
-    </row>
-    <row r="386" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B386" s="3"/>
-    </row>
-    <row r="387" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B387" s="3"/>
-    </row>
-    <row r="388" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B388" s="3"/>
-    </row>
-    <row r="389" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B389" s="3"/>
-    </row>
-    <row r="390" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B390" s="3"/>
-    </row>
-    <row r="391" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B391" s="3"/>
-    </row>
-    <row r="392" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B392" s="3"/>
-    </row>
-    <row r="393" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B393" s="3"/>
-    </row>
-    <row r="394" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B394" s="3"/>
-    </row>
-    <row r="395" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B395" s="3"/>
-    </row>
-    <row r="396" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B396" s="3"/>
-    </row>
-    <row r="397" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B397" s="3"/>
-    </row>
-    <row r="398" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B398" s="3"/>
-    </row>
-    <row r="399" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B399" s="3"/>
-    </row>
-    <row r="400" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B400" s="3"/>
-    </row>
-    <row r="401" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B401" s="3"/>
-    </row>
-    <row r="402" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B402" s="3"/>
-    </row>
-    <row r="403" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B403" s="3"/>
-    </row>
-    <row r="404" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B404" s="3"/>
-    </row>
-    <row r="405" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B405" s="3"/>
-    </row>
-    <row r="406" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B406" s="3"/>
-    </row>
-    <row r="407" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B407" s="3"/>
-    </row>
-    <row r="408" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B408" s="3"/>
-    </row>
-    <row r="409" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B409" s="3"/>
-    </row>
-    <row r="410" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B410" s="3"/>
-    </row>
-    <row r="411" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B411" s="3"/>
-    </row>
-    <row r="412" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B412" s="3"/>
-    </row>
-    <row r="413" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B413" s="3"/>
-    </row>
-    <row r="414" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B414" s="3"/>
-    </row>
-    <row r="415" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B415" s="3"/>
-    </row>
-    <row r="416" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B416" s="3"/>
-    </row>
-    <row r="417" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B417" s="3"/>
-    </row>
-    <row r="418" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B418" s="3"/>
-    </row>
-    <row r="419" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B419" s="3"/>
-    </row>
-    <row r="420" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B420" s="3"/>
-    </row>
-    <row r="421" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B421" s="3"/>
-    </row>
-    <row r="422" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B422" s="3"/>
-    </row>
-    <row r="423" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B423" s="3"/>
-    </row>
-    <row r="424" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B424" s="3"/>
-    </row>
-    <row r="425" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B425" s="3"/>
-    </row>
-    <row r="426" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B426" s="3"/>
-    </row>
-    <row r="427" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B427" s="3"/>
-    </row>
-    <row r="428" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B428" s="3"/>
-    </row>
-    <row r="429" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B429" s="3"/>
-    </row>
-    <row r="430" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B430" s="3"/>
-    </row>
-    <row r="431" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B431" s="3"/>
-    </row>
-    <row r="432" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B432" s="3"/>
-    </row>
-    <row r="433" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B433" s="3"/>
-    </row>
-    <row r="434" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B434" s="3"/>
-    </row>
-    <row r="435" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B435" s="3"/>
-    </row>
-    <row r="436" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B436" s="3"/>
-    </row>
-    <row r="437" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B437" s="3"/>
-    </row>
-    <row r="438" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B438" s="3"/>
-    </row>
-    <row r="439" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B439" s="3"/>
-    </row>
-    <row r="440" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B440" s="3"/>
-    </row>
-    <row r="441" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B441" s="3"/>
-    </row>
-    <row r="442" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B442" s="3"/>
-    </row>
-    <row r="443" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B443" s="3"/>
-    </row>
-    <row r="444" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B444" s="3"/>
-    </row>
-    <row r="445" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B445" s="3"/>
-    </row>
-    <row r="446" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B446" s="3"/>
-    </row>
-    <row r="447" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B447" s="3"/>
-    </row>
-    <row r="448" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B448" s="3"/>
-    </row>
-    <row r="449" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B449" s="3"/>
-    </row>
-    <row r="450" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B450" s="3"/>
-    </row>
-    <row r="451" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B451" s="3"/>
-    </row>
-    <row r="452" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B452" s="3"/>
-    </row>
-    <row r="453" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B453" s="3"/>
-    </row>
-    <row r="454" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B454" s="3"/>
-    </row>
-    <row r="455" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B455" s="3"/>
-    </row>
-    <row r="456" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B456" s="3"/>
-    </row>
-    <row r="457" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B457" s="3"/>
-    </row>
-    <row r="458" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B458" s="3"/>
-    </row>
-    <row r="459" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B459" s="3"/>
-    </row>
-    <row r="460" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B460" s="3"/>
-    </row>
-    <row r="461" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B461" s="3"/>
-    </row>
-    <row r="462" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B462" s="3"/>
-    </row>
-    <row r="463" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B463" s="3"/>
-    </row>
-    <row r="464" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B464" s="3"/>
-    </row>
-    <row r="465" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B465" s="3"/>
-    </row>
-    <row r="466" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B466" s="3"/>
-    </row>
-    <row r="467" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B467" s="3"/>
-    </row>
-    <row r="468" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B468" s="3"/>
-    </row>
-    <row r="469" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B469" s="3"/>
-    </row>
-    <row r="470" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B470" s="3"/>
-    </row>
-    <row r="471" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B471" s="3"/>
-    </row>
-    <row r="472" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B472" s="3"/>
-    </row>
-    <row r="473" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B473" s="3"/>
-    </row>
-    <row r="474" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B474" s="3"/>
-    </row>
-    <row r="475" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B475" s="3"/>
-    </row>
-    <row r="476" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B476" s="3"/>
-    </row>
-    <row r="477" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B477" s="3"/>
-    </row>
-    <row r="478" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B478" s="3"/>
-    </row>
-    <row r="479" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B479" s="3"/>
-    </row>
-    <row r="480" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B480" s="3"/>
-    </row>
-    <row r="481" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B481" s="3"/>
-    </row>
-    <row r="482" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B482" s="3"/>
-    </row>
-    <row r="483" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B483" s="3"/>
-    </row>
-    <row r="484" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B484" s="3"/>
-    </row>
-    <row r="485" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B485" s="3"/>
-    </row>
-    <row r="486" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B486" s="3"/>
-    </row>
-    <row r="487" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B487" s="3"/>
-    </row>
-    <row r="488" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B488" s="3"/>
-    </row>
-    <row r="489" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B489" s="3"/>
-    </row>
-    <row r="490" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B490" s="3"/>
-    </row>
-    <row r="491" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B491" s="3"/>
-    </row>
-    <row r="492" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B492" s="3"/>
-    </row>
-    <row r="493" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B493" s="3"/>
-    </row>
-    <row r="494" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B494" s="3"/>
-    </row>
-    <row r="495" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B495" s="3"/>
-    </row>
-    <row r="496" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B496" s="3"/>
-    </row>
-    <row r="497" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B497" s="3"/>
-    </row>
-    <row r="498" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B498" s="3"/>
-    </row>
-    <row r="499" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B499" s="3"/>
-    </row>
-    <row r="500" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B500" s="3"/>
-    </row>
-    <row r="501" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B501" s="3"/>
-    </row>
-    <row r="502" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B502" s="3"/>
-    </row>
-    <row r="503" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B503" s="3"/>
-    </row>
-    <row r="504" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B504" s="3"/>
-    </row>
-    <row r="505" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B505" s="3"/>
-    </row>
-    <row r="506" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B506" s="3"/>
-    </row>
-    <row r="507" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B507" s="3"/>
-    </row>
-    <row r="508" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B508" s="3"/>
-    </row>
-    <row r="509" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B509" s="3"/>
-    </row>
-    <row r="510" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B510" s="3"/>
-    </row>
-    <row r="511" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B511" s="3"/>
-    </row>
-    <row r="512" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B512" s="3"/>
-    </row>
-    <row r="513" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B513" s="3"/>
-    </row>
-    <row r="514" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B514" s="3"/>
-    </row>
-    <row r="515" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B515" s="3"/>
-    </row>
-    <row r="516" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B516" s="3"/>
-    </row>
-    <row r="517" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B517" s="3"/>
-    </row>
-    <row r="518" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B518" s="3"/>
-    </row>
-    <row r="519" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B519" s="3"/>
-    </row>
-    <row r="520" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B520" s="3"/>
-    </row>
-    <row r="521" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B521" s="3"/>
-    </row>
-    <row r="522" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B522" s="3"/>
-    </row>
-    <row r="523" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B523" s="3"/>
-    </row>
-    <row r="524" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B524" s="3"/>
-    </row>
-    <row r="525" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B525" s="3"/>
-    </row>
-    <row r="526" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B526" s="3"/>
-    </row>
-    <row r="527" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B527" s="3"/>
-    </row>
-    <row r="528" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B528" s="3"/>
-    </row>
-    <row r="529" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B529" s="3"/>
-    </row>
-    <row r="530" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B530" s="3"/>
-    </row>
-    <row r="531" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B531" s="3"/>
-    </row>
-    <row r="532" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B532" s="3"/>
-    </row>
-    <row r="533" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B533" s="3"/>
-    </row>
-    <row r="534" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B534" s="3"/>
-    </row>
-    <row r="535" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B535" s="3"/>
-    </row>
-    <row r="536" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B536" s="3"/>
-    </row>
-    <row r="537" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B537" s="3"/>
-    </row>
-    <row r="538" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B538" s="3"/>
-    </row>
-    <row r="539" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B539" s="3"/>
-    </row>
-    <row r="540" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B540" s="3"/>
-    </row>
-    <row r="541" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B541" s="3"/>
-    </row>
-    <row r="542" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B542" s="3"/>
-    </row>
-    <row r="543" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B543" s="3"/>
-    </row>
-    <row r="544" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B544" s="3"/>
-    </row>
-    <row r="545" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B545" s="3"/>
-    </row>
-    <row r="546" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B546" s="3"/>
-    </row>
-    <row r="547" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B547" s="3"/>
-    </row>
-    <row r="548" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B548" s="3"/>
-    </row>
-    <row r="549" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B549" s="3"/>
-    </row>
-    <row r="550" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B550" s="3"/>
-    </row>
-    <row r="551" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B551" s="3"/>
-    </row>
-    <row r="552" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B552" s="3"/>
-    </row>
-    <row r="553" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B553" s="3"/>
-    </row>
-    <row r="554" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B554" s="3"/>
-    </row>
-    <row r="555" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B555" s="3"/>
-    </row>
-    <row r="556" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B556" s="3"/>
-    </row>
-    <row r="557" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B557" s="3"/>
-    </row>
-    <row r="558" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B558" s="3"/>
-    </row>
-    <row r="559" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B559" s="3"/>
-    </row>
-    <row r="560" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B560" s="3"/>
-    </row>
-    <row r="561" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B561" s="3"/>
-    </row>
-    <row r="562" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B562" s="3"/>
-    </row>
-    <row r="563" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B563" s="3"/>
-    </row>
-    <row r="564" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B564" s="3"/>
-    </row>
-    <row r="565" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B565" s="3"/>
-    </row>
-    <row r="566" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B566" s="3"/>
-    </row>
-    <row r="567" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B567" s="3"/>
-    </row>
-    <row r="568" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B568" s="3"/>
-    </row>
-    <row r="569" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B569" s="3"/>
-    </row>
-    <row r="570" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B570" s="3"/>
-    </row>
-    <row r="571" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B571" s="3"/>
-    </row>
-    <row r="572" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B572" s="3"/>
-    </row>
-    <row r="573" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B573" s="3"/>
-    </row>
-    <row r="574" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B574" s="3"/>
-    </row>
-    <row r="575" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B575" s="3"/>
-    </row>
-    <row r="576" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B576" s="3"/>
-    </row>
-    <row r="577" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B577" s="3"/>
-    </row>
-    <row r="578" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B578" s="3"/>
-    </row>
-    <row r="579" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B579" s="3"/>
-    </row>
-    <row r="580" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B580" s="3"/>
-    </row>
-    <row r="581" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B581" s="3"/>
-    </row>
-    <row r="582" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B582" s="3"/>
-    </row>
-    <row r="583" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B583" s="3"/>
-    </row>
-    <row r="584" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B584" s="3"/>
-    </row>
-    <row r="585" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B585" s="3"/>
-    </row>
-    <row r="586" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B586" s="3"/>
-    </row>
-    <row r="587" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B587" s="3"/>
-    </row>
-    <row r="588" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B588" s="3"/>
-    </row>
-    <row r="589" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B589" s="3"/>
-    </row>
-    <row r="590" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B590" s="3"/>
-    </row>
-    <row r="591" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B591" s="3"/>
-    </row>
-    <row r="592" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B592" s="3"/>
-    </row>
-    <row r="593" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B593" s="3"/>
-    </row>
-    <row r="594" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B594" s="3"/>
-    </row>
-    <row r="595" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B595" s="3"/>
-    </row>
-    <row r="596" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B596" s="3"/>
-    </row>
-    <row r="597" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B597" s="3"/>
-    </row>
-    <row r="598" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B598" s="3"/>
-    </row>
-    <row r="599" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B599" s="3"/>
-    </row>
-    <row r="600" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B600" s="3"/>
-    </row>
-    <row r="601" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B601" s="3"/>
-    </row>
-    <row r="602" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B602" s="3"/>
-    </row>
-    <row r="603" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B603" s="3"/>
-    </row>
-    <row r="604" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B604" s="3"/>
-    </row>
-    <row r="605" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B605" s="3"/>
-    </row>
-    <row r="606" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B606" s="3"/>
-    </row>
-    <row r="607" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B607" s="3"/>
-    </row>
-    <row r="608" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B608" s="3"/>
-    </row>
-    <row r="609" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B609" s="3"/>
-    </row>
-    <row r="610" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B610" s="3"/>
-    </row>
-    <row r="611" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B611" s="3"/>
-    </row>
-    <row r="612" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B612" s="3"/>
-    </row>
-    <row r="613" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B613" s="3"/>
-    </row>
-    <row r="614" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B614" s="3"/>
-    </row>
-    <row r="615" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B615" s="3"/>
-    </row>
-    <row r="616" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B616" s="3"/>
-    </row>
-    <row r="617" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B617" s="3"/>
-    </row>
-    <row r="618" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B618" s="3"/>
-    </row>
-    <row r="619" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B619" s="3"/>
-    </row>
-    <row r="620" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B620" s="3"/>
-    </row>
-    <row r="621" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B621" s="3"/>
-    </row>
-    <row r="622" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B622" s="3"/>
-    </row>
-    <row r="623" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B623" s="3"/>
-    </row>
-    <row r="624" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B624" s="3"/>
-    </row>
-    <row r="625" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B625" s="3"/>
-    </row>
-    <row r="626" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B626" s="3"/>
-    </row>
-    <row r="627" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B627" s="3"/>
-    </row>
-    <row r="628" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B628" s="3"/>
-    </row>
-    <row r="629" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B629" s="3"/>
-    </row>
-    <row r="630" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B630" s="3"/>
-    </row>
-    <row r="631" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B631" s="3"/>
-    </row>
-    <row r="632" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B632" s="3"/>
-    </row>
-    <row r="633" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B633" s="3"/>
-    </row>
-    <row r="634" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B634" s="3"/>
-    </row>
-    <row r="635" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B635" s="3"/>
-    </row>
-    <row r="636" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B636" s="3"/>
-    </row>
-    <row r="637" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B637" s="3"/>
-    </row>
-    <row r="638" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B638" s="3"/>
-    </row>
-    <row r="639" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B639" s="3"/>
-    </row>
-    <row r="640" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B640" s="3"/>
-    </row>
-    <row r="641" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B641" s="3"/>
-    </row>
-    <row r="642" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B642" s="3"/>
-    </row>
-    <row r="643" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B643" s="3"/>
-    </row>
-    <row r="644" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B644" s="3"/>
-    </row>
-    <row r="645" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B645" s="3"/>
-    </row>
-    <row r="646" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B646" s="3"/>
-    </row>
-    <row r="647" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B647" s="3"/>
-    </row>
-    <row r="648" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B648" s="3"/>
-    </row>
-    <row r="649" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B649" s="3"/>
-    </row>
-    <row r="650" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B650" s="3"/>
-    </row>
-    <row r="651" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B651" s="3"/>
-    </row>
-    <row r="652" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B652" s="3"/>
-    </row>
-    <row r="653" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B653" s="3"/>
-    </row>
-    <row r="654" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B654" s="3"/>
-    </row>
-    <row r="655" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B655" s="3"/>
-    </row>
-    <row r="656" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B656" s="3"/>
-    </row>
-    <row r="657" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B657" s="3"/>
-    </row>
-    <row r="658" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B658" s="3"/>
-    </row>
-    <row r="659" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B659" s="3"/>
-    </row>
-    <row r="660" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B660" s="3"/>
-    </row>
-    <row r="661" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B661" s="3"/>
-    </row>
-    <row r="662" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B662" s="3"/>
-    </row>
-    <row r="663" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B663" s="3"/>
-    </row>
-    <row r="664" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B664" s="3"/>
-    </row>
-    <row r="665" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B665" s="3"/>
-    </row>
-    <row r="666" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B666" s="3"/>
-    </row>
-    <row r="667" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B667" s="3"/>
-    </row>
-    <row r="668" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B668" s="3"/>
-    </row>
-    <row r="669" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B669" s="3"/>
-    </row>
-    <row r="670" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B670" s="3"/>
-    </row>
-    <row r="671" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B671" s="3"/>
-    </row>
-    <row r="672" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B672" s="3"/>
-    </row>
-    <row r="673" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B673" s="3"/>
-    </row>
-    <row r="674" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B674" s="3"/>
-    </row>
-    <row r="675" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B675" s="3"/>
-    </row>
-    <row r="676" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B676" s="3"/>
-    </row>
-    <row r="677" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B677" s="3"/>
-    </row>
-    <row r="678" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B678" s="3"/>
-    </row>
-    <row r="679" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B679" s="3"/>
-    </row>
-    <row r="680" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B680" s="3"/>
-    </row>
-    <row r="681" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B681" s="3"/>
-    </row>
-    <row r="682" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B682" s="3"/>
-    </row>
-    <row r="683" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B683" s="3"/>
-    </row>
-    <row r="684" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B684" s="3"/>
-    </row>
-    <row r="685" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B685" s="3"/>
-    </row>
-    <row r="686" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B686" s="3"/>
-    </row>
-    <row r="687" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B687" s="3"/>
-    </row>
-    <row r="688" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B688" s="3"/>
-    </row>
-    <row r="689" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B689" s="3"/>
-    </row>
-    <row r="690" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B690" s="3"/>
-    </row>
-    <row r="691" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B691" s="3"/>
-    </row>
-    <row r="692" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B692" s="3"/>
-    </row>
-    <row r="693" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B693" s="3"/>
-    </row>
-    <row r="694" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B694" s="3"/>
-    </row>
-    <row r="695" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B695" s="3"/>
-    </row>
-    <row r="696" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B696" s="3"/>
-    </row>
-    <row r="697" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B697" s="3"/>
-    </row>
-    <row r="698" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B698" s="3"/>
-    </row>
-    <row r="699" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B699" s="3"/>
-    </row>
-    <row r="700" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B700" s="3"/>
-    </row>
-    <row r="701" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B701" s="3"/>
-    </row>
-    <row r="702" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B702" s="3"/>
-    </row>
-    <row r="703" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B703" s="3"/>
-    </row>
-    <row r="704" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B704" s="3"/>
-    </row>
-    <row r="705" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B705" s="3"/>
-    </row>
-    <row r="706" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B706" s="3"/>
-    </row>
-    <row r="707" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B707" s="3"/>
-    </row>
-    <row r="708" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B708" s="3"/>
-    </row>
-    <row r="709" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B709" s="3"/>
-    </row>
-    <row r="710" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B710" s="3"/>
-    </row>
-    <row r="711" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B711" s="3"/>
-    </row>
-    <row r="712" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B712" s="3"/>
-    </row>
-    <row r="713" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B713" s="3"/>
-    </row>
-    <row r="714" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B714" s="3"/>
-    </row>
-    <row r="715" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B715" s="3"/>
-    </row>
-    <row r="716" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B716" s="3"/>
-    </row>
-    <row r="717" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B717" s="3"/>
-    </row>
-    <row r="718" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B718" s="3"/>
-    </row>
-    <row r="719" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B719" s="3"/>
-    </row>
-    <row r="720" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B720" s="3"/>
-    </row>
-    <row r="721" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B721" s="3"/>
-    </row>
-    <row r="722" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B722" s="3"/>
-    </row>
-    <row r="723" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B723" s="3"/>
-    </row>
-    <row r="724" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B724" s="3"/>
-    </row>
-    <row r="725" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B725" s="3"/>
-    </row>
-    <row r="726" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B726" s="3"/>
-    </row>
-    <row r="727" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B727" s="3"/>
-    </row>
-    <row r="728" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B728" s="3"/>
-    </row>
-    <row r="729" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B729" s="3"/>
-    </row>
-    <row r="730" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B730" s="3"/>
-    </row>
-    <row r="731" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B731" s="3"/>
-    </row>
-    <row r="732" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B732" s="3"/>
-    </row>
-    <row r="733" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B733" s="3"/>
-    </row>
-    <row r="734" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B734" s="3"/>
-    </row>
-    <row r="735" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B735" s="3"/>
-    </row>
-    <row r="736" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B736" s="3"/>
-    </row>
-    <row r="737" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B737" s="3"/>
-    </row>
-    <row r="738" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B738" s="3"/>
-    </row>
-    <row r="739" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B739" s="3"/>
-    </row>
-    <row r="740" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B740" s="3"/>
-    </row>
-    <row r="741" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B741" s="3"/>
-    </row>
-    <row r="742" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B742" s="3"/>
-    </row>
-    <row r="743" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B743" s="3"/>
-    </row>
-    <row r="744" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B744" s="3"/>
-    </row>
-    <row r="745" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B745" s="3"/>
-    </row>
-    <row r="746" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B746" s="3"/>
-    </row>
-    <row r="747" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B747" s="3"/>
-    </row>
-    <row r="748" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B748" s="3"/>
-    </row>
-    <row r="749" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B749" s="3"/>
-    </row>
-    <row r="750" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B750" s="3"/>
-    </row>
-    <row r="751" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B751" s="3"/>
-    </row>
-    <row r="752" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B752" s="3"/>
-    </row>
-    <row r="753" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B753" s="3"/>
-    </row>
-    <row r="754" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B754" s="3"/>
-    </row>
-    <row r="755" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B755" s="3"/>
-    </row>
-    <row r="756" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B756" s="3"/>
-    </row>
-    <row r="757" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B757" s="3"/>
-    </row>
-    <row r="758" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B758" s="3"/>
-    </row>
-    <row r="759" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B759" s="3"/>
-    </row>
-    <row r="760" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B760" s="3"/>
-    </row>
-    <row r="761" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B761" s="3"/>
-    </row>
-    <row r="762" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B762" s="3"/>
-    </row>
-    <row r="763" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B763" s="3"/>
-    </row>
-    <row r="764" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B764" s="3"/>
-    </row>
-    <row r="765" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B765" s="3"/>
-    </row>
-    <row r="766" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B766" s="3"/>
-    </row>
-    <row r="767" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B767" s="3"/>
-    </row>
-    <row r="768" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B768" s="3"/>
-    </row>
-    <row r="769" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B769" s="3"/>
-    </row>
-    <row r="770" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B770" s="3"/>
-    </row>
-    <row r="771" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B771" s="3"/>
-    </row>
-    <row r="772" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B772" s="3"/>
-    </row>
-    <row r="773" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B773" s="3"/>
-    </row>
-    <row r="774" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B774" s="3"/>
-    </row>
-    <row r="775" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B775" s="3"/>
-    </row>
-    <row r="776" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B776" s="3"/>
-    </row>
-    <row r="777" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B777" s="3"/>
-    </row>
-    <row r="778" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B778" s="3"/>
-    </row>
-    <row r="779" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B779" s="3"/>
-    </row>
-    <row r="780" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B780" s="3"/>
-    </row>
-    <row r="781" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B781" s="3"/>
-    </row>
-    <row r="782" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B782" s="3"/>
-    </row>
-    <row r="783" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B783" s="3"/>
-    </row>
-    <row r="784" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B784" s="3"/>
-    </row>
-    <row r="785" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B785" s="3"/>
-    </row>
-    <row r="786" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B786" s="3"/>
-    </row>
-    <row r="787" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B787" s="3"/>
-    </row>
-    <row r="788" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B788" s="3"/>
-    </row>
-    <row r="789" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B789" s="3"/>
-    </row>
-    <row r="790" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B790" s="3"/>
-    </row>
-    <row r="791" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B791" s="3"/>
-    </row>
-    <row r="792" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B792" s="3"/>
-    </row>
-    <row r="793" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B793" s="3"/>
-    </row>
-    <row r="794" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B794" s="3"/>
-    </row>
-    <row r="795" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B795" s="3"/>
-    </row>
-    <row r="796" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B796" s="3"/>
-    </row>
-    <row r="797" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B797" s="3"/>
-    </row>
-    <row r="798" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B798" s="3"/>
-    </row>
-    <row r="799" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B799" s="3"/>
-    </row>
-    <row r="800" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B800" s="3"/>
-    </row>
-    <row r="801" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B801" s="3"/>
-    </row>
-    <row r="802" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B802" s="3"/>
-    </row>
-    <row r="803" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B803" s="3"/>
-    </row>
-    <row r="804" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B804" s="3"/>
-    </row>
-    <row r="805" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B805" s="3"/>
-    </row>
-    <row r="806" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B806" s="3"/>
-    </row>
-    <row r="807" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B807" s="3"/>
-    </row>
-    <row r="808" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B808" s="3"/>
-    </row>
-    <row r="809" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B809" s="3"/>
-    </row>
-    <row r="810" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B810" s="3"/>
-    </row>
-    <row r="811" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B811" s="3"/>
-    </row>
-    <row r="812" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B812" s="3"/>
-    </row>
-    <row r="813" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B813" s="3"/>
-    </row>
-    <row r="814" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B814" s="3"/>
-    </row>
-    <row r="815" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B815" s="3"/>
-    </row>
-    <row r="816" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B816" s="3"/>
-    </row>
-    <row r="817" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B817" s="3"/>
-    </row>
-    <row r="818" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B818" s="3"/>
-    </row>
-    <row r="819" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B819" s="3"/>
-    </row>
-    <row r="820" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B820" s="3"/>
-    </row>
-    <row r="821" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B821" s="3"/>
-    </row>
-    <row r="822" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B822" s="3"/>
-    </row>
-    <row r="823" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B823" s="3"/>
-    </row>
-    <row r="824" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B824" s="3"/>
-    </row>
-    <row r="825" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B825" s="3"/>
-    </row>
-    <row r="826" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B826" s="3"/>
-    </row>
-    <row r="827" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B827" s="3"/>
-    </row>
-    <row r="828" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B828" s="3"/>
-    </row>
-    <row r="829" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B829" s="3"/>
-    </row>
-    <row r="830" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B830" s="3"/>
-    </row>
-    <row r="831" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B831" s="3"/>
-    </row>
-    <row r="832" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B832" s="3"/>
-    </row>
-    <row r="833" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B833" s="3"/>
-    </row>
-    <row r="834" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B834" s="3"/>
-    </row>
-    <row r="835" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B835" s="3"/>
-    </row>
-    <row r="836" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B836" s="3"/>
-    </row>
-    <row r="837" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B837" s="3"/>
-    </row>
-    <row r="838" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B838" s="3"/>
-    </row>
-    <row r="839" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B839" s="3"/>
-    </row>
-    <row r="840" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B840" s="3"/>
-    </row>
-    <row r="841" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B841" s="3"/>
-    </row>
-    <row r="842" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B842" s="3"/>
-    </row>
-    <row r="843" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B843" s="3"/>
-    </row>
-    <row r="844" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B844" s="3"/>
-    </row>
-    <row r="845" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B845" s="3"/>
-    </row>
-    <row r="846" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B846" s="3"/>
-    </row>
-    <row r="847" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B847" s="3"/>
-    </row>
-    <row r="848" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B848" s="3"/>
-    </row>
-    <row r="849" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B849" s="3"/>
-    </row>
-    <row r="850" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B850" s="3"/>
-    </row>
-    <row r="851" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B851" s="3"/>
-    </row>
-    <row r="852" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B852" s="3"/>
-    </row>
-    <row r="853" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B853" s="3"/>
-    </row>
-    <row r="854" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B854" s="3"/>
-    </row>
-    <row r="855" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B855" s="3"/>
-    </row>
-    <row r="856" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B856" s="3"/>
-    </row>
-    <row r="857" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B857" s="3"/>
-    </row>
-    <row r="858" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B858" s="3"/>
-    </row>
-    <row r="859" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B859" s="3"/>
-    </row>
-    <row r="860" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B860" s="3"/>
-    </row>
-    <row r="861" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B861" s="3"/>
-    </row>
-    <row r="862" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B862" s="3"/>
-    </row>
-    <row r="863" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B863" s="3"/>
-    </row>
-    <row r="864" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B864" s="3"/>
-    </row>
-    <row r="865" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B865" s="3"/>
-    </row>
-    <row r="866" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B866" s="3"/>
-    </row>
-    <row r="867" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B867" s="3"/>
-    </row>
-    <row r="868" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B868" s="3"/>
-    </row>
-    <row r="869" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B869" s="3"/>
-    </row>
-    <row r="870" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B870" s="3"/>
-    </row>
-    <row r="871" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B871" s="3"/>
-    </row>
-    <row r="872" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B872" s="3"/>
-    </row>
-    <row r="873" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B873" s="3"/>
-    </row>
-    <row r="874" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B874" s="3"/>
-    </row>
-    <row r="875" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B875" s="3"/>
-    </row>
-    <row r="876" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B876" s="3"/>
-    </row>
-    <row r="877" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B877" s="3"/>
-    </row>
-    <row r="878" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B878" s="3"/>
-    </row>
-    <row r="879" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B879" s="3"/>
-    </row>
-    <row r="880" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B880" s="3"/>
-    </row>
-    <row r="881" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B881" s="3"/>
-    </row>
-    <row r="882" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B882" s="3"/>
-    </row>
-    <row r="883" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B883" s="3"/>
-    </row>
-    <row r="884" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B884" s="3"/>
-    </row>
-    <row r="885" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B885" s="3"/>
-    </row>
-    <row r="886" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B886" s="3"/>
-    </row>
-    <row r="887" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B887" s="3"/>
-    </row>
-    <row r="888" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B888" s="3"/>
-    </row>
-    <row r="889" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B889" s="3"/>
-    </row>
-    <row r="890" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B890" s="3"/>
-    </row>
-    <row r="891" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B891" s="3"/>
-    </row>
-    <row r="892" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B892" s="3"/>
-    </row>
-    <row r="893" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B893" s="3"/>
-    </row>
-    <row r="894" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B894" s="3"/>
-    </row>
-    <row r="895" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B895" s="3"/>
-    </row>
-    <row r="896" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B896" s="3"/>
-    </row>
-    <row r="897" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B897" s="3"/>
-    </row>
-    <row r="898" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B898" s="3"/>
-    </row>
-    <row r="899" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B899" s="3"/>
-    </row>
-    <row r="900" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B900" s="3"/>
-    </row>
-    <row r="901" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B901" s="3"/>
-    </row>
-    <row r="902" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B902" s="3"/>
-    </row>
-    <row r="903" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B903" s="3"/>
-    </row>
-    <row r="904" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B904" s="3"/>
-    </row>
-    <row r="905" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B905" s="3"/>
-    </row>
-    <row r="906" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B906" s="3"/>
-    </row>
-    <row r="907" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B907" s="3"/>
-    </row>
-    <row r="908" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B908" s="3"/>
-    </row>
-    <row r="909" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B909" s="3"/>
-    </row>
-    <row r="910" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B910" s="3"/>
-    </row>
-    <row r="911" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B911" s="3"/>
-    </row>
-    <row r="912" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B912" s="3"/>
-    </row>
-    <row r="913" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B913" s="3"/>
-    </row>
-    <row r="914" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B914" s="3"/>
-    </row>
-    <row r="915" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B915" s="3"/>
-    </row>
-    <row r="916" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B916" s="3"/>
-    </row>
-    <row r="917" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B917" s="3"/>
-    </row>
-    <row r="918" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B918" s="3"/>
-    </row>
-    <row r="919" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B919" s="3"/>
-    </row>
-    <row r="920" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B920" s="3"/>
-    </row>
-    <row r="921" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B921" s="3"/>
-    </row>
-    <row r="922" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B922" s="3"/>
-    </row>
-    <row r="923" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B923" s="3"/>
-    </row>
-    <row r="924" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B924" s="3"/>
-    </row>
-    <row r="925" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B925" s="3"/>
-    </row>
-    <row r="926" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B926" s="3"/>
-    </row>
-    <row r="927" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B927" s="3"/>
-    </row>
-    <row r="928" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B928" s="3"/>
-    </row>
-    <row r="929" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B929" s="3"/>
-    </row>
-    <row r="930" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B930" s="3"/>
-    </row>
-    <row r="931" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B931" s="3"/>
-    </row>
-    <row r="932" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B932" s="3"/>
-    </row>
-    <row r="933" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B933" s="3"/>
-    </row>
-    <row r="934" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B934" s="3"/>
-    </row>
-    <row r="935" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B935" s="3"/>
-    </row>
-    <row r="936" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B936" s="3"/>
-    </row>
-    <row r="937" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B937" s="3"/>
-    </row>
-    <row r="938" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B938" s="3"/>
-    </row>
-    <row r="939" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B939" s="3"/>
-    </row>
-    <row r="940" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B940" s="3"/>
-    </row>
-    <row r="941" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B941" s="3"/>
-    </row>
-    <row r="942" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B942" s="3"/>
-    </row>
-    <row r="943" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B943" s="3"/>
-    </row>
-    <row r="944" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B944" s="3"/>
-    </row>
-    <row r="945" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B945" s="3"/>
-    </row>
-    <row r="946" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B946" s="3"/>
-    </row>
-    <row r="947" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B947" s="3"/>
-    </row>
-    <row r="948" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B948" s="3"/>
-    </row>
-    <row r="949" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B949" s="3"/>
-    </row>
-    <row r="950" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B950" s="3"/>
-    </row>
-    <row r="951" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B951" s="3"/>
-    </row>
-    <row r="952" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B952" s="3"/>
-    </row>
-    <row r="953" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B953" s="3"/>
-    </row>
-    <row r="954" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B954" s="3"/>
-    </row>
-    <row r="955" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B955" s="3"/>
-    </row>
-    <row r="956" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B956" s="3"/>
-    </row>
-    <row r="957" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B957" s="3"/>
-    </row>
-    <row r="958" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B958" s="3"/>
-    </row>
-    <row r="959" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B959" s="3"/>
-    </row>
-    <row r="960" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B960" s="3"/>
-    </row>
-    <row r="961" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B961" s="3"/>
-    </row>
-    <row r="962" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B962" s="3"/>
-    </row>
-    <row r="963" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B963" s="3"/>
-    </row>
-    <row r="964" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B964" s="3"/>
-    </row>
-    <row r="965" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B965" s="3"/>
-    </row>
-    <row r="966" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B966" s="3"/>
-    </row>
-    <row r="967" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B967" s="3"/>
-    </row>
-    <row r="968" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B968" s="3"/>
-    </row>
-    <row r="969" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B969" s="3"/>
-    </row>
-    <row r="970" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B970" s="3"/>
-    </row>
-    <row r="971" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B971" s="3"/>
-    </row>
-    <row r="972" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B972" s="3"/>
-    </row>
-    <row r="973" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B973" s="3"/>
-    </row>
-    <row r="974" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B974" s="3"/>
-    </row>
-    <row r="975" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B975" s="3"/>
-    </row>
-    <row r="976" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B976" s="3"/>
-    </row>
-    <row r="977" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B977" s="3"/>
-    </row>
-    <row r="978" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B978" s="3"/>
-    </row>
-    <row r="979" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B979" s="3"/>
-    </row>
-    <row r="980" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B980" s="3"/>
-    </row>
-    <row r="981" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B981" s="3"/>
-    </row>
-    <row r="982" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B982" s="3"/>
-    </row>
-    <row r="983" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B983" s="3"/>
-    </row>
-    <row r="984" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B984" s="3"/>
-    </row>
-    <row r="985" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B985" s="3"/>
-    </row>
-    <row r="986" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B986" s="3"/>
-    </row>
-    <row r="987" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B987" s="3"/>
-    </row>
-    <row r="988" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B988" s="3"/>
-    </row>
-    <row r="989" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B989" s="3"/>
-    </row>
-    <row r="990" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B990" s="3"/>
-    </row>
-    <row r="991" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B991" s="3"/>
-    </row>
-    <row r="992" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B992" s="3"/>
-    </row>
-    <row r="993" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B993" s="3"/>
-    </row>
-    <row r="994" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B994" s="3"/>
-    </row>
-    <row r="995" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B995" s="3"/>
-    </row>
-    <row r="996" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B996" s="3"/>
-    </row>
-    <row r="997" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B997" s="3"/>
-    </row>
-    <row r="998" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B998" s="3"/>
-    </row>
-    <row r="999" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B999" s="3"/>
-    </row>
-    <row r="1000" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1000" s="3"/>
-    </row>
-    <row r="1001" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1001" s="3"/>
-    </row>
-    <row r="1002" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1002" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CEFE34F-2070-49CD-8F06-CB4BE1EB1541}">
-  <dimension ref="A1:Z1003"/>
-  <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="26" width="8" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" ht="21.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-    </row>
-    <row r="2" spans="1:26" ht="5.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="22"/>
-    </row>
-    <row r="3" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-    </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -4324,11 +4770,15 @@
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="13">
         <v>25.9</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="11">
         <v>12</v>
+      </c>
+      <c r="F4" s="14">
+        <f t="shared" ref="F4:F23" si="0">PRODUCT(D4,E4)</f>
+        <v>310.79999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4341,11 +4791,15 @@
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="13">
         <v>29.9</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="11">
         <v>10</v>
+      </c>
+      <c r="F5" s="14">
+        <f t="shared" si="0"/>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4358,11 +4812,15 @@
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="13">
         <v>32.9</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="11">
         <v>6</v>
+      </c>
+      <c r="F6" s="14">
+        <f t="shared" si="0"/>
+        <v>197.39999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4375,11 +4833,15 @@
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="13">
         <v>399.9</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="11">
         <v>3</v>
+      </c>
+      <c r="F7" s="14">
+        <f t="shared" si="0"/>
+        <v>1199.6999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4392,11 +4854,15 @@
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="13">
         <v>249.9</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="11">
         <v>1</v>
+      </c>
+      <c r="F8" s="14">
+        <f t="shared" si="0"/>
+        <v>249.9</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4409,11 +4875,15 @@
       <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="13">
         <v>259.89999999999998</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="11">
         <v>2</v>
+      </c>
+      <c r="F9" s="14">
+        <f t="shared" si="0"/>
+        <v>519.79999999999995</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4426,11 +4896,15 @@
       <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="13">
         <v>299.89999999999998</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="11">
         <v>1</v>
+      </c>
+      <c r="F10" s="14">
+        <f t="shared" si="0"/>
+        <v>299.89999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4443,11 +4917,15 @@
       <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="13">
         <v>85.9</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="11">
         <v>8</v>
+      </c>
+      <c r="F11" s="14">
+        <f t="shared" si="0"/>
+        <v>687.2</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4460,11 +4938,15 @@
       <c r="C12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="13">
         <v>89.9</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="11">
         <v>5</v>
+      </c>
+      <c r="F12" s="14">
+        <f t="shared" si="0"/>
+        <v>449.5</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4477,11 +4959,15 @@
       <c r="C13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="13">
         <v>92.9</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="11">
         <v>6</v>
+      </c>
+      <c r="F13" s="14">
+        <f t="shared" si="0"/>
+        <v>557.40000000000009</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4494,11 +4980,15 @@
       <c r="C14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="13">
         <v>149.9</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="11">
         <v>2</v>
+      </c>
+      <c r="F14" s="14">
+        <f t="shared" si="0"/>
+        <v>299.8</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4511,11 +5001,15 @@
       <c r="C15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="13">
         <v>65.900000000000006</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="11">
         <v>12</v>
+      </c>
+      <c r="F15" s="14">
+        <f t="shared" si="0"/>
+        <v>790.80000000000007</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4528,14 +5022,18 @@
       <c r="C16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="13">
         <v>69.900000000000006</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="11">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F16" s="14">
+        <f t="shared" si="0"/>
+        <v>1048.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -4545,14 +5043,18 @@
       <c r="C17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="13">
         <v>70.900000000000006</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="11">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F17" s="14">
+        <f t="shared" si="0"/>
+        <v>921.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -4562,14 +5064,18 @@
       <c r="C18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="13">
         <v>199.9</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="11">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F18" s="14">
+        <f t="shared" si="0"/>
+        <v>399.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
@@ -4579,14 +5085,18 @@
       <c r="C19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="13">
         <v>249.9</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F19" s="14">
+        <f t="shared" si="0"/>
+        <v>249.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
@@ -4596,14 +5106,18 @@
       <c r="C20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="13">
         <v>259.89999999999998</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F20" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
@@ -4613,14 +5127,18 @@
       <c r="C21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="13">
         <v>259.89999999999998</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F21" s="14">
+        <f t="shared" si="0"/>
+        <v>259.89999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
@@ -4630,14 +5148,18 @@
       <c r="C22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="13">
         <v>39.9</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="11">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F22" s="14">
+        <f t="shared" si="0"/>
+        <v>438.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -4647,49 +5169,57 @@
       <c r="C23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="13">
         <v>49.9</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="11">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F23" s="14">
+        <f t="shared" si="0"/>
+        <v>1047.8999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="D24" s="24">
+      <c r="D24" s="14">
         <f>SUBTOTAL(109,Table3[Preço Unitário])</f>
         <v>2983.0000000000009</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="8">
         <f>SUBTOTAL(109,Table3[Qtd])</f>
         <v>132</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F24" s="14">
+        <f>SUBTOTAL(109,Table3[Total])</f>
+        <v>10227.799999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="3"/>
     </row>
     <row r="33" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7607,7 +8137,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
